--- a/doc/EducationMatrix.xlsx
+++ b/doc/EducationMatrix.xlsx
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1497" uniqueCount="1383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1506" uniqueCount="1392">
   <si>
     <t>教育阶段</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4313,6 +4313,42 @@
   <si>
     <t>研究生考试
 (全日/在职)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年薪范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5W-10W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1W-5W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20W-30W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30W-40W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40W-50W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10W-15W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15W-20W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50W+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4406,7 +4442,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -4471,13 +4507,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
+      <left style="medium">
         <color auto="1"/>
       </left>
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thick">
+      <top style="medium">
         <color auto="1"/>
       </top>
       <bottom style="thin">
@@ -4486,7 +4522,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color auto="1"/>
       </left>
       <right style="thin">
@@ -4504,7 +4570,7 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thick">
+      <right style="medium">
         <color auto="1"/>
       </right>
       <top style="thin">
@@ -4516,7 +4582,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
+      <left style="medium">
         <color auto="1"/>
       </left>
       <right style="thin">
@@ -4525,7 +4591,7 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thick">
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -4540,7 +4606,7 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thick">
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -4549,52 +4615,59 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thick">
+      <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color auto="1"/>
       </left>
-      <right style="thick">
+      <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4635,56 +4708,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4697,6 +4731,63 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4999,513 +5090,561 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J25"/>
+  <dimension ref="B1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="4.625" style="2" customWidth="1"/>
-    <col min="2" max="3" width="9.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5" style="2" customWidth="1"/>
-    <col min="5" max="9" width="9" style="2"/>
-    <col min="10" max="10" width="76.25" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="2"/>
+    <col min="2" max="4" width="9.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="2" customWidth="1"/>
+    <col min="6" max="10" width="9" style="2"/>
+    <col min="11" max="11" width="76.25" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="18" customHeight="1" thickBot="1"/>
-    <row r="2" spans="2:10" s="3" customFormat="1" ht="18" customHeight="1" thickTop="1">
-      <c r="B2" s="14" t="s">
+    <row r="1" spans="2:11" ht="18" customHeight="1" thickBot="1"/>
+    <row r="2" spans="2:11" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="B2" s="22" t="s">
+        <v>1383</v>
+      </c>
+      <c r="C2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="D2" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="E2" s="23" t="s">
         <v>1377</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="F2" s="23" t="s">
         <v>1370</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="G2" s="23" t="s">
         <v>1369</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="H2" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="I2" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="J2" s="23" t="s">
         <v>1367</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="K2" s="24" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="2:10" s="4" customFormat="1" ht="18" customHeight="1">
-      <c r="B3" s="20" t="s">
+    <row r="3" spans="2:11" s="4" customFormat="1" ht="18" customHeight="1">
+      <c r="B3" s="38" t="s">
+        <v>1385</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="D3" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="E3" s="16" t="s">
         <v>1376</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="F3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13">
+      <c r="G3" s="13"/>
+      <c r="H3" s="13">
         <v>1</v>
       </c>
-      <c r="H3" s="13">
+      <c r="I3" s="13">
         <v>3</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="J3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="27" t="s">
+      <c r="K3" s="25" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="2:10" s="4" customFormat="1" ht="18" customHeight="1">
-      <c r="B4" s="20"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13">
+    <row r="4" spans="2:11" s="4" customFormat="1" ht="18" customHeight="1">
+      <c r="B4" s="39"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13">
         <v>1</v>
       </c>
-      <c r="H4" s="13">
+      <c r="I4" s="13">
         <v>4</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="J4" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="27"/>
-    </row>
-    <row r="5" spans="2:10" s="4" customFormat="1" ht="18" customHeight="1">
-      <c r="B5" s="20"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13">
+      <c r="K4" s="25"/>
+    </row>
+    <row r="5" spans="2:11" s="4" customFormat="1" ht="18" customHeight="1">
+      <c r="B5" s="39"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13">
         <v>1</v>
       </c>
-      <c r="H5" s="13">
+      <c r="I5" s="13">
         <v>5</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="J5" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="27"/>
-    </row>
-    <row r="6" spans="2:10" ht="18" customHeight="1">
-      <c r="B6" s="20"/>
-      <c r="C6" s="24" t="s">
+      <c r="K5" s="25"/>
+    </row>
+    <row r="6" spans="2:11" ht="18" customHeight="1">
+      <c r="B6" s="39"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="E6" s="16" t="s">
         <v>1375</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="F6" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12">
+      <c r="G6" s="12"/>
+      <c r="H6" s="12">
         <v>1</v>
       </c>
-      <c r="H6" s="12">
+      <c r="I6" s="12">
         <v>6</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="J6" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="J6" s="29" t="s">
+      <c r="K6" s="27" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="18" customHeight="1">
-      <c r="B7" s="20"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12">
+    <row r="7" spans="2:11" ht="18" customHeight="1">
+      <c r="B7" s="39"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12">
         <v>1</v>
       </c>
-      <c r="H7" s="12">
+      <c r="I7" s="12">
         <v>7</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="J7" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="J7" s="29"/>
-    </row>
-    <row r="8" spans="2:10" ht="18" customHeight="1">
-      <c r="B8" s="20"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="22" t="s">
+      <c r="K7" s="27"/>
+    </row>
+    <row r="8" spans="2:11" ht="18" customHeight="1">
+      <c r="B8" s="39"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12">
+      <c r="G8" s="12"/>
+      <c r="H8" s="12">
         <v>1</v>
       </c>
-      <c r="H8" s="12">
+      <c r="I8" s="12">
         <v>8</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="J8" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="J8" s="29"/>
-    </row>
-    <row r="9" spans="2:10" ht="18" customHeight="1">
-      <c r="B9" s="20"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12">
+      <c r="K8" s="27"/>
+    </row>
+    <row r="9" spans="2:11" ht="18" customHeight="1">
+      <c r="B9" s="39"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12">
         <v>1</v>
       </c>
-      <c r="H9" s="13">
+      <c r="I9" s="13">
         <v>9</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="J9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="J9" s="29"/>
-    </row>
-    <row r="10" spans="2:10" ht="18" customHeight="1">
-      <c r="B10" s="20"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="22" t="s">
+      <c r="K9" s="27"/>
+    </row>
+    <row r="10" spans="2:11" ht="18" customHeight="1">
+      <c r="B10" s="39"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12">
+      <c r="G10" s="12"/>
+      <c r="H10" s="12">
         <v>1</v>
       </c>
-      <c r="H10" s="13">
+      <c r="I10" s="13">
         <v>10</v>
       </c>
-      <c r="I10" s="12" t="s">
+      <c r="J10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J10" s="29"/>
-    </row>
-    <row r="11" spans="2:10" ht="18" customHeight="1">
-      <c r="B11" s="20"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12">
+      <c r="K10" s="27"/>
+    </row>
+    <row r="11" spans="2:11" ht="18" customHeight="1">
+      <c r="B11" s="40"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12">
         <v>1</v>
       </c>
-      <c r="H11" s="13">
+      <c r="I11" s="13">
         <v>11</v>
       </c>
-      <c r="I11" s="12" t="s">
+      <c r="J11" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="J11" s="29"/>
-    </row>
-    <row r="12" spans="2:10" ht="18" customHeight="1">
-      <c r="B12" s="20"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24" t="s">
+      <c r="K11" s="27"/>
+    </row>
+    <row r="12" spans="2:11" ht="18" customHeight="1">
+      <c r="B12" s="35" t="s">
+        <v>1384</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16" t="s">
         <v>1374</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="F12" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12">
+      <c r="G12" s="12"/>
+      <c r="H12" s="12">
         <v>1</v>
       </c>
-      <c r="H12" s="13">
+      <c r="I12" s="13">
         <v>12</v>
       </c>
-      <c r="I12" s="12" t="s">
+      <c r="J12" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="J12" s="15" t="s">
+      <c r="K12" s="28" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="2:10" ht="18" customHeight="1">
-      <c r="B13" s="20"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12">
+    <row r="13" spans="2:11" ht="18" customHeight="1">
+      <c r="B13" s="37"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12">
         <v>1</v>
       </c>
-      <c r="H13" s="13">
+      <c r="I13" s="13">
         <v>13</v>
       </c>
-      <c r="I13" s="12" t="s">
+      <c r="J13" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J13" s="17" t="s">
+      <c r="K13" s="29" t="s">
         <v>1372</v>
       </c>
     </row>
-    <row r="14" spans="2:10" ht="18" customHeight="1">
-      <c r="B14" s="20"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12">
+    <row r="14" spans="2:11" ht="18" customHeight="1">
+      <c r="B14" s="36"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12">
         <v>1</v>
       </c>
-      <c r="H14" s="13">
+      <c r="I14" s="13">
         <v>14</v>
       </c>
-      <c r="I14" s="12" t="s">
+      <c r="J14" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="J14" s="15" t="s">
+      <c r="K14" s="28" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="2:10" ht="18" customHeight="1">
-      <c r="B15" s="20"/>
-      <c r="C15" s="22" t="s">
+    <row r="15" spans="2:11" ht="18" customHeight="1">
+      <c r="B15" s="26" t="s">
+        <v>1389</v>
+      </c>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="E15" s="17" t="s">
         <v>1373</v>
       </c>
-      <c r="E15" s="26" t="s">
+      <c r="F15" s="15" t="s">
         <v>1378</v>
       </c>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12">
+      <c r="G15" s="12"/>
+      <c r="H15" s="12">
         <v>1</v>
       </c>
-      <c r="H15" s="12">
+      <c r="I15" s="12">
         <v>15</v>
       </c>
-      <c r="I15" s="12" t="s">
+      <c r="J15" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="J15" s="15" t="s">
+      <c r="K15" s="28" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="2:10" ht="18" customHeight="1">
-      <c r="B16" s="20"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12">
+    <row r="16" spans="2:11" ht="18" customHeight="1">
+      <c r="B16" s="35" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12">
         <v>1</v>
       </c>
-      <c r="H16" s="12">
+      <c r="I16" s="12">
         <v>16</v>
       </c>
-      <c r="I16" s="12" t="s">
+      <c r="J16" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="J16" s="29" t="s">
+      <c r="K16" s="27" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="2:10" ht="18" customHeight="1">
-      <c r="B17" s="20"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12">
+    <row r="17" spans="2:11" ht="18" customHeight="1">
+      <c r="B17" s="36"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12">
         <v>1</v>
       </c>
-      <c r="H17" s="12">
+      <c r="I17" s="12">
         <v>17</v>
       </c>
-      <c r="I17" s="12" t="s">
+      <c r="J17" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="J17" s="29"/>
-    </row>
-    <row r="18" spans="2:10" ht="18" customHeight="1">
-      <c r="B18" s="20" t="s">
+      <c r="K17" s="27"/>
+    </row>
+    <row r="18" spans="2:11" ht="18" customHeight="1">
+      <c r="B18" s="35" t="s">
+        <v>1386</v>
+      </c>
+      <c r="C18" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="26" t="s">
+      <c r="D18" s="14"/>
+      <c r="E18" s="15" t="s">
         <v>1381</v>
       </c>
-      <c r="E18" s="26" t="s">
+      <c r="F18" s="15" t="s">
         <v>1379</v>
       </c>
-      <c r="F18" s="22" t="s">
+      <c r="G18" s="14" t="s">
         <v>1371</v>
       </c>
-      <c r="G18" s="12">
+      <c r="H18" s="12">
         <v>1</v>
       </c>
-      <c r="H18" s="13">
+      <c r="I18" s="13">
         <v>18</v>
       </c>
-      <c r="I18" s="12" t="s">
+      <c r="J18" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="J18" s="28" t="s">
+      <c r="K18" s="30" t="s">
         <v>1380</v>
       </c>
     </row>
-    <row r="19" spans="2:10" ht="18" customHeight="1">
-      <c r="B19" s="20"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="12">
+    <row r="19" spans="2:11" ht="18" customHeight="1">
+      <c r="B19" s="36"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="12">
         <v>1</v>
       </c>
-      <c r="H19" s="13">
+      <c r="I19" s="13">
         <v>19</v>
       </c>
-      <c r="I19" s="12" t="s">
+      <c r="J19" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="J19" s="28"/>
-    </row>
-    <row r="20" spans="2:10" ht="18" customHeight="1">
-      <c r="B20" s="20"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="12">
+      <c r="K19" s="30"/>
+    </row>
+    <row r="20" spans="2:11" ht="18" customHeight="1">
+      <c r="B20" s="35" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="12">
         <v>1</v>
       </c>
-      <c r="H20" s="13">
+      <c r="I20" s="13">
         <v>20</v>
       </c>
-      <c r="I20" s="12" t="s">
+      <c r="J20" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="J20" s="28"/>
-    </row>
-    <row r="21" spans="2:10" ht="18" customHeight="1">
-      <c r="B21" s="20"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="12">
+      <c r="K20" s="30"/>
+    </row>
+    <row r="21" spans="2:11" ht="18" customHeight="1">
+      <c r="B21" s="36"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="12">
         <v>1</v>
       </c>
-      <c r="H21" s="13">
+      <c r="I21" s="13">
         <v>21</v>
       </c>
-      <c r="I21" s="12" t="s">
+      <c r="J21" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J21" s="28"/>
-    </row>
-    <row r="22" spans="2:10" ht="18" customHeight="1">
-      <c r="B22" s="20"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="26" t="s">
+      <c r="K21" s="30"/>
+    </row>
+    <row r="22" spans="2:11" ht="18" customHeight="1">
+      <c r="B22" s="35" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="15" t="s">
         <v>1382</v>
       </c>
-      <c r="E22" s="22" t="s">
+      <c r="F22" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="22" t="s">
+      <c r="G22" s="14" t="s">
         <v>1368</v>
       </c>
-      <c r="G22" s="12">
+      <c r="H22" s="12">
         <v>1</v>
       </c>
-      <c r="H22" s="13">
+      <c r="I22" s="13">
         <v>22</v>
       </c>
-      <c r="I22" s="12" t="s">
+      <c r="J22" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="J22" s="28" t="s">
+      <c r="K22" s="30" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="18" customHeight="1">
-      <c r="B23" s="20"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="12">
+    <row r="23" spans="2:11" ht="18" customHeight="1">
+      <c r="B23" s="36"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="12">
         <v>1</v>
       </c>
-      <c r="H23" s="13">
+      <c r="I23" s="13">
         <v>23</v>
       </c>
-      <c r="I23" s="12" t="s">
+      <c r="J23" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="J23" s="28"/>
-    </row>
-    <row r="24" spans="2:10" ht="18" customHeight="1" thickBot="1">
-      <c r="B24" s="21"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="16">
+      <c r="K23" s="30"/>
+    </row>
+    <row r="24" spans="2:11" ht="18" customHeight="1" thickBot="1">
+      <c r="B24" s="31" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="33">
         <v>1</v>
       </c>
-      <c r="H24" s="16">
+      <c r="I24" s="33">
         <v>24</v>
       </c>
-      <c r="I24" s="16" t="s">
+      <c r="J24" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="J24" s="30"/>
-    </row>
-    <row r="25" spans="2:10" ht="18" customHeight="1" thickTop="1"/>
+      <c r="K24" s="34"/>
+    </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="J3:J5"/>
-    <mergeCell ref="J18:J21"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="J22:J24"/>
-    <mergeCell ref="C15:C24"/>
+  <mergeCells count="32">
+    <mergeCell ref="B3:B11"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C18:C24"/>
     <mergeCell ref="F22:F24"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="F15:F17"/>
     <mergeCell ref="F18:F21"/>
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="D6:D11"/>
-    <mergeCell ref="J6:J11"/>
-    <mergeCell ref="B18:B24"/>
+    <mergeCell ref="C3:C17"/>
+    <mergeCell ref="D6:D14"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="K3:K5"/>
+    <mergeCell ref="K18:K21"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="K22:K24"/>
+    <mergeCell ref="D15:D24"/>
+    <mergeCell ref="G22:G24"/>
+    <mergeCell ref="G18:G21"/>
+    <mergeCell ref="E18:E21"/>
     <mergeCell ref="E22:E24"/>
     <mergeCell ref="E12:E14"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="E18:E21"/>
-    <mergeCell ref="B3:B17"/>
-    <mergeCell ref="C6:C14"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E6:E11"/>
+    <mergeCell ref="K6:K11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5532,23 +5671,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="31"/>
+      <c r="D2" s="18"/>
       <c r="E2" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="F2" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="31"/>
+      <c r="G2" s="18"/>
     </row>
     <row r="3" spans="2:7" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="B3" s="31"/>
+      <c r="B3" s="18"/>
       <c r="C3" s="5" t="s">
         <v>46</v>
       </c>
@@ -5696,10 +5835,10 @@
       <c r="C2" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="31"/>
+      <c r="E2" s="18"/>
     </row>
     <row r="3" spans="2:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="B3" s="5" t="s">
@@ -5708,16 +5847,16 @@
       <c r="C3" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="E3" s="31"/>
+      <c r="E3" s="18"/>
     </row>
     <row r="4" spans="2:5" ht="18" customHeight="1">
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="14" t="s">
         <v>83</v>
       </c>
       <c r="D4" s="6">
@@ -5728,8 +5867,8 @@
       </c>
     </row>
     <row r="5" spans="2:5" ht="18" customHeight="1">
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
       <c r="D5" s="6">
         <v>10102</v>
       </c>
@@ -5738,8 +5877,8 @@
       </c>
     </row>
     <row r="6" spans="2:5" ht="18" customHeight="1">
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
       <c r="D6" s="6">
         <v>10103</v>
       </c>
@@ -5748,8 +5887,8 @@
       </c>
     </row>
     <row r="7" spans="2:5" ht="18" customHeight="1">
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
       <c r="D7" s="6">
         <v>10104</v>
       </c>
@@ -5758,8 +5897,8 @@
       </c>
     </row>
     <row r="8" spans="2:5" ht="18" customHeight="1">
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
       <c r="D8" s="6">
         <v>10105</v>
       </c>
@@ -5768,8 +5907,8 @@
       </c>
     </row>
     <row r="9" spans="2:5" ht="18" customHeight="1">
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
       <c r="D9" s="6">
         <v>10106</v>
       </c>
@@ -5778,8 +5917,8 @@
       </c>
     </row>
     <row r="10" spans="2:5" ht="18" customHeight="1">
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
       <c r="D10" s="6">
         <v>10107</v>
       </c>
@@ -5788,8 +5927,8 @@
       </c>
     </row>
     <row r="11" spans="2:5" ht="18" customHeight="1">
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
       <c r="D11" s="6">
         <v>10108</v>
       </c>
@@ -5798,10 +5937,10 @@
       </c>
     </row>
     <row r="12" spans="2:5" ht="18" customHeight="1">
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="14" t="s">
         <v>93</v>
       </c>
       <c r="D12" s="6">
@@ -5812,8 +5951,8 @@
       </c>
     </row>
     <row r="13" spans="2:5" ht="18" customHeight="1">
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
       <c r="D13" s="6">
         <v>20102</v>
       </c>
@@ -5822,8 +5961,8 @@
       </c>
     </row>
     <row r="14" spans="2:5" ht="18" customHeight="1">
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
       <c r="D14" s="6">
         <v>20103</v>
       </c>
@@ -5832,8 +5971,8 @@
       </c>
     </row>
     <row r="15" spans="2:5" ht="18" customHeight="1">
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
       <c r="D15" s="6">
         <v>20104</v>
       </c>
@@ -5842,8 +5981,8 @@
       </c>
     </row>
     <row r="16" spans="2:5" ht="18" customHeight="1">
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
       <c r="D16" s="6">
         <v>20105</v>
       </c>
@@ -5852,8 +5991,8 @@
       </c>
     </row>
     <row r="17" spans="2:5" ht="18" customHeight="1">
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
       <c r="D17" s="6">
         <v>20106</v>
       </c>
@@ -5862,8 +6001,8 @@
       </c>
     </row>
     <row r="18" spans="2:5" ht="18" customHeight="1">
-      <c r="B18" s="22"/>
-      <c r="C18" s="22" t="s">
+      <c r="B18" s="14"/>
+      <c r="C18" s="14" t="s">
         <v>100</v>
       </c>
       <c r="D18" s="6">
@@ -5874,8 +6013,8 @@
       </c>
     </row>
     <row r="19" spans="2:5" ht="18" customHeight="1">
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
       <c r="D19" s="6">
         <v>20202</v>
       </c>
@@ -5884,8 +6023,8 @@
       </c>
     </row>
     <row r="20" spans="2:5" ht="18" customHeight="1">
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
       <c r="D20" s="6">
         <v>20203</v>
       </c>
@@ -5894,8 +6033,8 @@
       </c>
     </row>
     <row r="21" spans="2:5" ht="18" customHeight="1">
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
       <c r="D21" s="6">
         <v>20204</v>
       </c>
@@ -5904,8 +6043,8 @@
       </c>
     </row>
     <row r="22" spans="2:5" ht="18" customHeight="1">
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
       <c r="D22" s="6">
         <v>20205</v>
       </c>
@@ -5914,8 +6053,8 @@
       </c>
     </row>
     <row r="23" spans="2:5" ht="18" customHeight="1">
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
       <c r="D23" s="6">
         <v>20206</v>
       </c>
@@ -5924,8 +6063,8 @@
       </c>
     </row>
     <row r="24" spans="2:5" ht="18" customHeight="1">
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
       <c r="D24" s="6">
         <v>20207</v>
       </c>
@@ -5934,8 +6073,8 @@
       </c>
     </row>
     <row r="25" spans="2:5" ht="18" customHeight="1">
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
       <c r="D25" s="6">
         <v>20208</v>
       </c>
@@ -5944,8 +6083,8 @@
       </c>
     </row>
     <row r="26" spans="2:5" ht="18" customHeight="1">
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
       <c r="D26" s="6">
         <v>20209</v>
       </c>
@@ -5954,8 +6093,8 @@
       </c>
     </row>
     <row r="27" spans="2:5" ht="18" customHeight="1">
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
       <c r="D27" s="6">
         <v>20210</v>
       </c>
@@ -5964,10 +6103,10 @@
       </c>
     </row>
     <row r="28" spans="2:5" ht="18" customHeight="1">
-      <c r="B28" s="22" t="s">
+      <c r="B28" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="C28" s="22" t="s">
+      <c r="C28" s="14" t="s">
         <v>112</v>
       </c>
       <c r="D28" s="6">
@@ -5978,8 +6117,8 @@
       </c>
     </row>
     <row r="29" spans="2:5" ht="18" customHeight="1">
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
       <c r="D29" s="6">
         <v>30102</v>
       </c>
@@ -5988,8 +6127,8 @@
       </c>
     </row>
     <row r="30" spans="2:5" ht="18" customHeight="1">
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
       <c r="D30" s="6">
         <v>30103</v>
       </c>
@@ -5998,8 +6137,8 @@
       </c>
     </row>
     <row r="31" spans="2:5" ht="18" customHeight="1">
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
       <c r="D31" s="6">
         <v>30104</v>
       </c>
@@ -6008,8 +6147,8 @@
       </c>
     </row>
     <row r="32" spans="2:5" ht="18" customHeight="1">
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
       <c r="D32" s="6">
         <v>30105</v>
       </c>
@@ -6018,8 +6157,8 @@
       </c>
     </row>
     <row r="33" spans="2:5" ht="18" customHeight="1">
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
       <c r="D33" s="6">
         <v>30106</v>
       </c>
@@ -6028,8 +6167,8 @@
       </c>
     </row>
     <row r="34" spans="2:5" ht="18" customHeight="1">
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
       <c r="D34" s="6">
         <v>30107</v>
       </c>
@@ -6038,8 +6177,8 @@
       </c>
     </row>
     <row r="35" spans="2:5" ht="18" customHeight="1">
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
       <c r="D35" s="6">
         <v>30108</v>
       </c>
@@ -6048,8 +6187,8 @@
       </c>
     </row>
     <row r="36" spans="2:5" ht="18" customHeight="1">
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
       <c r="D36" s="6">
         <v>30109</v>
       </c>
@@ -6058,8 +6197,8 @@
       </c>
     </row>
     <row r="37" spans="2:5" ht="18" customHeight="1">
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
       <c r="D37" s="6">
         <v>30110</v>
       </c>
@@ -6068,8 +6207,8 @@
       </c>
     </row>
     <row r="38" spans="2:5" ht="18" customHeight="1">
-      <c r="B38" s="22"/>
-      <c r="C38" s="22" t="s">
+      <c r="B38" s="14"/>
+      <c r="C38" s="14" t="s">
         <v>123</v>
       </c>
       <c r="D38" s="6">
@@ -6080,8 +6219,8 @@
       </c>
     </row>
     <row r="39" spans="2:5" ht="18" customHeight="1">
-      <c r="B39" s="22"/>
-      <c r="C39" s="22"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
       <c r="D39" s="6">
         <v>30202</v>
       </c>
@@ -6090,8 +6229,8 @@
       </c>
     </row>
     <row r="40" spans="2:5" ht="18" customHeight="1">
-      <c r="B40" s="22"/>
-      <c r="C40" s="22"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
       <c r="D40" s="6">
         <v>30203</v>
       </c>
@@ -6100,8 +6239,8 @@
       </c>
     </row>
     <row r="41" spans="2:5" ht="18" customHeight="1">
-      <c r="B41" s="22"/>
-      <c r="C41" s="22"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
       <c r="D41" s="6">
         <v>30204</v>
       </c>
@@ -6110,8 +6249,8 @@
       </c>
     </row>
     <row r="42" spans="2:5" ht="18" customHeight="1">
-      <c r="B42" s="22"/>
-      <c r="C42" s="22"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
       <c r="D42" s="6">
         <v>30206</v>
       </c>
@@ -6120,8 +6259,8 @@
       </c>
     </row>
     <row r="43" spans="2:5" ht="18" customHeight="1">
-      <c r="B43" s="22"/>
-      <c r="C43" s="22"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
       <c r="D43" s="6">
         <v>30207</v>
       </c>
@@ -6130,8 +6269,8 @@
       </c>
     </row>
     <row r="44" spans="2:5" ht="18" customHeight="1">
-      <c r="B44" s="22"/>
-      <c r="C44" s="22"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
       <c r="D44" s="6">
         <v>30208</v>
       </c>
@@ -6140,8 +6279,8 @@
       </c>
     </row>
     <row r="45" spans="2:5" ht="18" customHeight="1">
-      <c r="B45" s="22"/>
-      <c r="C45" s="22" t="s">
+      <c r="B45" s="14"/>
+      <c r="C45" s="14" t="s">
         <v>131</v>
       </c>
       <c r="D45" s="6">
@@ -6152,8 +6291,8 @@
       </c>
     </row>
     <row r="46" spans="2:5" ht="18" customHeight="1">
-      <c r="B46" s="22"/>
-      <c r="C46" s="22"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
       <c r="D46" s="6">
         <v>30302</v>
       </c>
@@ -6162,8 +6301,8 @@
       </c>
     </row>
     <row r="47" spans="2:5" ht="18" customHeight="1">
-      <c r="B47" s="22"/>
-      <c r="C47" s="22"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
       <c r="D47" s="6">
         <v>30303</v>
       </c>
@@ -6172,8 +6311,8 @@
       </c>
     </row>
     <row r="48" spans="2:5" ht="18" customHeight="1">
-      <c r="B48" s="22"/>
-      <c r="C48" s="22"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
       <c r="D48" s="6">
         <v>30304</v>
       </c>
@@ -6182,8 +6321,8 @@
       </c>
     </row>
     <row r="49" spans="2:5" ht="18" customHeight="1">
-      <c r="B49" s="22"/>
-      <c r="C49" s="22" t="s">
+      <c r="B49" s="14"/>
+      <c r="C49" s="14" t="s">
         <v>136</v>
       </c>
       <c r="D49" s="6">
@@ -6194,8 +6333,8 @@
       </c>
     </row>
     <row r="50" spans="2:5" ht="18" customHeight="1">
-      <c r="B50" s="22"/>
-      <c r="C50" s="22"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
       <c r="D50" s="6">
         <v>30402</v>
       </c>
@@ -6204,8 +6343,8 @@
       </c>
     </row>
     <row r="51" spans="2:5" ht="18" customHeight="1">
-      <c r="B51" s="22"/>
-      <c r="C51" s="22"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
       <c r="D51" s="6">
         <v>30403</v>
       </c>
@@ -6214,8 +6353,8 @@
       </c>
     </row>
     <row r="52" spans="2:5" ht="18" customHeight="1">
-      <c r="B52" s="22"/>
-      <c r="C52" s="22"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
       <c r="D52" s="6">
         <v>30404</v>
       </c>
@@ -6224,8 +6363,8 @@
       </c>
     </row>
     <row r="53" spans="2:5" ht="18" customHeight="1">
-      <c r="B53" s="22"/>
-      <c r="C53" s="22"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
       <c r="D53" s="6">
         <v>30405</v>
       </c>
@@ -6234,8 +6373,8 @@
       </c>
     </row>
     <row r="54" spans="2:5" ht="18" customHeight="1">
-      <c r="B54" s="22"/>
-      <c r="C54" s="22" t="s">
+      <c r="B54" s="14"/>
+      <c r="C54" s="14" t="s">
         <v>142</v>
       </c>
       <c r="D54" s="6">
@@ -6246,8 +6385,8 @@
       </c>
     </row>
     <row r="55" spans="2:5" ht="18" customHeight="1">
-      <c r="B55" s="22"/>
-      <c r="C55" s="22"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
       <c r="D55" s="6">
         <v>30502</v>
       </c>
@@ -6256,8 +6395,8 @@
       </c>
     </row>
     <row r="56" spans="2:5" ht="18" customHeight="1">
-      <c r="B56" s="22"/>
-      <c r="C56" s="22"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
       <c r="D56" s="6">
         <v>30503</v>
       </c>
@@ -6266,8 +6405,8 @@
       </c>
     </row>
     <row r="57" spans="2:5" ht="18" customHeight="1">
-      <c r="B57" s="22"/>
-      <c r="C57" s="22"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
       <c r="D57" s="6">
         <v>30504</v>
       </c>
@@ -6276,8 +6415,8 @@
       </c>
     </row>
     <row r="58" spans="2:5" ht="18" customHeight="1">
-      <c r="B58" s="22"/>
-      <c r="C58" s="22"/>
+      <c r="B58" s="14"/>
+      <c r="C58" s="14"/>
       <c r="D58" s="6">
         <v>30505</v>
       </c>
@@ -6286,10 +6425,10 @@
       </c>
     </row>
     <row r="59" spans="2:5" ht="18" customHeight="1">
-      <c r="B59" s="22" t="s">
+      <c r="B59" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="C59" s="22" t="s">
+      <c r="C59" s="14" t="s">
         <v>149</v>
       </c>
       <c r="D59" s="6">
@@ -6300,8 +6439,8 @@
       </c>
     </row>
     <row r="60" spans="2:5" ht="18" customHeight="1">
-      <c r="B60" s="22"/>
-      <c r="C60" s="22"/>
+      <c r="B60" s="14"/>
+      <c r="C60" s="14"/>
       <c r="D60" s="6">
         <v>40102</v>
       </c>
@@ -6310,8 +6449,8 @@
       </c>
     </row>
     <row r="61" spans="2:5" ht="18" customHeight="1">
-      <c r="B61" s="22"/>
-      <c r="C61" s="22"/>
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
       <c r="D61" s="6">
         <v>40103</v>
       </c>
@@ -6320,8 +6459,8 @@
       </c>
     </row>
     <row r="62" spans="2:5" ht="18" customHeight="1">
-      <c r="B62" s="22"/>
-      <c r="C62" s="22"/>
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
       <c r="D62" s="6">
         <v>40104</v>
       </c>
@@ -6330,8 +6469,8 @@
       </c>
     </row>
     <row r="63" spans="2:5" ht="18" customHeight="1">
-      <c r="B63" s="22"/>
-      <c r="C63" s="22"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
       <c r="D63" s="6">
         <v>40105</v>
       </c>
@@ -6340,8 +6479,8 @@
       </c>
     </row>
     <row r="64" spans="2:5" ht="18" customHeight="1">
-      <c r="B64" s="22"/>
-      <c r="C64" s="22"/>
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
       <c r="D64" s="6">
         <v>40106</v>
       </c>
@@ -6350,8 +6489,8 @@
       </c>
     </row>
     <row r="65" spans="2:5" ht="18" customHeight="1">
-      <c r="B65" s="22"/>
-      <c r="C65" s="22"/>
+      <c r="B65" s="14"/>
+      <c r="C65" s="14"/>
       <c r="D65" s="6">
         <v>40107</v>
       </c>
@@ -6360,8 +6499,8 @@
       </c>
     </row>
     <row r="66" spans="2:5" ht="18" customHeight="1">
-      <c r="B66" s="22"/>
-      <c r="C66" s="22"/>
+      <c r="B66" s="14"/>
+      <c r="C66" s="14"/>
       <c r="D66" s="6">
         <v>40108</v>
       </c>
@@ -6370,8 +6509,8 @@
       </c>
     </row>
     <row r="67" spans="2:5" ht="18" customHeight="1">
-      <c r="B67" s="22"/>
-      <c r="C67" s="22"/>
+      <c r="B67" s="14"/>
+      <c r="C67" s="14"/>
       <c r="D67" s="6">
         <v>40109</v>
       </c>
@@ -6380,8 +6519,8 @@
       </c>
     </row>
     <row r="68" spans="2:5" ht="18" customHeight="1">
-      <c r="B68" s="22"/>
-      <c r="C68" s="22"/>
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
       <c r="D68" s="6">
         <v>40110</v>
       </c>
@@ -6390,8 +6529,8 @@
       </c>
     </row>
     <row r="69" spans="2:5" ht="31.5" customHeight="1">
-      <c r="B69" s="22"/>
-      <c r="C69" s="22" t="s">
+      <c r="B69" s="14"/>
+      <c r="C69" s="14" t="s">
         <v>160</v>
       </c>
       <c r="D69" s="6">
@@ -6402,8 +6541,8 @@
       </c>
     </row>
     <row r="70" spans="2:5" ht="18" customHeight="1">
-      <c r="B70" s="22"/>
-      <c r="C70" s="22"/>
+      <c r="B70" s="14"/>
+      <c r="C70" s="14"/>
       <c r="D70" s="6">
         <v>40202</v>
       </c>
@@ -6412,8 +6551,8 @@
       </c>
     </row>
     <row r="71" spans="2:5" ht="18" customHeight="1">
-      <c r="B71" s="22"/>
-      <c r="C71" s="22"/>
+      <c r="B71" s="14"/>
+      <c r="C71" s="14"/>
       <c r="D71" s="6">
         <v>40203</v>
       </c>
@@ -6422,8 +6561,8 @@
       </c>
     </row>
     <row r="72" spans="2:5" ht="18" customHeight="1">
-      <c r="B72" s="22"/>
-      <c r="C72" s="22" t="s">
+      <c r="B72" s="14"/>
+      <c r="C72" s="14" t="s">
         <v>164</v>
       </c>
       <c r="D72" s="6">
@@ -6434,8 +6573,8 @@
       </c>
     </row>
     <row r="73" spans="2:5" ht="18" customHeight="1">
-      <c r="B73" s="22"/>
-      <c r="C73" s="22"/>
+      <c r="B73" s="14"/>
+      <c r="C73" s="14"/>
       <c r="D73" s="6">
         <v>40302</v>
       </c>
@@ -6444,8 +6583,8 @@
       </c>
     </row>
     <row r="74" spans="2:5" ht="18" customHeight="1">
-      <c r="B74" s="22"/>
-      <c r="C74" s="22"/>
+      <c r="B74" s="14"/>
+      <c r="C74" s="14"/>
       <c r="D74" s="6">
         <v>40303</v>
       </c>
@@ -6454,8 +6593,8 @@
       </c>
     </row>
     <row r="75" spans="2:5" ht="18" customHeight="1">
-      <c r="B75" s="22"/>
-      <c r="C75" s="22"/>
+      <c r="B75" s="14"/>
+      <c r="C75" s="14"/>
       <c r="D75" s="6">
         <v>40304</v>
       </c>
@@ -6464,10 +6603,10 @@
       </c>
     </row>
     <row r="76" spans="2:5" ht="18" customHeight="1">
-      <c r="B76" s="22" t="s">
+      <c r="B76" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="C76" s="22" t="s">
+      <c r="C76" s="14" t="s">
         <v>170</v>
       </c>
       <c r="D76" s="6">
@@ -6478,8 +6617,8 @@
       </c>
     </row>
     <row r="77" spans="2:5" ht="18" customHeight="1">
-      <c r="B77" s="22"/>
-      <c r="C77" s="22"/>
+      <c r="B77" s="14"/>
+      <c r="C77" s="14"/>
       <c r="D77" s="6">
         <v>50102</v>
       </c>
@@ -6488,8 +6627,8 @@
       </c>
     </row>
     <row r="78" spans="2:5" ht="18" customHeight="1">
-      <c r="B78" s="22"/>
-      <c r="C78" s="22"/>
+      <c r="B78" s="14"/>
+      <c r="C78" s="14"/>
       <c r="D78" s="6">
         <v>50103</v>
       </c>
@@ -6498,8 +6637,8 @@
       </c>
     </row>
     <row r="79" spans="2:5" ht="18" customHeight="1">
-      <c r="B79" s="22"/>
-      <c r="C79" s="22"/>
+      <c r="B79" s="14"/>
+      <c r="C79" s="14"/>
       <c r="D79" s="6">
         <v>50104</v>
       </c>
@@ -6508,8 +6647,8 @@
       </c>
     </row>
     <row r="80" spans="2:5" ht="18" customHeight="1">
-      <c r="B80" s="22"/>
-      <c r="C80" s="22"/>
+      <c r="B80" s="14"/>
+      <c r="C80" s="14"/>
       <c r="D80" s="6">
         <v>50105</v>
       </c>
@@ -6518,8 +6657,8 @@
       </c>
     </row>
     <row r="81" spans="2:5" ht="18" customHeight="1">
-      <c r="B81" s="22"/>
-      <c r="C81" s="22"/>
+      <c r="B81" s="14"/>
+      <c r="C81" s="14"/>
       <c r="D81" s="6">
         <v>50106</v>
       </c>
@@ -6528,8 +6667,8 @@
       </c>
     </row>
     <row r="82" spans="2:5" ht="18" customHeight="1">
-      <c r="B82" s="22"/>
-      <c r="C82" s="22"/>
+      <c r="B82" s="14"/>
+      <c r="C82" s="14"/>
       <c r="D82" s="6">
         <v>50107</v>
       </c>
@@ -6538,8 +6677,8 @@
       </c>
     </row>
     <row r="83" spans="2:5" ht="18" customHeight="1">
-      <c r="B83" s="22"/>
-      <c r="C83" s="22"/>
+      <c r="B83" s="14"/>
+      <c r="C83" s="14"/>
       <c r="D83" s="6">
         <v>50108</v>
       </c>
@@ -6548,8 +6687,8 @@
       </c>
     </row>
     <row r="84" spans="2:5" ht="18" customHeight="1">
-      <c r="B84" s="22"/>
-      <c r="C84" s="22" t="s">
+      <c r="B84" s="14"/>
+      <c r="C84" s="14" t="s">
         <v>179</v>
       </c>
       <c r="D84" s="6">
@@ -6560,8 +6699,8 @@
       </c>
     </row>
     <row r="85" spans="2:5" ht="18" customHeight="1">
-      <c r="B85" s="22"/>
-      <c r="C85" s="22"/>
+      <c r="B85" s="14"/>
+      <c r="C85" s="14"/>
       <c r="D85" s="6">
         <v>50202</v>
       </c>
@@ -6570,8 +6709,8 @@
       </c>
     </row>
     <row r="86" spans="2:5" ht="18" customHeight="1">
-      <c r="B86" s="22"/>
-      <c r="C86" s="22"/>
+      <c r="B86" s="14"/>
+      <c r="C86" s="14"/>
       <c r="D86" s="6">
         <v>50203</v>
       </c>
@@ -6580,8 +6719,8 @@
       </c>
     </row>
     <row r="87" spans="2:5" ht="18" customHeight="1">
-      <c r="B87" s="22"/>
-      <c r="C87" s="22"/>
+      <c r="B87" s="14"/>
+      <c r="C87" s="14"/>
       <c r="D87" s="6">
         <v>50204</v>
       </c>
@@ -6590,8 +6729,8 @@
       </c>
     </row>
     <row r="88" spans="2:5" ht="18" customHeight="1">
-      <c r="B88" s="22"/>
-      <c r="C88" s="22"/>
+      <c r="B88" s="14"/>
+      <c r="C88" s="14"/>
       <c r="D88" s="6">
         <v>50205</v>
       </c>
@@ -6600,8 +6739,8 @@
       </c>
     </row>
     <row r="89" spans="2:5" ht="18" customHeight="1">
-      <c r="B89" s="22"/>
-      <c r="C89" s="22"/>
+      <c r="B89" s="14"/>
+      <c r="C89" s="14"/>
       <c r="D89" s="6">
         <v>50206</v>
       </c>
@@ -6610,8 +6749,8 @@
       </c>
     </row>
     <row r="90" spans="2:5" ht="18" customHeight="1">
-      <c r="B90" s="22"/>
-      <c r="C90" s="22"/>
+      <c r="B90" s="14"/>
+      <c r="C90" s="14"/>
       <c r="D90" s="6">
         <v>50207</v>
       </c>
@@ -6620,8 +6759,8 @@
       </c>
     </row>
     <row r="91" spans="2:5" ht="18" customHeight="1">
-      <c r="B91" s="22"/>
-      <c r="C91" s="22"/>
+      <c r="B91" s="14"/>
+      <c r="C91" s="14"/>
       <c r="D91" s="6">
         <v>50208</v>
       </c>
@@ -6630,8 +6769,8 @@
       </c>
     </row>
     <row r="92" spans="2:5" ht="18" customHeight="1">
-      <c r="B92" s="22"/>
-      <c r="C92" s="22"/>
+      <c r="B92" s="14"/>
+      <c r="C92" s="14"/>
       <c r="D92" s="6">
         <v>50209</v>
       </c>
@@ -6640,8 +6779,8 @@
       </c>
     </row>
     <row r="93" spans="2:5" ht="18" customHeight="1">
-      <c r="B93" s="22"/>
-      <c r="C93" s="22"/>
+      <c r="B93" s="14"/>
+      <c r="C93" s="14"/>
       <c r="D93" s="6">
         <v>50210</v>
       </c>
@@ -6650,8 +6789,8 @@
       </c>
     </row>
     <row r="94" spans="2:5" ht="18" customHeight="1">
-      <c r="B94" s="22"/>
-      <c r="C94" s="22"/>
+      <c r="B94" s="14"/>
+      <c r="C94" s="14"/>
       <c r="D94" s="6">
         <v>50211</v>
       </c>
@@ -6660,8 +6799,8 @@
       </c>
     </row>
     <row r="95" spans="2:5" ht="18" customHeight="1">
-      <c r="B95" s="22"/>
-      <c r="C95" s="22" t="s">
+      <c r="B95" s="14"/>
+      <c r="C95" s="14" t="s">
         <v>191</v>
       </c>
       <c r="D95" s="6">
@@ -6672,8 +6811,8 @@
       </c>
     </row>
     <row r="96" spans="2:5" ht="18" customHeight="1">
-      <c r="B96" s="22"/>
-      <c r="C96" s="22"/>
+      <c r="B96" s="14"/>
+      <c r="C96" s="14"/>
       <c r="D96" s="6">
         <v>50302</v>
       </c>
@@ -6682,8 +6821,8 @@
       </c>
     </row>
     <row r="97" spans="2:5" ht="18" customHeight="1">
-      <c r="B97" s="22"/>
-      <c r="C97" s="22" t="s">
+      <c r="B97" s="14"/>
+      <c r="C97" s="14" t="s">
         <v>194</v>
       </c>
       <c r="D97" s="6">
@@ -6694,8 +6833,8 @@
       </c>
     </row>
     <row r="98" spans="2:5" ht="18" customHeight="1">
-      <c r="B98" s="22"/>
-      <c r="C98" s="22"/>
+      <c r="B98" s="14"/>
+      <c r="C98" s="14"/>
       <c r="D98" s="6">
         <v>50402</v>
       </c>
@@ -6704,8 +6843,8 @@
       </c>
     </row>
     <row r="99" spans="2:5" ht="18" customHeight="1">
-      <c r="B99" s="22"/>
-      <c r="C99" s="22"/>
+      <c r="B99" s="14"/>
+      <c r="C99" s="14"/>
       <c r="D99" s="6">
         <v>50403</v>
       </c>
@@ -6714,8 +6853,8 @@
       </c>
     </row>
     <row r="100" spans="2:5" ht="18" customHeight="1">
-      <c r="B100" s="22"/>
-      <c r="C100" s="22"/>
+      <c r="B100" s="14"/>
+      <c r="C100" s="14"/>
       <c r="D100" s="6">
         <v>50404</v>
       </c>
@@ -6724,8 +6863,8 @@
       </c>
     </row>
     <row r="101" spans="2:5" ht="18" customHeight="1">
-      <c r="B101" s="22"/>
-      <c r="C101" s="22"/>
+      <c r="B101" s="14"/>
+      <c r="C101" s="14"/>
       <c r="D101" s="6">
         <v>50405</v>
       </c>
@@ -6734,8 +6873,8 @@
       </c>
     </row>
     <row r="102" spans="2:5" ht="18" customHeight="1">
-      <c r="B102" s="22"/>
-      <c r="C102" s="22"/>
+      <c r="B102" s="14"/>
+      <c r="C102" s="14"/>
       <c r="D102" s="6">
         <v>50406</v>
       </c>
@@ -6744,8 +6883,8 @@
       </c>
     </row>
     <row r="103" spans="2:5" ht="18" customHeight="1">
-      <c r="B103" s="22"/>
-      <c r="C103" s="22"/>
+      <c r="B103" s="14"/>
+      <c r="C103" s="14"/>
       <c r="D103" s="6">
         <v>50407</v>
       </c>
@@ -6754,8 +6893,8 @@
       </c>
     </row>
     <row r="104" spans="2:5" ht="18" customHeight="1">
-      <c r="B104" s="22"/>
-      <c r="C104" s="22"/>
+      <c r="B104" s="14"/>
+      <c r="C104" s="14"/>
       <c r="D104" s="6">
         <v>50408</v>
       </c>
@@ -6764,10 +6903,10 @@
       </c>
     </row>
     <row r="105" spans="2:5" ht="18" customHeight="1">
-      <c r="B105" s="22" t="s">
+      <c r="B105" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="C105" s="22" t="s">
+      <c r="C105" s="14" t="s">
         <v>204</v>
       </c>
       <c r="D105" s="6">
@@ -6778,8 +6917,8 @@
       </c>
     </row>
     <row r="106" spans="2:5" ht="18" customHeight="1">
-      <c r="B106" s="22"/>
-      <c r="C106" s="22"/>
+      <c r="B106" s="14"/>
+      <c r="C106" s="14"/>
       <c r="D106" s="6">
         <v>60102</v>
       </c>
@@ -6788,8 +6927,8 @@
       </c>
     </row>
     <row r="107" spans="2:5" ht="18" customHeight="1">
-      <c r="B107" s="22"/>
-      <c r="C107" s="22"/>
+      <c r="B107" s="14"/>
+      <c r="C107" s="14"/>
       <c r="D107" s="6">
         <v>60103</v>
       </c>
@@ -6798,8 +6937,8 @@
       </c>
     </row>
     <row r="108" spans="2:5" ht="18" customHeight="1">
-      <c r="B108" s="22"/>
-      <c r="C108" s="22"/>
+      <c r="B108" s="14"/>
+      <c r="C108" s="14"/>
       <c r="D108" s="6">
         <v>60104</v>
       </c>
@@ -6808,8 +6947,8 @@
       </c>
     </row>
     <row r="109" spans="2:5" ht="18" customHeight="1">
-      <c r="B109" s="22"/>
-      <c r="C109" s="22"/>
+      <c r="B109" s="14"/>
+      <c r="C109" s="14"/>
       <c r="D109" s="6">
         <v>60105</v>
       </c>
@@ -6818,8 +6957,8 @@
       </c>
     </row>
     <row r="110" spans="2:5" ht="18" customHeight="1">
-      <c r="B110" s="22"/>
-      <c r="C110" s="22"/>
+      <c r="B110" s="14"/>
+      <c r="C110" s="14"/>
       <c r="D110" s="6">
         <v>60106</v>
       </c>
@@ -6828,8 +6967,8 @@
       </c>
     </row>
     <row r="111" spans="2:5" ht="18" customHeight="1">
-      <c r="B111" s="22"/>
-      <c r="C111" s="22"/>
+      <c r="B111" s="14"/>
+      <c r="C111" s="14"/>
       <c r="D111" s="6">
         <v>60107</v>
       </c>
@@ -6838,8 +6977,8 @@
       </c>
     </row>
     <row r="112" spans="2:5" ht="18" customHeight="1">
-      <c r="B112" s="22"/>
-      <c r="C112" s="22"/>
+      <c r="B112" s="14"/>
+      <c r="C112" s="14"/>
       <c r="D112" s="6">
         <v>60108</v>
       </c>
@@ -6848,10 +6987,10 @@
       </c>
     </row>
     <row r="113" spans="2:5" ht="18" customHeight="1">
-      <c r="B113" s="22" t="s">
+      <c r="B113" s="14" t="s">
         <v>213</v>
       </c>
-      <c r="C113" s="22" t="s">
+      <c r="C113" s="14" t="s">
         <v>214</v>
       </c>
       <c r="D113" s="6">
@@ -6862,8 +7001,8 @@
       </c>
     </row>
     <row r="114" spans="2:5" ht="18" customHeight="1">
-      <c r="B114" s="22"/>
-      <c r="C114" s="22"/>
+      <c r="B114" s="14"/>
+      <c r="C114" s="14"/>
       <c r="D114" s="6">
         <v>70102</v>
       </c>
@@ -6872,8 +7011,8 @@
       </c>
     </row>
     <row r="115" spans="2:5" ht="18" customHeight="1">
-      <c r="B115" s="22"/>
-      <c r="C115" s="22"/>
+      <c r="B115" s="14"/>
+      <c r="C115" s="14"/>
       <c r="D115" s="6">
         <v>70103</v>
       </c>
@@ -6882,8 +7021,8 @@
       </c>
     </row>
     <row r="116" spans="2:5" ht="18" customHeight="1">
-      <c r="B116" s="22"/>
-      <c r="C116" s="22"/>
+      <c r="B116" s="14"/>
+      <c r="C116" s="14"/>
       <c r="D116" s="6">
         <v>70104</v>
       </c>
@@ -6892,8 +7031,8 @@
       </c>
     </row>
     <row r="117" spans="2:5" ht="18" customHeight="1">
-      <c r="B117" s="22"/>
-      <c r="C117" s="22"/>
+      <c r="B117" s="14"/>
+      <c r="C117" s="14"/>
       <c r="D117" s="6">
         <v>70105</v>
       </c>
@@ -6902,8 +7041,8 @@
       </c>
     </row>
     <row r="118" spans="2:5" ht="18" customHeight="1">
-      <c r="B118" s="22"/>
-      <c r="C118" s="22" t="s">
+      <c r="B118" s="14"/>
+      <c r="C118" s="14" t="s">
         <v>220</v>
       </c>
       <c r="D118" s="6">
@@ -6914,8 +7053,8 @@
       </c>
     </row>
     <row r="119" spans="2:5" ht="18" customHeight="1">
-      <c r="B119" s="22"/>
-      <c r="C119" s="22"/>
+      <c r="B119" s="14"/>
+      <c r="C119" s="14"/>
       <c r="D119" s="6">
         <v>70202</v>
       </c>
@@ -6924,8 +7063,8 @@
       </c>
     </row>
     <row r="120" spans="2:5" ht="18" customHeight="1">
-      <c r="B120" s="22"/>
-      <c r="C120" s="22"/>
+      <c r="B120" s="14"/>
+      <c r="C120" s="14"/>
       <c r="D120" s="6">
         <v>70203</v>
       </c>
@@ -6934,8 +7073,8 @@
       </c>
     </row>
     <row r="121" spans="2:5" ht="18" customHeight="1">
-      <c r="B121" s="22"/>
-      <c r="C121" s="22"/>
+      <c r="B121" s="14"/>
+      <c r="C121" s="14"/>
       <c r="D121" s="6">
         <v>70204</v>
       </c>
@@ -6944,8 +7083,8 @@
       </c>
     </row>
     <row r="122" spans="2:5" ht="18" customHeight="1">
-      <c r="B122" s="22"/>
-      <c r="C122" s="22"/>
+      <c r="B122" s="14"/>
+      <c r="C122" s="14"/>
       <c r="D122" s="6">
         <v>70205</v>
       </c>
@@ -6954,8 +7093,8 @@
       </c>
     </row>
     <row r="123" spans="2:5" ht="18" customHeight="1">
-      <c r="B123" s="22"/>
-      <c r="C123" s="22"/>
+      <c r="B123" s="14"/>
+      <c r="C123" s="14"/>
       <c r="D123" s="6">
         <v>70206</v>
       </c>
@@ -6964,8 +7103,8 @@
       </c>
     </row>
     <row r="124" spans="2:5" ht="18" customHeight="1">
-      <c r="B124" s="22"/>
-      <c r="C124" s="22"/>
+      <c r="B124" s="14"/>
+      <c r="C124" s="14"/>
       <c r="D124" s="6">
         <v>70207</v>
       </c>
@@ -6974,8 +7113,8 @@
       </c>
     </row>
     <row r="125" spans="2:5" ht="18" customHeight="1">
-      <c r="B125" s="22"/>
-      <c r="C125" s="22"/>
+      <c r="B125" s="14"/>
+      <c r="C125" s="14"/>
       <c r="D125" s="6">
         <v>70208</v>
       </c>
@@ -6984,8 +7123,8 @@
       </c>
     </row>
     <row r="126" spans="2:5" ht="18" customHeight="1">
-      <c r="B126" s="22"/>
-      <c r="C126" s="22" t="s">
+      <c r="B126" s="14"/>
+      <c r="C126" s="14" t="s">
         <v>229</v>
       </c>
       <c r="D126" s="6">
@@ -6996,8 +7135,8 @@
       </c>
     </row>
     <row r="127" spans="2:5" ht="18" customHeight="1">
-      <c r="B127" s="22"/>
-      <c r="C127" s="22"/>
+      <c r="B127" s="14"/>
+      <c r="C127" s="14"/>
       <c r="D127" s="6">
         <v>70302</v>
       </c>
@@ -7006,8 +7145,8 @@
       </c>
     </row>
     <row r="128" spans="2:5" ht="18" customHeight="1">
-      <c r="B128" s="22"/>
-      <c r="C128" s="22"/>
+      <c r="B128" s="14"/>
+      <c r="C128" s="14"/>
       <c r="D128" s="6">
         <v>70303</v>
       </c>
@@ -7016,8 +7155,8 @@
       </c>
     </row>
     <row r="129" spans="2:5" ht="18" customHeight="1">
-      <c r="B129" s="22"/>
-      <c r="C129" s="22"/>
+      <c r="B129" s="14"/>
+      <c r="C129" s="14"/>
       <c r="D129" s="6">
         <v>70304</v>
       </c>
@@ -7026,8 +7165,8 @@
       </c>
     </row>
     <row r="130" spans="2:5" ht="18" customHeight="1">
-      <c r="B130" s="22"/>
-      <c r="C130" s="22"/>
+      <c r="B130" s="14"/>
+      <c r="C130" s="14"/>
       <c r="D130" s="6">
         <v>70305</v>
       </c>
@@ -7036,8 +7175,8 @@
       </c>
     </row>
     <row r="131" spans="2:5" ht="18" customHeight="1">
-      <c r="B131" s="22"/>
-      <c r="C131" s="22" t="s">
+      <c r="B131" s="14"/>
+      <c r="C131" s="14" t="s">
         <v>235</v>
       </c>
       <c r="D131" s="6">
@@ -7048,8 +7187,8 @@
       </c>
     </row>
     <row r="132" spans="2:5" ht="18" customHeight="1">
-      <c r="B132" s="22"/>
-      <c r="C132" s="22"/>
+      <c r="B132" s="14"/>
+      <c r="C132" s="14"/>
       <c r="D132" s="6">
         <v>70402</v>
       </c>
@@ -7058,8 +7197,8 @@
       </c>
     </row>
     <row r="133" spans="2:5" ht="18" customHeight="1">
-      <c r="B133" s="22"/>
-      <c r="C133" s="22" t="s">
+      <c r="B133" s="14"/>
+      <c r="C133" s="14" t="s">
         <v>238</v>
       </c>
       <c r="D133" s="6">
@@ -7070,8 +7209,8 @@
       </c>
     </row>
     <row r="134" spans="2:5" ht="18" customHeight="1">
-      <c r="B134" s="22"/>
-      <c r="C134" s="22"/>
+      <c r="B134" s="14"/>
+      <c r="C134" s="14"/>
       <c r="D134" s="6">
         <v>70502</v>
       </c>
@@ -7080,8 +7219,8 @@
       </c>
     </row>
     <row r="135" spans="2:5" ht="18" customHeight="1">
-      <c r="B135" s="22"/>
-      <c r="C135" s="22"/>
+      <c r="B135" s="14"/>
+      <c r="C135" s="14"/>
       <c r="D135" s="6">
         <v>70503</v>
       </c>
@@ -7090,8 +7229,8 @@
       </c>
     </row>
     <row r="136" spans="2:5" ht="18" customHeight="1">
-      <c r="B136" s="22"/>
-      <c r="C136" s="22" t="s">
+      <c r="B136" s="14"/>
+      <c r="C136" s="14" t="s">
         <v>242</v>
       </c>
       <c r="D136" s="6">
@@ -7102,8 +7241,8 @@
       </c>
     </row>
     <row r="137" spans="2:5" ht="18" customHeight="1">
-      <c r="B137" s="22"/>
-      <c r="C137" s="22"/>
+      <c r="B137" s="14"/>
+      <c r="C137" s="14"/>
       <c r="D137" s="6">
         <v>70602</v>
       </c>
@@ -7112,8 +7251,8 @@
       </c>
     </row>
     <row r="138" spans="2:5" ht="18" customHeight="1">
-      <c r="B138" s="22"/>
-      <c r="C138" s="22" t="s">
+      <c r="B138" s="14"/>
+      <c r="C138" s="14" t="s">
         <v>245</v>
       </c>
       <c r="D138" s="6">
@@ -7124,8 +7263,8 @@
       </c>
     </row>
     <row r="139" spans="2:5" ht="18" customHeight="1">
-      <c r="B139" s="22"/>
-      <c r="C139" s="22"/>
+      <c r="B139" s="14"/>
+      <c r="C139" s="14"/>
       <c r="D139" s="6">
         <v>70702</v>
       </c>
@@ -7134,8 +7273,8 @@
       </c>
     </row>
     <row r="140" spans="2:5" ht="18" customHeight="1">
-      <c r="B140" s="22"/>
-      <c r="C140" s="22"/>
+      <c r="B140" s="14"/>
+      <c r="C140" s="14"/>
       <c r="D140" s="6">
         <v>70703</v>
       </c>
@@ -7144,8 +7283,8 @@
       </c>
     </row>
     <row r="141" spans="2:5" ht="18" customHeight="1">
-      <c r="B141" s="22"/>
-      <c r="C141" s="22"/>
+      <c r="B141" s="14"/>
+      <c r="C141" s="14"/>
       <c r="D141" s="6">
         <v>70704</v>
       </c>
@@ -7154,8 +7293,8 @@
       </c>
     </row>
     <row r="142" spans="2:5" ht="18" customHeight="1">
-      <c r="B142" s="22"/>
-      <c r="C142" s="22" t="s">
+      <c r="B142" s="14"/>
+      <c r="C142" s="14" t="s">
         <v>250</v>
       </c>
       <c r="D142" s="6">
@@ -7166,8 +7305,8 @@
       </c>
     </row>
     <row r="143" spans="2:5" ht="18" customHeight="1">
-      <c r="B143" s="22"/>
-      <c r="C143" s="22"/>
+      <c r="B143" s="14"/>
+      <c r="C143" s="14"/>
       <c r="D143" s="6">
         <v>70802</v>
       </c>
@@ -7176,8 +7315,8 @@
       </c>
     </row>
     <row r="144" spans="2:5" ht="18" customHeight="1">
-      <c r="B144" s="22"/>
-      <c r="C144" s="22" t="s">
+      <c r="B144" s="14"/>
+      <c r="C144" s="14" t="s">
         <v>253</v>
       </c>
       <c r="D144" s="6">
@@ -7188,8 +7327,8 @@
       </c>
     </row>
     <row r="145" spans="2:5" ht="18" customHeight="1">
-      <c r="B145" s="22"/>
-      <c r="C145" s="22"/>
+      <c r="B145" s="14"/>
+      <c r="C145" s="14"/>
       <c r="D145" s="6">
         <v>70902</v>
       </c>
@@ -7198,8 +7337,8 @@
       </c>
     </row>
     <row r="146" spans="2:5" ht="18" customHeight="1">
-      <c r="B146" s="22"/>
-      <c r="C146" s="22"/>
+      <c r="B146" s="14"/>
+      <c r="C146" s="14"/>
       <c r="D146" s="6">
         <v>70903</v>
       </c>
@@ -7208,8 +7347,8 @@
       </c>
     </row>
     <row r="147" spans="2:5" ht="18" customHeight="1">
-      <c r="B147" s="22"/>
-      <c r="C147" s="22"/>
+      <c r="B147" s="14"/>
+      <c r="C147" s="14"/>
       <c r="D147" s="6">
         <v>70904</v>
       </c>
@@ -7218,8 +7357,8 @@
       </c>
     </row>
     <row r="148" spans="2:5" ht="18" customHeight="1">
-      <c r="B148" s="22"/>
-      <c r="C148" s="22"/>
+      <c r="B148" s="14"/>
+      <c r="C148" s="14"/>
       <c r="D148" s="6">
         <v>70905</v>
       </c>
@@ -7228,8 +7367,8 @@
       </c>
     </row>
     <row r="149" spans="2:5" ht="18" customHeight="1">
-      <c r="B149" s="22"/>
-      <c r="C149" s="22" t="s">
+      <c r="B149" s="14"/>
+      <c r="C149" s="14" t="s">
         <v>259</v>
       </c>
       <c r="D149" s="6">
@@ -7240,8 +7379,8 @@
       </c>
     </row>
     <row r="150" spans="2:5" ht="18" customHeight="1">
-      <c r="B150" s="22"/>
-      <c r="C150" s="22"/>
+      <c r="B150" s="14"/>
+      <c r="C150" s="14"/>
       <c r="D150" s="6">
         <v>71002</v>
       </c>
@@ -7250,8 +7389,8 @@
       </c>
     </row>
     <row r="151" spans="2:5" ht="18" customHeight="1">
-      <c r="B151" s="22"/>
-      <c r="C151" s="22"/>
+      <c r="B151" s="14"/>
+      <c r="C151" s="14"/>
       <c r="D151" s="6">
         <v>71003</v>
       </c>
@@ -7260,8 +7399,8 @@
       </c>
     </row>
     <row r="152" spans="2:5" ht="18" customHeight="1">
-      <c r="B152" s="22"/>
-      <c r="C152" s="22"/>
+      <c r="B152" s="14"/>
+      <c r="C152" s="14"/>
       <c r="D152" s="6">
         <v>71004</v>
       </c>
@@ -7270,8 +7409,8 @@
       </c>
     </row>
     <row r="153" spans="2:5" ht="18" customHeight="1">
-      <c r="B153" s="22"/>
-      <c r="C153" s="22"/>
+      <c r="B153" s="14"/>
+      <c r="C153" s="14"/>
       <c r="D153" s="6">
         <v>71005</v>
       </c>
@@ -7280,8 +7419,8 @@
       </c>
     </row>
     <row r="154" spans="2:5" ht="18" customHeight="1">
-      <c r="B154" s="22"/>
-      <c r="C154" s="22"/>
+      <c r="B154" s="14"/>
+      <c r="C154" s="14"/>
       <c r="D154" s="6">
         <v>71006</v>
       </c>
@@ -7290,8 +7429,8 @@
       </c>
     </row>
     <row r="155" spans="2:5" ht="18" customHeight="1">
-      <c r="B155" s="22"/>
-      <c r="C155" s="22"/>
+      <c r="B155" s="14"/>
+      <c r="C155" s="14"/>
       <c r="D155" s="6">
         <v>71007</v>
       </c>
@@ -7300,8 +7439,8 @@
       </c>
     </row>
     <row r="156" spans="2:5" ht="18" customHeight="1">
-      <c r="B156" s="22"/>
-      <c r="C156" s="22"/>
+      <c r="B156" s="14"/>
+      <c r="C156" s="14"/>
       <c r="D156" s="6">
         <v>71008</v>
       </c>
@@ -7310,8 +7449,8 @@
       </c>
     </row>
     <row r="157" spans="2:5" ht="18" customHeight="1">
-      <c r="B157" s="22"/>
-      <c r="C157" s="22"/>
+      <c r="B157" s="14"/>
+      <c r="C157" s="14"/>
       <c r="D157" s="6">
         <v>71009</v>
       </c>
@@ -7320,8 +7459,8 @@
       </c>
     </row>
     <row r="158" spans="2:5" ht="18" customHeight="1">
-      <c r="B158" s="22"/>
-      <c r="C158" s="22"/>
+      <c r="B158" s="14"/>
+      <c r="C158" s="14"/>
       <c r="D158" s="6">
         <v>71010</v>
       </c>
@@ -7330,8 +7469,8 @@
       </c>
     </row>
     <row r="159" spans="2:5" ht="18" customHeight="1">
-      <c r="B159" s="22"/>
-      <c r="C159" s="22"/>
+      <c r="B159" s="14"/>
+      <c r="C159" s="14"/>
       <c r="D159" s="6">
         <v>71011</v>
       </c>
@@ -7340,8 +7479,8 @@
       </c>
     </row>
     <row r="160" spans="2:5" ht="18" customHeight="1">
-      <c r="B160" s="22"/>
-      <c r="C160" s="22"/>
+      <c r="B160" s="14"/>
+      <c r="C160" s="14"/>
       <c r="D160" s="6">
         <v>71012</v>
       </c>
@@ -7350,8 +7489,8 @@
       </c>
     </row>
     <row r="161" spans="2:5" ht="18" customHeight="1">
-      <c r="B161" s="22"/>
-      <c r="C161" s="22" t="s">
+      <c r="B161" s="14"/>
+      <c r="C161" s="14" t="s">
         <v>272</v>
       </c>
       <c r="D161" s="6">
@@ -7362,8 +7501,8 @@
       </c>
     </row>
     <row r="162" spans="2:5" ht="18" customHeight="1">
-      <c r="B162" s="22"/>
-      <c r="C162" s="22"/>
+      <c r="B162" s="14"/>
+      <c r="C162" s="14"/>
       <c r="D162" s="6">
         <v>71102</v>
       </c>
@@ -7372,7 +7511,7 @@
       </c>
     </row>
     <row r="163" spans="2:5" ht="18" customHeight="1">
-      <c r="B163" s="22"/>
+      <c r="B163" s="14"/>
       <c r="C163" s="6" t="s">
         <v>275</v>
       </c>
@@ -7384,10 +7523,10 @@
       </c>
     </row>
     <row r="164" spans="2:5" ht="18" customHeight="1">
-      <c r="B164" s="22" t="s">
+      <c r="B164" s="14" t="s">
         <v>277</v>
       </c>
-      <c r="C164" s="22" t="s">
+      <c r="C164" s="14" t="s">
         <v>278</v>
       </c>
       <c r="D164" s="6">
@@ -7398,8 +7537,8 @@
       </c>
     </row>
     <row r="165" spans="2:5" ht="18" customHeight="1">
-      <c r="B165" s="22"/>
-      <c r="C165" s="22"/>
+      <c r="B165" s="14"/>
+      <c r="C165" s="14"/>
       <c r="D165" s="6">
         <v>80102</v>
       </c>
@@ -7408,8 +7547,8 @@
       </c>
     </row>
     <row r="166" spans="2:5" ht="18" customHeight="1">
-      <c r="B166" s="22"/>
-      <c r="C166" s="22"/>
+      <c r="B166" s="14"/>
+      <c r="C166" s="14"/>
       <c r="D166" s="6">
         <v>80103</v>
       </c>
@@ -7418,8 +7557,8 @@
       </c>
     </row>
     <row r="167" spans="2:5" ht="18" customHeight="1">
-      <c r="B167" s="22"/>
-      <c r="C167" s="22"/>
+      <c r="B167" s="14"/>
+      <c r="C167" s="14"/>
       <c r="D167" s="6">
         <v>80104</v>
       </c>
@@ -7428,8 +7567,8 @@
       </c>
     </row>
     <row r="168" spans="2:5" ht="18" customHeight="1">
-      <c r="B168" s="22"/>
-      <c r="C168" s="22" t="s">
+      <c r="B168" s="14"/>
+      <c r="C168" s="14" t="s">
         <v>283</v>
       </c>
       <c r="D168" s="6">
@@ -7440,8 +7579,8 @@
       </c>
     </row>
     <row r="169" spans="2:5" ht="18" customHeight="1">
-      <c r="B169" s="22"/>
-      <c r="C169" s="22"/>
+      <c r="B169" s="14"/>
+      <c r="C169" s="14"/>
       <c r="D169" s="6">
         <v>80202</v>
       </c>
@@ -7450,8 +7589,8 @@
       </c>
     </row>
     <row r="170" spans="2:5" ht="18" customHeight="1">
-      <c r="B170" s="22"/>
-      <c r="C170" s="22"/>
+      <c r="B170" s="14"/>
+      <c r="C170" s="14"/>
       <c r="D170" s="6">
         <v>80203</v>
       </c>
@@ -7460,8 +7599,8 @@
       </c>
     </row>
     <row r="171" spans="2:5" ht="18" customHeight="1">
-      <c r="B171" s="22"/>
-      <c r="C171" s="22"/>
+      <c r="B171" s="14"/>
+      <c r="C171" s="14"/>
       <c r="D171" s="6">
         <v>80204</v>
       </c>
@@ -7470,7 +7609,7 @@
       </c>
     </row>
     <row r="172" spans="2:5" ht="18" customHeight="1">
-      <c r="B172" s="22"/>
+      <c r="B172" s="14"/>
       <c r="C172" s="6" t="s">
         <v>288</v>
       </c>
@@ -7482,8 +7621,8 @@
       </c>
     </row>
     <row r="173" spans="2:5" ht="22.5" customHeight="1">
-      <c r="B173" s="22"/>
-      <c r="C173" s="22" t="s">
+      <c r="B173" s="14"/>
+      <c r="C173" s="14" t="s">
         <v>289</v>
       </c>
       <c r="D173" s="6">
@@ -7494,8 +7633,8 @@
       </c>
     </row>
     <row r="174" spans="2:5" ht="18" customHeight="1">
-      <c r="B174" s="22"/>
-      <c r="C174" s="22"/>
+      <c r="B174" s="14"/>
+      <c r="C174" s="14"/>
       <c r="D174" s="6">
         <v>80402</v>
       </c>
@@ -7504,8 +7643,8 @@
       </c>
     </row>
     <row r="175" spans="2:5" ht="18" customHeight="1">
-      <c r="B175" s="22"/>
-      <c r="C175" s="22" t="s">
+      <c r="B175" s="14"/>
+      <c r="C175" s="14" t="s">
         <v>292</v>
       </c>
       <c r="D175" s="6">
@@ -7516,8 +7655,8 @@
       </c>
     </row>
     <row r="176" spans="2:5" ht="18" customHeight="1">
-      <c r="B176" s="22"/>
-      <c r="C176" s="22"/>
+      <c r="B176" s="14"/>
+      <c r="C176" s="14"/>
       <c r="D176" s="6">
         <v>80502</v>
       </c>
@@ -7526,8 +7665,8 @@
       </c>
     </row>
     <row r="177" spans="2:5" ht="18" customHeight="1">
-      <c r="B177" s="22"/>
-      <c r="C177" s="22"/>
+      <c r="B177" s="14"/>
+      <c r="C177" s="14"/>
       <c r="D177" s="6">
         <v>80503</v>
       </c>
@@ -7536,8 +7675,8 @@
       </c>
     </row>
     <row r="178" spans="2:5" ht="18" customHeight="1">
-      <c r="B178" s="22"/>
-      <c r="C178" s="22" t="s">
+      <c r="B178" s="14"/>
+      <c r="C178" s="14" t="s">
         <v>296</v>
       </c>
       <c r="D178" s="6">
@@ -7548,8 +7687,8 @@
       </c>
     </row>
     <row r="179" spans="2:5" ht="18" customHeight="1">
-      <c r="B179" s="22"/>
-      <c r="C179" s="22"/>
+      <c r="B179" s="14"/>
+      <c r="C179" s="14"/>
       <c r="D179" s="6">
         <v>80602</v>
       </c>
@@ -7558,8 +7697,8 @@
       </c>
     </row>
     <row r="180" spans="2:5" ht="18" customHeight="1">
-      <c r="B180" s="22"/>
-      <c r="C180" s="22"/>
+      <c r="B180" s="14"/>
+      <c r="C180" s="14"/>
       <c r="D180" s="6">
         <v>80603</v>
       </c>
@@ -7568,8 +7707,8 @@
       </c>
     </row>
     <row r="181" spans="2:5" ht="18" customHeight="1">
-      <c r="B181" s="22"/>
-      <c r="C181" s="22" t="s">
+      <c r="B181" s="14"/>
+      <c r="C181" s="14" t="s">
         <v>300</v>
       </c>
       <c r="D181" s="6">
@@ -7580,8 +7719,8 @@
       </c>
     </row>
     <row r="182" spans="2:5" ht="18" customHeight="1">
-      <c r="B182" s="22"/>
-      <c r="C182" s="22"/>
+      <c r="B182" s="14"/>
+      <c r="C182" s="14"/>
       <c r="D182" s="6">
         <v>80702</v>
       </c>
@@ -7590,8 +7729,8 @@
       </c>
     </row>
     <row r="183" spans="2:5" ht="18" customHeight="1">
-      <c r="B183" s="22"/>
-      <c r="C183" s="22"/>
+      <c r="B183" s="14"/>
+      <c r="C183" s="14"/>
       <c r="D183" s="6">
         <v>80703</v>
       </c>
@@ -7600,8 +7739,8 @@
       </c>
     </row>
     <row r="184" spans="2:5" ht="18" customHeight="1">
-      <c r="B184" s="22"/>
-      <c r="C184" s="22"/>
+      <c r="B184" s="14"/>
+      <c r="C184" s="14"/>
       <c r="D184" s="6">
         <v>80704</v>
       </c>
@@ -7610,8 +7749,8 @@
       </c>
     </row>
     <row r="185" spans="2:5" ht="18" customHeight="1">
-      <c r="B185" s="22"/>
-      <c r="C185" s="22"/>
+      <c r="B185" s="14"/>
+      <c r="C185" s="14"/>
       <c r="D185" s="6">
         <v>80705</v>
       </c>
@@ -7620,8 +7759,8 @@
       </c>
     </row>
     <row r="186" spans="2:5" ht="18" customHeight="1">
-      <c r="B186" s="22"/>
-      <c r="C186" s="22"/>
+      <c r="B186" s="14"/>
+      <c r="C186" s="14"/>
       <c r="D186" s="6">
         <v>80706</v>
       </c>
@@ -7630,8 +7769,8 @@
       </c>
     </row>
     <row r="187" spans="2:5" ht="18" customHeight="1">
-      <c r="B187" s="22"/>
-      <c r="C187" s="22" t="s">
+      <c r="B187" s="14"/>
+      <c r="C187" s="14" t="s">
         <v>307</v>
       </c>
       <c r="D187" s="6">
@@ -7642,8 +7781,8 @@
       </c>
     </row>
     <row r="188" spans="2:5" ht="18" customHeight="1">
-      <c r="B188" s="22"/>
-      <c r="C188" s="22"/>
+      <c r="B188" s="14"/>
+      <c r="C188" s="14"/>
       <c r="D188" s="6">
         <v>80802</v>
       </c>
@@ -7652,8 +7791,8 @@
       </c>
     </row>
     <row r="189" spans="2:5" ht="18" customHeight="1">
-      <c r="B189" s="22"/>
-      <c r="C189" s="22"/>
+      <c r="B189" s="14"/>
+      <c r="C189" s="14"/>
       <c r="D189" s="6">
         <v>80803</v>
       </c>
@@ -7662,8 +7801,8 @@
       </c>
     </row>
     <row r="190" spans="2:5" ht="18" customHeight="1">
-      <c r="B190" s="22"/>
-      <c r="C190" s="22"/>
+      <c r="B190" s="14"/>
+      <c r="C190" s="14"/>
       <c r="D190" s="6">
         <v>80804</v>
       </c>
@@ -7672,8 +7811,8 @@
       </c>
     </row>
     <row r="191" spans="2:5" ht="18" customHeight="1">
-      <c r="B191" s="22"/>
-      <c r="C191" s="22"/>
+      <c r="B191" s="14"/>
+      <c r="C191" s="14"/>
       <c r="D191" s="6">
         <v>80805</v>
       </c>
@@ -7682,8 +7821,8 @@
       </c>
     </row>
     <row r="192" spans="2:5" ht="18" customHeight="1">
-      <c r="B192" s="22"/>
-      <c r="C192" s="22" t="s">
+      <c r="B192" s="14"/>
+      <c r="C192" s="14" t="s">
         <v>313</v>
       </c>
       <c r="D192" s="6">
@@ -7694,8 +7833,8 @@
       </c>
     </row>
     <row r="193" spans="2:5" ht="18" customHeight="1">
-      <c r="B193" s="22"/>
-      <c r="C193" s="22"/>
+      <c r="B193" s="14"/>
+      <c r="C193" s="14"/>
       <c r="D193" s="6">
         <v>80902</v>
       </c>
@@ -7704,8 +7843,8 @@
       </c>
     </row>
     <row r="194" spans="2:5" ht="18" customHeight="1">
-      <c r="B194" s="22"/>
-      <c r="C194" s="22"/>
+      <c r="B194" s="14"/>
+      <c r="C194" s="14"/>
       <c r="D194" s="6">
         <v>80903</v>
       </c>
@@ -7714,8 +7853,8 @@
       </c>
     </row>
     <row r="195" spans="2:5" ht="18" customHeight="1">
-      <c r="B195" s="22"/>
-      <c r="C195" s="22"/>
+      <c r="B195" s="14"/>
+      <c r="C195" s="14"/>
       <c r="D195" s="6">
         <v>80904</v>
       </c>
@@ -7724,8 +7863,8 @@
       </c>
     </row>
     <row r="196" spans="2:5" ht="22.5" customHeight="1">
-      <c r="B196" s="22"/>
-      <c r="C196" s="22" t="s">
+      <c r="B196" s="14"/>
+      <c r="C196" s="14" t="s">
         <v>318</v>
       </c>
       <c r="D196" s="6">
@@ -7736,8 +7875,8 @@
       </c>
     </row>
     <row r="197" spans="2:5" ht="18" customHeight="1">
-      <c r="B197" s="22"/>
-      <c r="C197" s="22"/>
+      <c r="B197" s="14"/>
+      <c r="C197" s="14"/>
       <c r="D197" s="6">
         <v>81002</v>
       </c>
@@ -7746,8 +7885,8 @@
       </c>
     </row>
     <row r="198" spans="2:5" ht="18" customHeight="1">
-      <c r="B198" s="22"/>
-      <c r="C198" s="22" t="s">
+      <c r="B198" s="14"/>
+      <c r="C198" s="14" t="s">
         <v>321</v>
       </c>
       <c r="D198" s="6">
@@ -7758,8 +7897,8 @@
       </c>
     </row>
     <row r="199" spans="2:5" ht="18" customHeight="1">
-      <c r="B199" s="22"/>
-      <c r="C199" s="22"/>
+      <c r="B199" s="14"/>
+      <c r="C199" s="14"/>
       <c r="D199" s="6">
         <v>81102</v>
       </c>
@@ -7768,8 +7907,8 @@
       </c>
     </row>
     <row r="200" spans="2:5" ht="18" customHeight="1">
-      <c r="B200" s="22"/>
-      <c r="C200" s="22"/>
+      <c r="B200" s="14"/>
+      <c r="C200" s="14"/>
       <c r="D200" s="6">
         <v>81103</v>
       </c>
@@ -7778,8 +7917,8 @@
       </c>
     </row>
     <row r="201" spans="2:5" ht="18" customHeight="1">
-      <c r="B201" s="22"/>
-      <c r="C201" s="22"/>
+      <c r="B201" s="14"/>
+      <c r="C201" s="14"/>
       <c r="D201" s="6">
         <v>81104</v>
       </c>
@@ -7788,8 +7927,8 @@
       </c>
     </row>
     <row r="202" spans="2:5" ht="18" customHeight="1">
-      <c r="B202" s="22"/>
-      <c r="C202" s="22"/>
+      <c r="B202" s="14"/>
+      <c r="C202" s="14"/>
       <c r="D202" s="6">
         <v>81105</v>
       </c>
@@ -7798,8 +7937,8 @@
       </c>
     </row>
     <row r="203" spans="2:5" ht="18" customHeight="1">
-      <c r="B203" s="22"/>
-      <c r="C203" s="22" t="s">
+      <c r="B203" s="14"/>
+      <c r="C203" s="14" t="s">
         <v>327</v>
       </c>
       <c r="D203" s="6">
@@ -7810,8 +7949,8 @@
       </c>
     </row>
     <row r="204" spans="2:5" ht="18" customHeight="1">
-      <c r="B204" s="22"/>
-      <c r="C204" s="22"/>
+      <c r="B204" s="14"/>
+      <c r="C204" s="14"/>
       <c r="D204" s="6">
         <v>81202</v>
       </c>
@@ -7820,8 +7959,8 @@
       </c>
     </row>
     <row r="205" spans="2:5" ht="18" customHeight="1">
-      <c r="B205" s="22"/>
-      <c r="C205" s="22"/>
+      <c r="B205" s="14"/>
+      <c r="C205" s="14"/>
       <c r="D205" s="6">
         <v>81203</v>
       </c>
@@ -7830,8 +7969,8 @@
       </c>
     </row>
     <row r="206" spans="2:5" ht="18" customHeight="1">
-      <c r="B206" s="22"/>
-      <c r="C206" s="22" t="s">
+      <c r="B206" s="14"/>
+      <c r="C206" s="14" t="s">
         <v>331</v>
       </c>
       <c r="D206" s="6">
@@ -7842,8 +7981,8 @@
       </c>
     </row>
     <row r="207" spans="2:5" ht="18" customHeight="1">
-      <c r="B207" s="22"/>
-      <c r="C207" s="22"/>
+      <c r="B207" s="14"/>
+      <c r="C207" s="14"/>
       <c r="D207" s="6">
         <v>81302</v>
       </c>
@@ -7852,8 +7991,8 @@
       </c>
     </row>
     <row r="208" spans="2:5" ht="18" customHeight="1">
-      <c r="B208" s="22"/>
-      <c r="C208" s="22"/>
+      <c r="B208" s="14"/>
+      <c r="C208" s="14"/>
       <c r="D208" s="6">
         <v>81303</v>
       </c>
@@ -7862,8 +8001,8 @@
       </c>
     </row>
     <row r="209" spans="2:5" ht="18" customHeight="1">
-      <c r="B209" s="22"/>
-      <c r="C209" s="22"/>
+      <c r="B209" s="14"/>
+      <c r="C209" s="14"/>
       <c r="D209" s="6">
         <v>81304</v>
       </c>
@@ -7872,8 +8011,8 @@
       </c>
     </row>
     <row r="210" spans="2:5" ht="18" customHeight="1">
-      <c r="B210" s="22"/>
-      <c r="C210" s="22" t="s">
+      <c r="B210" s="14"/>
+      <c r="C210" s="14" t="s">
         <v>336</v>
       </c>
       <c r="D210" s="6">
@@ -7884,8 +8023,8 @@
       </c>
     </row>
     <row r="211" spans="2:5" ht="18" customHeight="1">
-      <c r="B211" s="22"/>
-      <c r="C211" s="22"/>
+      <c r="B211" s="14"/>
+      <c r="C211" s="14"/>
       <c r="D211" s="6">
         <v>81402</v>
       </c>
@@ -7894,8 +8033,8 @@
       </c>
     </row>
     <row r="212" spans="2:5" ht="18" customHeight="1">
-      <c r="B212" s="22"/>
-      <c r="C212" s="22"/>
+      <c r="B212" s="14"/>
+      <c r="C212" s="14"/>
       <c r="D212" s="6">
         <v>81403</v>
       </c>
@@ -7904,8 +8043,8 @@
       </c>
     </row>
     <row r="213" spans="2:5" ht="18" customHeight="1">
-      <c r="B213" s="22"/>
-      <c r="C213" s="22"/>
+      <c r="B213" s="14"/>
+      <c r="C213" s="14"/>
       <c r="D213" s="6">
         <v>81404</v>
       </c>
@@ -7914,8 +8053,8 @@
       </c>
     </row>
     <row r="214" spans="2:5" ht="18" customHeight="1">
-      <c r="B214" s="22"/>
-      <c r="C214" s="22"/>
+      <c r="B214" s="14"/>
+      <c r="C214" s="14"/>
       <c r="D214" s="6">
         <v>81405</v>
       </c>
@@ -7924,8 +8063,8 @@
       </c>
     </row>
     <row r="215" spans="2:5" ht="18" customHeight="1">
-      <c r="B215" s="22"/>
-      <c r="C215" s="22"/>
+      <c r="B215" s="14"/>
+      <c r="C215" s="14"/>
       <c r="D215" s="6">
         <v>81406</v>
       </c>
@@ -7934,8 +8073,8 @@
       </c>
     </row>
     <row r="216" spans="2:5" ht="18" customHeight="1">
-      <c r="B216" s="22"/>
-      <c r="C216" s="22" t="s">
+      <c r="B216" s="14"/>
+      <c r="C216" s="14" t="s">
         <v>343</v>
       </c>
       <c r="D216" s="6">
@@ -7946,8 +8085,8 @@
       </c>
     </row>
     <row r="217" spans="2:5" ht="18" customHeight="1">
-      <c r="B217" s="22"/>
-      <c r="C217" s="22"/>
+      <c r="B217" s="14"/>
+      <c r="C217" s="14"/>
       <c r="D217" s="6">
         <v>81502</v>
       </c>
@@ -7956,8 +8095,8 @@
       </c>
     </row>
     <row r="218" spans="2:5" ht="18" customHeight="1">
-      <c r="B218" s="22"/>
-      <c r="C218" s="22"/>
+      <c r="B218" s="14"/>
+      <c r="C218" s="14"/>
       <c r="D218" s="6">
         <v>81503</v>
       </c>
@@ -7966,8 +8105,8 @@
       </c>
     </row>
     <row r="219" spans="2:5" ht="18" customHeight="1">
-      <c r="B219" s="22"/>
-      <c r="C219" s="22"/>
+      <c r="B219" s="14"/>
+      <c r="C219" s="14"/>
       <c r="D219" s="6">
         <v>81504</v>
       </c>
@@ -7976,8 +8115,8 @@
       </c>
     </row>
     <row r="220" spans="2:5" ht="18" customHeight="1">
-      <c r="B220" s="22"/>
-      <c r="C220" s="22"/>
+      <c r="B220" s="14"/>
+      <c r="C220" s="14"/>
       <c r="D220" s="6">
         <v>81505</v>
       </c>
@@ -7986,8 +8125,8 @@
       </c>
     </row>
     <row r="221" spans="2:5" ht="18" customHeight="1">
-      <c r="B221" s="22"/>
-      <c r="C221" s="22" t="s">
+      <c r="B221" s="14"/>
+      <c r="C221" s="14" t="s">
         <v>349</v>
       </c>
       <c r="D221" s="6">
@@ -7998,8 +8137,8 @@
       </c>
     </row>
     <row r="222" spans="2:5" ht="18" customHeight="1">
-      <c r="B222" s="22"/>
-      <c r="C222" s="22"/>
+      <c r="B222" s="14"/>
+      <c r="C222" s="14"/>
       <c r="D222" s="6">
         <v>81602</v>
       </c>
@@ -8008,8 +8147,8 @@
       </c>
     </row>
     <row r="223" spans="2:5" ht="18" customHeight="1">
-      <c r="B223" s="22"/>
-      <c r="C223" s="22"/>
+      <c r="B223" s="14"/>
+      <c r="C223" s="14"/>
       <c r="D223" s="6">
         <v>81603</v>
       </c>
@@ -8018,8 +8157,8 @@
       </c>
     </row>
     <row r="224" spans="2:5" ht="18" customHeight="1">
-      <c r="B224" s="22"/>
-      <c r="C224" s="22" t="s">
+      <c r="B224" s="14"/>
+      <c r="C224" s="14" t="s">
         <v>353</v>
       </c>
       <c r="D224" s="6">
@@ -8030,8 +8169,8 @@
       </c>
     </row>
     <row r="225" spans="2:5" ht="18" customHeight="1">
-      <c r="B225" s="22"/>
-      <c r="C225" s="22"/>
+      <c r="B225" s="14"/>
+      <c r="C225" s="14"/>
       <c r="D225" s="6">
         <v>81702</v>
       </c>
@@ -8040,8 +8179,8 @@
       </c>
     </row>
     <row r="226" spans="2:5" ht="18" customHeight="1">
-      <c r="B226" s="22"/>
-      <c r="C226" s="22"/>
+      <c r="B226" s="14"/>
+      <c r="C226" s="14"/>
       <c r="D226" s="6">
         <v>81703</v>
       </c>
@@ -8050,8 +8189,8 @@
       </c>
     </row>
     <row r="227" spans="2:5" ht="18" customHeight="1">
-      <c r="B227" s="22"/>
-      <c r="C227" s="22"/>
+      <c r="B227" s="14"/>
+      <c r="C227" s="14"/>
       <c r="D227" s="6">
         <v>81704</v>
       </c>
@@ -8060,8 +8199,8 @@
       </c>
     </row>
     <row r="228" spans="2:5" ht="18" customHeight="1">
-      <c r="B228" s="22"/>
-      <c r="C228" s="22"/>
+      <c r="B228" s="14"/>
+      <c r="C228" s="14"/>
       <c r="D228" s="6">
         <v>81705</v>
       </c>
@@ -8070,8 +8209,8 @@
       </c>
     </row>
     <row r="229" spans="2:5" ht="18" customHeight="1">
-      <c r="B229" s="22"/>
-      <c r="C229" s="22" t="s">
+      <c r="B229" s="14"/>
+      <c r="C229" s="14" t="s">
         <v>359</v>
       </c>
       <c r="D229" s="6">
@@ -8082,8 +8221,8 @@
       </c>
     </row>
     <row r="230" spans="2:5" ht="18" customHeight="1">
-      <c r="B230" s="22"/>
-      <c r="C230" s="22"/>
+      <c r="B230" s="14"/>
+      <c r="C230" s="14"/>
       <c r="D230" s="6">
         <v>81802</v>
       </c>
@@ -8092,8 +8231,8 @@
       </c>
     </row>
     <row r="231" spans="2:5" ht="18" customHeight="1">
-      <c r="B231" s="22"/>
-      <c r="C231" s="22"/>
+      <c r="B231" s="14"/>
+      <c r="C231" s="14"/>
       <c r="D231" s="6">
         <v>81803</v>
       </c>
@@ -8102,8 +8241,8 @@
       </c>
     </row>
     <row r="232" spans="2:5" ht="18" customHeight="1">
-      <c r="B232" s="22"/>
-      <c r="C232" s="22" t="s">
+      <c r="B232" s="14"/>
+      <c r="C232" s="14" t="s">
         <v>363</v>
       </c>
       <c r="D232" s="6">
@@ -8114,8 +8253,8 @@
       </c>
     </row>
     <row r="233" spans="2:5" ht="18" customHeight="1">
-      <c r="B233" s="22"/>
-      <c r="C233" s="22"/>
+      <c r="B233" s="14"/>
+      <c r="C233" s="14"/>
       <c r="D233" s="6">
         <v>81902</v>
       </c>
@@ -8124,8 +8263,8 @@
       </c>
     </row>
     <row r="234" spans="2:5" ht="18" customHeight="1">
-      <c r="B234" s="22"/>
-      <c r="C234" s="22"/>
+      <c r="B234" s="14"/>
+      <c r="C234" s="14"/>
       <c r="D234" s="6">
         <v>81903</v>
       </c>
@@ -8134,8 +8273,8 @@
       </c>
     </row>
     <row r="235" spans="2:5" ht="18" customHeight="1">
-      <c r="B235" s="22"/>
-      <c r="C235" s="22" t="s">
+      <c r="B235" s="14"/>
+      <c r="C235" s="14" t="s">
         <v>367</v>
       </c>
       <c r="D235" s="6">
@@ -8146,8 +8285,8 @@
       </c>
     </row>
     <row r="236" spans="2:5" ht="18" customHeight="1">
-      <c r="B236" s="22"/>
-      <c r="C236" s="22"/>
+      <c r="B236" s="14"/>
+      <c r="C236" s="14"/>
       <c r="D236" s="6">
         <v>82002</v>
       </c>
@@ -8156,8 +8295,8 @@
       </c>
     </row>
     <row r="237" spans="2:5" ht="18" customHeight="1">
-      <c r="B237" s="22"/>
-      <c r="C237" s="22"/>
+      <c r="B237" s="14"/>
+      <c r="C237" s="14"/>
       <c r="D237" s="6">
         <v>82003</v>
       </c>
@@ -8166,8 +8305,8 @@
       </c>
     </row>
     <row r="238" spans="2:5" ht="18" customHeight="1">
-      <c r="B238" s="22"/>
-      <c r="C238" s="22" t="s">
+      <c r="B238" s="14"/>
+      <c r="C238" s="14" t="s">
         <v>371</v>
       </c>
       <c r="D238" s="6">
@@ -8178,8 +8317,8 @@
       </c>
     </row>
     <row r="239" spans="2:5" ht="18" customHeight="1">
-      <c r="B239" s="22"/>
-      <c r="C239" s="22"/>
+      <c r="B239" s="14"/>
+      <c r="C239" s="14"/>
       <c r="D239" s="6">
         <v>82102</v>
       </c>
@@ -8188,8 +8327,8 @@
       </c>
     </row>
     <row r="240" spans="2:5" ht="18" customHeight="1">
-      <c r="B240" s="22"/>
-      <c r="C240" s="22"/>
+      <c r="B240" s="14"/>
+      <c r="C240" s="14"/>
       <c r="D240" s="6">
         <v>82103</v>
       </c>
@@ -8198,8 +8337,8 @@
       </c>
     </row>
     <row r="241" spans="2:5" ht="18" customHeight="1">
-      <c r="B241" s="22"/>
-      <c r="C241" s="22"/>
+      <c r="B241" s="14"/>
+      <c r="C241" s="14"/>
       <c r="D241" s="6">
         <v>82104</v>
       </c>
@@ -8208,8 +8347,8 @@
       </c>
     </row>
     <row r="242" spans="2:5" ht="18" customHeight="1">
-      <c r="B242" s="22"/>
-      <c r="C242" s="22" t="s">
+      <c r="B242" s="14"/>
+      <c r="C242" s="14" t="s">
         <v>376</v>
       </c>
       <c r="D242" s="6">
@@ -8220,8 +8359,8 @@
       </c>
     </row>
     <row r="243" spans="2:5" ht="18" customHeight="1">
-      <c r="B243" s="22"/>
-      <c r="C243" s="22"/>
+      <c r="B243" s="14"/>
+      <c r="C243" s="14"/>
       <c r="D243" s="6">
         <v>82202</v>
       </c>
@@ -8230,8 +8369,8 @@
       </c>
     </row>
     <row r="244" spans="2:5" ht="18" customHeight="1">
-      <c r="B244" s="22"/>
-      <c r="C244" s="22"/>
+      <c r="B244" s="14"/>
+      <c r="C244" s="14"/>
       <c r="D244" s="6">
         <v>82203</v>
       </c>
@@ -8240,8 +8379,8 @@
       </c>
     </row>
     <row r="245" spans="2:5" ht="18" customHeight="1">
-      <c r="B245" s="22"/>
-      <c r="C245" s="22"/>
+      <c r="B245" s="14"/>
+      <c r="C245" s="14"/>
       <c r="D245" s="6">
         <v>82204</v>
       </c>
@@ -8250,8 +8389,8 @@
       </c>
     </row>
     <row r="246" spans="2:5" ht="18" customHeight="1">
-      <c r="B246" s="22"/>
-      <c r="C246" s="22" t="s">
+      <c r="B246" s="14"/>
+      <c r="C246" s="14" t="s">
         <v>381</v>
       </c>
       <c r="D246" s="6">
@@ -8262,8 +8401,8 @@
       </c>
     </row>
     <row r="247" spans="2:5" ht="18" customHeight="1">
-      <c r="B247" s="22"/>
-      <c r="C247" s="22"/>
+      <c r="B247" s="14"/>
+      <c r="C247" s="14"/>
       <c r="D247" s="6">
         <v>82302</v>
       </c>
@@ -8272,8 +8411,8 @@
       </c>
     </row>
     <row r="248" spans="2:5" ht="18" customHeight="1">
-      <c r="B248" s="22"/>
-      <c r="C248" s="22"/>
+      <c r="B248" s="14"/>
+      <c r="C248" s="14"/>
       <c r="D248" s="6">
         <v>82303</v>
       </c>
@@ -8282,8 +8421,8 @@
       </c>
     </row>
     <row r="249" spans="2:5" ht="18" customHeight="1">
-      <c r="B249" s="22"/>
-      <c r="C249" s="22"/>
+      <c r="B249" s="14"/>
+      <c r="C249" s="14"/>
       <c r="D249" s="6">
         <v>82304</v>
       </c>
@@ -8292,8 +8431,8 @@
       </c>
     </row>
     <row r="250" spans="2:5" ht="18" customHeight="1">
-      <c r="B250" s="22"/>
-      <c r="C250" s="22" t="s">
+      <c r="B250" s="14"/>
+      <c r="C250" s="14" t="s">
         <v>386</v>
       </c>
       <c r="D250" s="6">
@@ -8304,8 +8443,8 @@
       </c>
     </row>
     <row r="251" spans="2:5" ht="18" customHeight="1">
-      <c r="B251" s="22"/>
-      <c r="C251" s="22"/>
+      <c r="B251" s="14"/>
+      <c r="C251" s="14"/>
       <c r="D251" s="6">
         <v>82402</v>
       </c>
@@ -8314,8 +8453,8 @@
       </c>
     </row>
     <row r="252" spans="2:5" ht="18" customHeight="1">
-      <c r="B252" s="22"/>
-      <c r="C252" s="22"/>
+      <c r="B252" s="14"/>
+      <c r="C252" s="14"/>
       <c r="D252" s="6">
         <v>82403</v>
       </c>
@@ -8324,8 +8463,8 @@
       </c>
     </row>
     <row r="253" spans="2:5" ht="18" customHeight="1">
-      <c r="B253" s="22"/>
-      <c r="C253" s="22" t="s">
+      <c r="B253" s="14"/>
+      <c r="C253" s="14" t="s">
         <v>390</v>
       </c>
       <c r="D253" s="6">
@@ -8336,8 +8475,8 @@
       </c>
     </row>
     <row r="254" spans="2:5" ht="18" customHeight="1">
-      <c r="B254" s="22"/>
-      <c r="C254" s="22"/>
+      <c r="B254" s="14"/>
+      <c r="C254" s="14"/>
       <c r="D254" s="6">
         <v>82502</v>
       </c>
@@ -8346,8 +8485,8 @@
       </c>
     </row>
     <row r="255" spans="2:5" ht="18" customHeight="1">
-      <c r="B255" s="22"/>
-      <c r="C255" s="22"/>
+      <c r="B255" s="14"/>
+      <c r="C255" s="14"/>
       <c r="D255" s="6">
         <v>82503</v>
       </c>
@@ -8356,8 +8495,8 @@
       </c>
     </row>
     <row r="256" spans="2:5" ht="18" customHeight="1">
-      <c r="B256" s="22"/>
-      <c r="C256" s="22"/>
+      <c r="B256" s="14"/>
+      <c r="C256" s="14"/>
       <c r="D256" s="6">
         <v>82504</v>
       </c>
@@ -8366,8 +8505,8 @@
       </c>
     </row>
     <row r="257" spans="2:5" ht="18" customHeight="1">
-      <c r="B257" s="22"/>
-      <c r="C257" s="22" t="s">
+      <c r="B257" s="14"/>
+      <c r="C257" s="14" t="s">
         <v>395</v>
       </c>
       <c r="D257" s="6">
@@ -8378,8 +8517,8 @@
       </c>
     </row>
     <row r="258" spans="2:5" ht="18" customHeight="1">
-      <c r="B258" s="22"/>
-      <c r="C258" s="22"/>
+      <c r="B258" s="14"/>
+      <c r="C258" s="14"/>
       <c r="D258" s="6">
         <v>82602</v>
       </c>
@@ -8388,8 +8527,8 @@
       </c>
     </row>
     <row r="259" spans="2:5" ht="18" customHeight="1">
-      <c r="B259" s="22"/>
-      <c r="C259" s="22"/>
+      <c r="B259" s="14"/>
+      <c r="C259" s="14"/>
       <c r="D259" s="6">
         <v>82603</v>
       </c>
@@ -8398,8 +8537,8 @@
       </c>
     </row>
     <row r="260" spans="2:5" ht="18" customHeight="1">
-      <c r="B260" s="22"/>
-      <c r="C260" s="22"/>
+      <c r="B260" s="14"/>
+      <c r="C260" s="14"/>
       <c r="D260" s="6">
         <v>82604</v>
       </c>
@@ -8408,8 +8547,8 @@
       </c>
     </row>
     <row r="261" spans="2:5" ht="18" customHeight="1">
-      <c r="B261" s="22"/>
-      <c r="C261" s="22" t="s">
+      <c r="B261" s="14"/>
+      <c r="C261" s="14" t="s">
         <v>400</v>
       </c>
       <c r="D261" s="6">
@@ -8420,8 +8559,8 @@
       </c>
     </row>
     <row r="262" spans="2:5" ht="18" customHeight="1">
-      <c r="B262" s="22"/>
-      <c r="C262" s="22"/>
+      <c r="B262" s="14"/>
+      <c r="C262" s="14"/>
       <c r="D262" s="6">
         <v>82702</v>
       </c>
@@ -8430,8 +8569,8 @@
       </c>
     </row>
     <row r="263" spans="2:5" ht="18" customHeight="1">
-      <c r="B263" s="22"/>
-      <c r="C263" s="22"/>
+      <c r="B263" s="14"/>
+      <c r="C263" s="14"/>
       <c r="D263" s="6">
         <v>82703</v>
       </c>
@@ -8440,8 +8579,8 @@
       </c>
     </row>
     <row r="264" spans="2:5" ht="18" customHeight="1">
-      <c r="B264" s="22"/>
-      <c r="C264" s="22"/>
+      <c r="B264" s="14"/>
+      <c r="C264" s="14"/>
       <c r="D264" s="6">
         <v>82704</v>
       </c>
@@ -8450,8 +8589,8 @@
       </c>
     </row>
     <row r="265" spans="2:5" ht="18" customHeight="1">
-      <c r="B265" s="22"/>
-      <c r="C265" s="22" t="s">
+      <c r="B265" s="14"/>
+      <c r="C265" s="14" t="s">
         <v>405</v>
       </c>
       <c r="D265" s="6">
@@ -8462,8 +8601,8 @@
       </c>
     </row>
     <row r="266" spans="2:5" ht="18" customHeight="1">
-      <c r="B266" s="22"/>
-      <c r="C266" s="22"/>
+      <c r="B266" s="14"/>
+      <c r="C266" s="14"/>
       <c r="D266" s="6">
         <v>82802</v>
       </c>
@@ -8472,8 +8611,8 @@
       </c>
     </row>
     <row r="267" spans="2:5" ht="18" customHeight="1">
-      <c r="B267" s="22"/>
-      <c r="C267" s="22"/>
+      <c r="B267" s="14"/>
+      <c r="C267" s="14"/>
       <c r="D267" s="6">
         <v>82803</v>
       </c>
@@ -8482,8 +8621,8 @@
       </c>
     </row>
     <row r="268" spans="2:5" ht="18" customHeight="1">
-      <c r="B268" s="22"/>
-      <c r="C268" s="22"/>
+      <c r="B268" s="14"/>
+      <c r="C268" s="14"/>
       <c r="D268" s="6">
         <v>82804</v>
       </c>
@@ -8492,8 +8631,8 @@
       </c>
     </row>
     <row r="269" spans="2:5" ht="18" customHeight="1">
-      <c r="B269" s="22"/>
-      <c r="C269" s="22" t="s">
+      <c r="B269" s="14"/>
+      <c r="C269" s="14" t="s">
         <v>410</v>
       </c>
       <c r="D269" s="6">
@@ -8504,8 +8643,8 @@
       </c>
     </row>
     <row r="270" spans="2:5" ht="18" customHeight="1">
-      <c r="B270" s="22"/>
-      <c r="C270" s="22"/>
+      <c r="B270" s="14"/>
+      <c r="C270" s="14"/>
       <c r="D270" s="6">
         <v>82902</v>
       </c>
@@ -8514,8 +8653,8 @@
       </c>
     </row>
     <row r="271" spans="2:5" ht="18" customHeight="1">
-      <c r="B271" s="22"/>
-      <c r="C271" s="22"/>
+      <c r="B271" s="14"/>
+      <c r="C271" s="14"/>
       <c r="D271" s="6">
         <v>82903</v>
       </c>
@@ -8524,8 +8663,8 @@
       </c>
     </row>
     <row r="272" spans="2:5" ht="22.5" customHeight="1">
-      <c r="B272" s="22"/>
-      <c r="C272" s="22" t="s">
+      <c r="B272" s="14"/>
+      <c r="C272" s="14" t="s">
         <v>414</v>
       </c>
       <c r="D272" s="6">
@@ -8536,8 +8675,8 @@
       </c>
     </row>
     <row r="273" spans="2:5" ht="18" customHeight="1">
-      <c r="B273" s="22"/>
-      <c r="C273" s="22"/>
+      <c r="B273" s="14"/>
+      <c r="C273" s="14"/>
       <c r="D273" s="6">
         <v>83002</v>
       </c>
@@ -8546,7 +8685,7 @@
       </c>
     </row>
     <row r="274" spans="2:5" ht="18" customHeight="1">
-      <c r="B274" s="22"/>
+      <c r="B274" s="14"/>
       <c r="C274" s="6" t="s">
         <v>417</v>
       </c>
@@ -8558,8 +8697,8 @@
       </c>
     </row>
     <row r="275" spans="2:5" ht="18" customHeight="1">
-      <c r="B275" s="22"/>
-      <c r="C275" s="22" t="s">
+      <c r="B275" s="14"/>
+      <c r="C275" s="14" t="s">
         <v>418</v>
       </c>
       <c r="D275" s="6">
@@ -8570,8 +8709,8 @@
       </c>
     </row>
     <row r="276" spans="2:5" ht="18" customHeight="1">
-      <c r="B276" s="22"/>
-      <c r="C276" s="22"/>
+      <c r="B276" s="14"/>
+      <c r="C276" s="14"/>
       <c r="D276" s="6">
         <v>83202</v>
       </c>
@@ -8580,8 +8719,8 @@
       </c>
     </row>
     <row r="277" spans="2:5" ht="18" customHeight="1">
-      <c r="B277" s="22"/>
-      <c r="C277" s="22"/>
+      <c r="B277" s="14"/>
+      <c r="C277" s="14"/>
       <c r="D277" s="6">
         <v>83203</v>
       </c>
@@ -8590,8 +8729,8 @@
       </c>
     </row>
     <row r="278" spans="2:5" ht="18" customHeight="1">
-      <c r="B278" s="22"/>
-      <c r="C278" s="22"/>
+      <c r="B278" s="14"/>
+      <c r="C278" s="14"/>
       <c r="D278" s="6">
         <v>83204</v>
       </c>
@@ -8600,10 +8739,10 @@
       </c>
     </row>
     <row r="279" spans="2:5" ht="18" customHeight="1">
-      <c r="B279" s="22" t="s">
+      <c r="B279" s="14" t="s">
         <v>423</v>
       </c>
-      <c r="C279" s="22" t="s">
+      <c r="C279" s="14" t="s">
         <v>424</v>
       </c>
       <c r="D279" s="6">
@@ -8614,8 +8753,8 @@
       </c>
     </row>
     <row r="280" spans="2:5" ht="18" customHeight="1">
-      <c r="B280" s="22"/>
-      <c r="C280" s="22"/>
+      <c r="B280" s="14"/>
+      <c r="C280" s="14"/>
       <c r="D280" s="6">
         <v>90102</v>
       </c>
@@ -8624,8 +8763,8 @@
       </c>
     </row>
     <row r="281" spans="2:5" ht="18" customHeight="1">
-      <c r="B281" s="22"/>
-      <c r="C281" s="22" t="s">
+      <c r="B281" s="14"/>
+      <c r="C281" s="14" t="s">
         <v>427</v>
       </c>
       <c r="D281" s="6">
@@ -8636,8 +8775,8 @@
       </c>
     </row>
     <row r="282" spans="2:5" ht="18" customHeight="1">
-      <c r="B282" s="22"/>
-      <c r="C282" s="22"/>
+      <c r="B282" s="14"/>
+      <c r="C282" s="14"/>
       <c r="D282" s="6">
         <v>90202</v>
       </c>
@@ -8646,8 +8785,8 @@
       </c>
     </row>
     <row r="283" spans="2:5" ht="18" customHeight="1">
-      <c r="B283" s="22"/>
-      <c r="C283" s="22"/>
+      <c r="B283" s="14"/>
+      <c r="C283" s="14"/>
       <c r="D283" s="6">
         <v>90203</v>
       </c>
@@ -8656,8 +8795,8 @@
       </c>
     </row>
     <row r="284" spans="2:5" ht="22.5" customHeight="1">
-      <c r="B284" s="22"/>
-      <c r="C284" s="22" t="s">
+      <c r="B284" s="14"/>
+      <c r="C284" s="14" t="s">
         <v>431</v>
       </c>
       <c r="D284" s="6">
@@ -8668,8 +8807,8 @@
       </c>
     </row>
     <row r="285" spans="2:5" ht="18" customHeight="1">
-      <c r="B285" s="22"/>
-      <c r="C285" s="22"/>
+      <c r="B285" s="14"/>
+      <c r="C285" s="14"/>
       <c r="D285" s="6">
         <v>90302</v>
       </c>
@@ -8678,8 +8817,8 @@
       </c>
     </row>
     <row r="286" spans="2:5" ht="18" customHeight="1">
-      <c r="B286" s="22"/>
-      <c r="C286" s="22" t="s">
+      <c r="B286" s="14"/>
+      <c r="C286" s="14" t="s">
         <v>434</v>
       </c>
       <c r="D286" s="6">
@@ -8690,8 +8829,8 @@
       </c>
     </row>
     <row r="287" spans="2:5" ht="18" customHeight="1">
-      <c r="B287" s="22"/>
-      <c r="C287" s="22"/>
+      <c r="B287" s="14"/>
+      <c r="C287" s="14"/>
       <c r="D287" s="6">
         <v>90402</v>
       </c>
@@ -8700,8 +8839,8 @@
       </c>
     </row>
     <row r="288" spans="2:5" ht="18" customHeight="1">
-      <c r="B288" s="22"/>
-      <c r="C288" s="22"/>
+      <c r="B288" s="14"/>
+      <c r="C288" s="14"/>
       <c r="D288" s="6">
         <v>90403</v>
       </c>
@@ -8710,8 +8849,8 @@
       </c>
     </row>
     <row r="289" spans="2:5" ht="18" customHeight="1">
-      <c r="B289" s="22"/>
-      <c r="C289" s="22" t="s">
+      <c r="B289" s="14"/>
+      <c r="C289" s="14" t="s">
         <v>438</v>
       </c>
       <c r="D289" s="6">
@@ -8722,8 +8861,8 @@
       </c>
     </row>
     <row r="290" spans="2:5" ht="18" customHeight="1">
-      <c r="B290" s="22"/>
-      <c r="C290" s="22"/>
+      <c r="B290" s="14"/>
+      <c r="C290" s="14"/>
       <c r="D290" s="6">
         <v>90502</v>
       </c>
@@ -8732,8 +8871,8 @@
       </c>
     </row>
     <row r="291" spans="2:5" ht="18" customHeight="1">
-      <c r="B291" s="22"/>
-      <c r="C291" s="22"/>
+      <c r="B291" s="14"/>
+      <c r="C291" s="14"/>
       <c r="D291" s="6">
         <v>90503</v>
       </c>
@@ -8742,8 +8881,8 @@
       </c>
     </row>
     <row r="292" spans="2:5" ht="18" customHeight="1">
-      <c r="B292" s="22"/>
-      <c r="C292" s="22"/>
+      <c r="B292" s="14"/>
+      <c r="C292" s="14"/>
       <c r="D292" s="6">
         <v>90504</v>
       </c>
@@ -8752,8 +8891,8 @@
       </c>
     </row>
     <row r="293" spans="2:5" ht="18" customHeight="1">
-      <c r="B293" s="22"/>
-      <c r="C293" s="22" t="s">
+      <c r="B293" s="14"/>
+      <c r="C293" s="14" t="s">
         <v>443</v>
       </c>
       <c r="D293" s="6">
@@ -8764,8 +8903,8 @@
       </c>
     </row>
     <row r="294" spans="2:5" ht="18" customHeight="1">
-      <c r="B294" s="22"/>
-      <c r="C294" s="22"/>
+      <c r="B294" s="14"/>
+      <c r="C294" s="14"/>
       <c r="D294" s="6">
         <v>90602</v>
       </c>
@@ -8774,8 +8913,8 @@
       </c>
     </row>
     <row r="295" spans="2:5" ht="18" customHeight="1">
-      <c r="B295" s="22"/>
-      <c r="C295" s="22"/>
+      <c r="B295" s="14"/>
+      <c r="C295" s="14"/>
       <c r="D295" s="6">
         <v>90603</v>
       </c>
@@ -8784,8 +8923,8 @@
       </c>
     </row>
     <row r="296" spans="2:5" ht="18" customHeight="1">
-      <c r="B296" s="22"/>
-      <c r="C296" s="22" t="s">
+      <c r="B296" s="14"/>
+      <c r="C296" s="14" t="s">
         <v>447</v>
       </c>
       <c r="D296" s="6">
@@ -8796,8 +8935,8 @@
       </c>
     </row>
     <row r="297" spans="2:5" ht="18" customHeight="1">
-      <c r="B297" s="22"/>
-      <c r="C297" s="22"/>
+      <c r="B297" s="14"/>
+      <c r="C297" s="14"/>
       <c r="D297" s="6">
         <v>90702</v>
       </c>
@@ -8806,8 +8945,8 @@
       </c>
     </row>
     <row r="298" spans="2:5" ht="18" customHeight="1">
-      <c r="B298" s="22"/>
-      <c r="C298" s="22"/>
+      <c r="B298" s="14"/>
+      <c r="C298" s="14"/>
       <c r="D298" s="6">
         <v>90703</v>
       </c>
@@ -8816,8 +8955,8 @@
       </c>
     </row>
     <row r="299" spans="2:5" ht="18" customHeight="1">
-      <c r="B299" s="22"/>
-      <c r="C299" s="22"/>
+      <c r="B299" s="14"/>
+      <c r="C299" s="14"/>
       <c r="D299" s="6">
         <v>90704</v>
       </c>
@@ -8826,8 +8965,8 @@
       </c>
     </row>
     <row r="300" spans="2:5" ht="18" customHeight="1">
-      <c r="B300" s="22"/>
-      <c r="C300" s="22"/>
+      <c r="B300" s="14"/>
+      <c r="C300" s="14"/>
       <c r="D300" s="6">
         <v>90705</v>
       </c>
@@ -8836,8 +8975,8 @@
       </c>
     </row>
     <row r="301" spans="2:5" ht="18" customHeight="1">
-      <c r="B301" s="22"/>
-      <c r="C301" s="22"/>
+      <c r="B301" s="14"/>
+      <c r="C301" s="14"/>
       <c r="D301" s="6">
         <v>90706</v>
       </c>
@@ -8846,8 +8985,8 @@
       </c>
     </row>
     <row r="302" spans="2:5" ht="18" customHeight="1">
-      <c r="B302" s="22"/>
-      <c r="C302" s="22"/>
+      <c r="B302" s="14"/>
+      <c r="C302" s="14"/>
       <c r="D302" s="6">
         <v>90707</v>
       </c>
@@ -8856,8 +8995,8 @@
       </c>
     </row>
     <row r="303" spans="2:5" ht="18" customHeight="1">
-      <c r="B303" s="22"/>
-      <c r="C303" s="22" t="s">
+      <c r="B303" s="14"/>
+      <c r="C303" s="14" t="s">
         <v>455</v>
       </c>
       <c r="D303" s="6">
@@ -8868,8 +9007,8 @@
       </c>
     </row>
     <row r="304" spans="2:5" ht="18" customHeight="1">
-      <c r="B304" s="22"/>
-      <c r="C304" s="22"/>
+      <c r="B304" s="14"/>
+      <c r="C304" s="14"/>
       <c r="D304" s="6">
         <v>90802</v>
       </c>
@@ -8878,8 +9017,8 @@
       </c>
     </row>
     <row r="305" spans="2:5" ht="18" customHeight="1">
-      <c r="B305" s="22"/>
-      <c r="C305" s="22"/>
+      <c r="B305" s="14"/>
+      <c r="C305" s="14"/>
       <c r="D305" s="6">
         <v>90803</v>
       </c>
@@ -8888,10 +9027,10 @@
       </c>
     </row>
     <row r="306" spans="2:5" ht="18" customHeight="1">
-      <c r="B306" s="22" t="s">
+      <c r="B306" s="14" t="s">
         <v>459</v>
       </c>
-      <c r="C306" s="22" t="s">
+      <c r="C306" s="14" t="s">
         <v>460</v>
       </c>
       <c r="D306" s="6">
@@ -8902,8 +9041,8 @@
       </c>
     </row>
     <row r="307" spans="2:5" ht="18" customHeight="1">
-      <c r="B307" s="22"/>
-      <c r="C307" s="22"/>
+      <c r="B307" s="14"/>
+      <c r="C307" s="14"/>
       <c r="D307" s="6">
         <v>100102</v>
       </c>
@@ -8912,8 +9051,8 @@
       </c>
     </row>
     <row r="308" spans="2:5" ht="18" customHeight="1">
-      <c r="B308" s="22"/>
-      <c r="C308" s="22"/>
+      <c r="B308" s="14"/>
+      <c r="C308" s="14"/>
       <c r="D308" s="6">
         <v>100103</v>
       </c>
@@ -8922,8 +9061,8 @@
       </c>
     </row>
     <row r="309" spans="2:5" ht="18" customHeight="1">
-      <c r="B309" s="22"/>
-      <c r="C309" s="22"/>
+      <c r="B309" s="14"/>
+      <c r="C309" s="14"/>
       <c r="D309" s="6">
         <v>100104</v>
       </c>
@@ -8932,8 +9071,8 @@
       </c>
     </row>
     <row r="310" spans="2:5" ht="18" customHeight="1">
-      <c r="B310" s="22"/>
-      <c r="C310" s="22"/>
+      <c r="B310" s="14"/>
+      <c r="C310" s="14"/>
       <c r="D310" s="6">
         <v>100105</v>
       </c>
@@ -8942,8 +9081,8 @@
       </c>
     </row>
     <row r="311" spans="2:5" ht="18" customHeight="1">
-      <c r="B311" s="22"/>
-      <c r="C311" s="22"/>
+      <c r="B311" s="14"/>
+      <c r="C311" s="14"/>
       <c r="D311" s="6">
         <v>100106</v>
       </c>
@@ -8952,8 +9091,8 @@
       </c>
     </row>
     <row r="312" spans="2:5" ht="18" customHeight="1">
-      <c r="B312" s="22"/>
-      <c r="C312" s="22"/>
+      <c r="B312" s="14"/>
+      <c r="C312" s="14"/>
       <c r="D312" s="6">
         <v>100107</v>
       </c>
@@ -8962,8 +9101,8 @@
       </c>
     </row>
     <row r="313" spans="2:5" ht="18" customHeight="1">
-      <c r="B313" s="22"/>
-      <c r="C313" s="22" t="s">
+      <c r="B313" s="14"/>
+      <c r="C313" s="14" t="s">
         <v>468</v>
       </c>
       <c r="D313" s="6">
@@ -8974,8 +9113,8 @@
       </c>
     </row>
     <row r="314" spans="2:5" ht="18" customHeight="1">
-      <c r="B314" s="22"/>
-      <c r="C314" s="22"/>
+      <c r="B314" s="14"/>
+      <c r="C314" s="14"/>
       <c r="D314" s="6">
         <v>100202</v>
       </c>
@@ -8984,8 +9123,8 @@
       </c>
     </row>
     <row r="315" spans="2:5" ht="18" customHeight="1">
-      <c r="B315" s="22"/>
-      <c r="C315" s="22"/>
+      <c r="B315" s="14"/>
+      <c r="C315" s="14"/>
       <c r="D315" s="6">
         <v>100203</v>
       </c>
@@ -8994,8 +9133,8 @@
       </c>
     </row>
     <row r="316" spans="2:5" ht="18" customHeight="1">
-      <c r="B316" s="22"/>
-      <c r="C316" s="22"/>
+      <c r="B316" s="14"/>
+      <c r="C316" s="14"/>
       <c r="D316" s="6">
         <v>100204</v>
       </c>
@@ -9004,8 +9143,8 @@
       </c>
     </row>
     <row r="317" spans="2:5" ht="18" customHeight="1">
-      <c r="B317" s="22"/>
-      <c r="C317" s="22"/>
+      <c r="B317" s="14"/>
+      <c r="C317" s="14"/>
       <c r="D317" s="6">
         <v>100205</v>
       </c>
@@ -9014,8 +9153,8 @@
       </c>
     </row>
     <row r="318" spans="2:5" ht="18" customHeight="1">
-      <c r="B318" s="22"/>
-      <c r="C318" s="22"/>
+      <c r="B318" s="14"/>
+      <c r="C318" s="14"/>
       <c r="D318" s="6">
         <v>100206</v>
       </c>
@@ -9024,8 +9163,8 @@
       </c>
     </row>
     <row r="319" spans="2:5" ht="18" customHeight="1">
-      <c r="B319" s="22"/>
-      <c r="C319" s="22"/>
+      <c r="B319" s="14"/>
+      <c r="C319" s="14"/>
       <c r="D319" s="6">
         <v>100207</v>
       </c>
@@ -9034,8 +9173,8 @@
       </c>
     </row>
     <row r="320" spans="2:5" ht="18" customHeight="1">
-      <c r="B320" s="22"/>
-      <c r="C320" s="22"/>
+      <c r="B320" s="14"/>
+      <c r="C320" s="14"/>
       <c r="D320" s="6">
         <v>100208</v>
       </c>
@@ -9044,8 +9183,8 @@
       </c>
     </row>
     <row r="321" spans="2:5" ht="18" customHeight="1">
-      <c r="B321" s="22"/>
-      <c r="C321" s="22"/>
+      <c r="B321" s="14"/>
+      <c r="C321" s="14"/>
       <c r="D321" s="6">
         <v>100209</v>
       </c>
@@ -9054,8 +9193,8 @@
       </c>
     </row>
     <row r="322" spans="2:5" ht="18" customHeight="1">
-      <c r="B322" s="22"/>
-      <c r="C322" s="22"/>
+      <c r="B322" s="14"/>
+      <c r="C322" s="14"/>
       <c r="D322" s="6">
         <v>100210</v>
       </c>
@@ -9064,8 +9203,8 @@
       </c>
     </row>
     <row r="323" spans="2:5" ht="18" customHeight="1">
-      <c r="B323" s="22"/>
-      <c r="C323" s="22"/>
+      <c r="B323" s="14"/>
+      <c r="C323" s="14"/>
       <c r="D323" s="6">
         <v>100211</v>
       </c>
@@ -9074,8 +9213,8 @@
       </c>
     </row>
     <row r="324" spans="2:5" ht="18" customHeight="1">
-      <c r="B324" s="22"/>
-      <c r="C324" s="22"/>
+      <c r="B324" s="14"/>
+      <c r="C324" s="14"/>
       <c r="D324" s="6">
         <v>100212</v>
       </c>
@@ -9084,8 +9223,8 @@
       </c>
     </row>
     <row r="325" spans="2:5" ht="18" customHeight="1">
-      <c r="B325" s="22"/>
-      <c r="C325" s="22"/>
+      <c r="B325" s="14"/>
+      <c r="C325" s="14"/>
       <c r="D325" s="6">
         <v>100213</v>
       </c>
@@ -9094,8 +9233,8 @@
       </c>
     </row>
     <row r="326" spans="2:5" ht="18" customHeight="1">
-      <c r="B326" s="22"/>
-      <c r="C326" s="22"/>
+      <c r="B326" s="14"/>
+      <c r="C326" s="14"/>
       <c r="D326" s="6">
         <v>100214</v>
       </c>
@@ -9104,8 +9243,8 @@
       </c>
     </row>
     <row r="327" spans="2:5" ht="18" customHeight="1">
-      <c r="B327" s="22"/>
-      <c r="C327" s="22"/>
+      <c r="B327" s="14"/>
+      <c r="C327" s="14"/>
       <c r="D327" s="6">
         <v>100215</v>
       </c>
@@ -9114,8 +9253,8 @@
       </c>
     </row>
     <row r="328" spans="2:5" ht="18" customHeight="1">
-      <c r="B328" s="22"/>
-      <c r="C328" s="22"/>
+      <c r="B328" s="14"/>
+      <c r="C328" s="14"/>
       <c r="D328" s="6">
         <v>100216</v>
       </c>
@@ -9124,8 +9263,8 @@
       </c>
     </row>
     <row r="329" spans="2:5" ht="18" customHeight="1">
-      <c r="B329" s="22"/>
-      <c r="C329" s="22"/>
+      <c r="B329" s="14"/>
+      <c r="C329" s="14"/>
       <c r="D329" s="6">
         <v>100217</v>
       </c>
@@ -9134,8 +9273,8 @@
       </c>
     </row>
     <row r="330" spans="2:5" ht="18" customHeight="1">
-      <c r="B330" s="22"/>
-      <c r="C330" s="22"/>
+      <c r="B330" s="14"/>
+      <c r="C330" s="14"/>
       <c r="D330" s="6">
         <v>100218</v>
       </c>
@@ -9144,8 +9283,8 @@
       </c>
     </row>
     <row r="331" spans="2:5" ht="18" customHeight="1">
-      <c r="B331" s="22"/>
-      <c r="C331" s="22" t="s">
+      <c r="B331" s="14"/>
+      <c r="C331" s="14" t="s">
         <v>487</v>
       </c>
       <c r="D331" s="6">
@@ -9156,8 +9295,8 @@
       </c>
     </row>
     <row r="332" spans="2:5" ht="18" customHeight="1">
-      <c r="B332" s="22"/>
-      <c r="C332" s="22"/>
+      <c r="B332" s="14"/>
+      <c r="C332" s="14"/>
       <c r="D332" s="6">
         <v>100302</v>
       </c>
@@ -9166,8 +9305,8 @@
       </c>
     </row>
     <row r="333" spans="2:5" ht="18" customHeight="1">
-      <c r="B333" s="22"/>
-      <c r="C333" s="22" t="s">
+      <c r="B333" s="14"/>
+      <c r="C333" s="14" t="s">
         <v>490</v>
       </c>
       <c r="D333" s="6">
@@ -9178,8 +9317,8 @@
       </c>
     </row>
     <row r="334" spans="2:5" ht="18" customHeight="1">
-      <c r="B334" s="22"/>
-      <c r="C334" s="22"/>
+      <c r="B334" s="14"/>
+      <c r="C334" s="14"/>
       <c r="D334" s="6">
         <v>100402</v>
       </c>
@@ -9188,8 +9327,8 @@
       </c>
     </row>
     <row r="335" spans="2:5" ht="18" customHeight="1">
-      <c r="B335" s="22"/>
-      <c r="C335" s="22"/>
+      <c r="B335" s="14"/>
+      <c r="C335" s="14"/>
       <c r="D335" s="6">
         <v>100403</v>
       </c>
@@ -9198,8 +9337,8 @@
       </c>
     </row>
     <row r="336" spans="2:5" ht="18" customHeight="1">
-      <c r="B336" s="22"/>
-      <c r="C336" s="22"/>
+      <c r="B336" s="14"/>
+      <c r="C336" s="14"/>
       <c r="D336" s="6">
         <v>100404</v>
       </c>
@@ -9208,8 +9347,8 @@
       </c>
     </row>
     <row r="337" spans="2:5" ht="18" customHeight="1">
-      <c r="B337" s="22"/>
-      <c r="C337" s="22"/>
+      <c r="B337" s="14"/>
+      <c r="C337" s="14"/>
       <c r="D337" s="6">
         <v>100405</v>
       </c>
@@ -9218,8 +9357,8 @@
       </c>
     </row>
     <row r="338" spans="2:5" ht="18" customHeight="1">
-      <c r="B338" s="22"/>
-      <c r="C338" s="22"/>
+      <c r="B338" s="14"/>
+      <c r="C338" s="14"/>
       <c r="D338" s="6">
         <v>100406</v>
       </c>
@@ -9228,8 +9367,8 @@
       </c>
     </row>
     <row r="339" spans="2:5" ht="18" customHeight="1">
-      <c r="B339" s="22"/>
-      <c r="C339" s="22" t="s">
+      <c r="B339" s="14"/>
+      <c r="C339" s="14" t="s">
         <v>497</v>
       </c>
       <c r="D339" s="6">
@@ -9240,8 +9379,8 @@
       </c>
     </row>
     <row r="340" spans="2:5" ht="18" customHeight="1">
-      <c r="B340" s="22"/>
-      <c r="C340" s="22"/>
+      <c r="B340" s="14"/>
+      <c r="C340" s="14"/>
       <c r="D340" s="6">
         <v>100502</v>
       </c>
@@ -9250,8 +9389,8 @@
       </c>
     </row>
     <row r="341" spans="2:5" ht="18" customHeight="1">
-      <c r="B341" s="22"/>
-      <c r="C341" s="22"/>
+      <c r="B341" s="14"/>
+      <c r="C341" s="14"/>
       <c r="D341" s="6">
         <v>100503</v>
       </c>
@@ -9260,8 +9399,8 @@
       </c>
     </row>
     <row r="342" spans="2:5" ht="18" customHeight="1">
-      <c r="B342" s="22"/>
-      <c r="C342" s="22"/>
+      <c r="B342" s="14"/>
+      <c r="C342" s="14"/>
       <c r="D342" s="6">
         <v>100504</v>
       </c>
@@ -9270,8 +9409,8 @@
       </c>
     </row>
     <row r="343" spans="2:5" ht="18" customHeight="1">
-      <c r="B343" s="22"/>
-      <c r="C343" s="22"/>
+      <c r="B343" s="14"/>
+      <c r="C343" s="14"/>
       <c r="D343" s="6">
         <v>100505</v>
       </c>
@@ -9280,8 +9419,8 @@
       </c>
     </row>
     <row r="344" spans="2:5" ht="18" customHeight="1">
-      <c r="B344" s="22"/>
-      <c r="C344" s="22"/>
+      <c r="B344" s="14"/>
+      <c r="C344" s="14"/>
       <c r="D344" s="6">
         <v>100506</v>
       </c>
@@ -9290,8 +9429,8 @@
       </c>
     </row>
     <row r="345" spans="2:5" ht="18" customHeight="1">
-      <c r="B345" s="22"/>
-      <c r="C345" s="22"/>
+      <c r="B345" s="14"/>
+      <c r="C345" s="14"/>
       <c r="D345" s="6">
         <v>100507</v>
       </c>
@@ -9300,8 +9439,8 @@
       </c>
     </row>
     <row r="346" spans="2:5" ht="18" customHeight="1">
-      <c r="B346" s="22"/>
-      <c r="C346" s="22"/>
+      <c r="B346" s="14"/>
+      <c r="C346" s="14"/>
       <c r="D346" s="6">
         <v>100508</v>
       </c>
@@ -9310,8 +9449,8 @@
       </c>
     </row>
     <row r="347" spans="2:5" ht="18" customHeight="1">
-      <c r="B347" s="22"/>
-      <c r="C347" s="22"/>
+      <c r="B347" s="14"/>
+      <c r="C347" s="14"/>
       <c r="D347" s="6">
         <v>100509</v>
       </c>
@@ -9320,8 +9459,8 @@
       </c>
     </row>
     <row r="348" spans="2:5" ht="18" customHeight="1">
-      <c r="B348" s="22"/>
-      <c r="C348" s="22"/>
+      <c r="B348" s="14"/>
+      <c r="C348" s="14"/>
       <c r="D348" s="6">
         <v>100510</v>
       </c>
@@ -9330,8 +9469,8 @@
       </c>
     </row>
     <row r="349" spans="2:5" ht="18" customHeight="1">
-      <c r="B349" s="22"/>
-      <c r="C349" s="22"/>
+      <c r="B349" s="14"/>
+      <c r="C349" s="14"/>
       <c r="D349" s="6">
         <v>100511</v>
       </c>
@@ -9340,8 +9479,8 @@
       </c>
     </row>
     <row r="350" spans="2:5" ht="18" customHeight="1">
-      <c r="B350" s="22"/>
-      <c r="C350" s="22"/>
+      <c r="B350" s="14"/>
+      <c r="C350" s="14"/>
       <c r="D350" s="6">
         <v>100512</v>
       </c>
@@ -9350,8 +9489,8 @@
       </c>
     </row>
     <row r="351" spans="2:5" ht="18" customHeight="1">
-      <c r="B351" s="22"/>
-      <c r="C351" s="22"/>
+      <c r="B351" s="14"/>
+      <c r="C351" s="14"/>
       <c r="D351" s="6">
         <v>100513</v>
       </c>
@@ -9360,8 +9499,8 @@
       </c>
     </row>
     <row r="352" spans="2:5" ht="18" customHeight="1">
-      <c r="B352" s="22"/>
-      <c r="C352" s="22" t="s">
+      <c r="B352" s="14"/>
+      <c r="C352" s="14" t="s">
         <v>511</v>
       </c>
       <c r="D352" s="6">
@@ -9372,8 +9511,8 @@
       </c>
     </row>
     <row r="353" spans="2:5" ht="18" customHeight="1">
-      <c r="B353" s="22"/>
-      <c r="C353" s="22"/>
+      <c r="B353" s="14"/>
+      <c r="C353" s="14"/>
       <c r="D353" s="6">
         <v>100602</v>
       </c>
@@ -9382,8 +9521,8 @@
       </c>
     </row>
     <row r="354" spans="2:5" ht="18" customHeight="1">
-      <c r="B354" s="22"/>
-      <c r="C354" s="22" t="s">
+      <c r="B354" s="14"/>
+      <c r="C354" s="14" t="s">
         <v>514</v>
       </c>
       <c r="D354" s="6">
@@ -9394,8 +9533,8 @@
       </c>
     </row>
     <row r="355" spans="2:5" ht="18" customHeight="1">
-      <c r="B355" s="22"/>
-      <c r="C355" s="22"/>
+      <c r="B355" s="14"/>
+      <c r="C355" s="14"/>
       <c r="D355" s="6">
         <v>100702</v>
       </c>
@@ -9404,8 +9543,8 @@
       </c>
     </row>
     <row r="356" spans="2:5" ht="18" customHeight="1">
-      <c r="B356" s="22"/>
-      <c r="C356" s="22"/>
+      <c r="B356" s="14"/>
+      <c r="C356" s="14"/>
       <c r="D356" s="6">
         <v>100703</v>
       </c>
@@ -9414,8 +9553,8 @@
       </c>
     </row>
     <row r="357" spans="2:5" ht="18" customHeight="1">
-      <c r="B357" s="22"/>
-      <c r="C357" s="22"/>
+      <c r="B357" s="14"/>
+      <c r="C357" s="14"/>
       <c r="D357" s="6">
         <v>100704</v>
       </c>
@@ -9424,8 +9563,8 @@
       </c>
     </row>
     <row r="358" spans="2:5" ht="18" customHeight="1">
-      <c r="B358" s="22"/>
-      <c r="C358" s="22"/>
+      <c r="B358" s="14"/>
+      <c r="C358" s="14"/>
       <c r="D358" s="6">
         <v>100705</v>
       </c>
@@ -9434,8 +9573,8 @@
       </c>
     </row>
     <row r="359" spans="2:5" ht="18" customHeight="1">
-      <c r="B359" s="22"/>
-      <c r="C359" s="22"/>
+      <c r="B359" s="14"/>
+      <c r="C359" s="14"/>
       <c r="D359" s="6">
         <v>100706</v>
       </c>
@@ -9444,7 +9583,7 @@
       </c>
     </row>
     <row r="360" spans="2:5" ht="18" customHeight="1">
-      <c r="B360" s="22"/>
+      <c r="B360" s="14"/>
       <c r="C360" s="6" t="s">
         <v>521</v>
       </c>
@@ -9456,10 +9595,10 @@
       </c>
     </row>
     <row r="361" spans="2:5" ht="22.5" customHeight="1">
-      <c r="B361" s="22" t="s">
+      <c r="B361" s="14" t="s">
         <v>522</v>
       </c>
-      <c r="C361" s="22" t="s">
+      <c r="C361" s="14" t="s">
         <v>523</v>
       </c>
       <c r="D361" s="6">
@@ -9470,8 +9609,8 @@
       </c>
     </row>
     <row r="362" spans="2:5" ht="18" customHeight="1">
-      <c r="B362" s="22"/>
-      <c r="C362" s="22"/>
+      <c r="B362" s="14"/>
+      <c r="C362" s="14"/>
       <c r="D362" s="6">
         <v>110102</v>
       </c>
@@ -9480,8 +9619,8 @@
       </c>
     </row>
     <row r="363" spans="2:5" ht="18" customHeight="1">
-      <c r="B363" s="22"/>
-      <c r="C363" s="22" t="s">
+      <c r="B363" s="14"/>
+      <c r="C363" s="14" t="s">
         <v>526</v>
       </c>
       <c r="D363" s="6">
@@ -9492,8 +9631,8 @@
       </c>
     </row>
     <row r="364" spans="2:5" ht="18" customHeight="1">
-      <c r="B364" s="22"/>
-      <c r="C364" s="22"/>
+      <c r="B364" s="14"/>
+      <c r="C364" s="14"/>
       <c r="D364" s="6">
         <v>110202</v>
       </c>
@@ -9502,8 +9641,8 @@
       </c>
     </row>
     <row r="365" spans="2:5" ht="18" customHeight="1">
-      <c r="B365" s="22"/>
-      <c r="C365" s="22" t="s">
+      <c r="B365" s="14"/>
+      <c r="C365" s="14" t="s">
         <v>529</v>
       </c>
       <c r="D365" s="6">
@@ -9514,8 +9653,8 @@
       </c>
     </row>
     <row r="366" spans="2:5" ht="18" customHeight="1">
-      <c r="B366" s="22"/>
-      <c r="C366" s="22"/>
+      <c r="B366" s="14"/>
+      <c r="C366" s="14"/>
       <c r="D366" s="6">
         <v>110302</v>
       </c>
@@ -9524,8 +9663,8 @@
       </c>
     </row>
     <row r="367" spans="2:5" ht="18" customHeight="1">
-      <c r="B367" s="22"/>
-      <c r="C367" s="22" t="s">
+      <c r="B367" s="14"/>
+      <c r="C367" s="14" t="s">
         <v>532</v>
       </c>
       <c r="D367" s="6">
@@ -9536,8 +9675,8 @@
       </c>
     </row>
     <row r="368" spans="2:5" ht="18" customHeight="1">
-      <c r="B368" s="22"/>
-      <c r="C368" s="22"/>
+      <c r="B368" s="14"/>
+      <c r="C368" s="14"/>
       <c r="D368" s="6">
         <v>110402</v>
       </c>
@@ -9546,8 +9685,8 @@
       </c>
     </row>
     <row r="369" spans="2:5" ht="18" customHeight="1">
-      <c r="B369" s="22"/>
-      <c r="C369" s="22" t="s">
+      <c r="B369" s="14"/>
+      <c r="C369" s="14" t="s">
         <v>535</v>
       </c>
       <c r="D369" s="6">
@@ -9558,8 +9697,8 @@
       </c>
     </row>
     <row r="370" spans="2:5" ht="18" customHeight="1">
-      <c r="B370" s="22"/>
-      <c r="C370" s="22"/>
+      <c r="B370" s="14"/>
+      <c r="C370" s="14"/>
       <c r="D370" s="6">
         <v>110502</v>
       </c>
@@ -9568,8 +9707,8 @@
       </c>
     </row>
     <row r="371" spans="2:5" ht="18" customHeight="1">
-      <c r="B371" s="22"/>
-      <c r="C371" s="22"/>
+      <c r="B371" s="14"/>
+      <c r="C371" s="14"/>
       <c r="D371" s="6">
         <v>110503</v>
       </c>
@@ -9578,8 +9717,8 @@
       </c>
     </row>
     <row r="372" spans="2:5" ht="18" customHeight="1">
-      <c r="B372" s="22"/>
-      <c r="C372" s="22"/>
+      <c r="B372" s="14"/>
+      <c r="C372" s="14"/>
       <c r="D372" s="6">
         <v>110504</v>
       </c>
@@ -9588,8 +9727,8 @@
       </c>
     </row>
     <row r="373" spans="2:5" ht="18" customHeight="1">
-      <c r="B373" s="22"/>
-      <c r="C373" s="22"/>
+      <c r="B373" s="14"/>
+      <c r="C373" s="14"/>
       <c r="D373" s="6">
         <v>110505</v>
       </c>
@@ -9598,8 +9737,8 @@
       </c>
     </row>
     <row r="374" spans="2:5" ht="18" customHeight="1">
-      <c r="B374" s="22"/>
-      <c r="C374" s="22"/>
+      <c r="B374" s="14"/>
+      <c r="C374" s="14"/>
       <c r="D374" s="6">
         <v>110506</v>
       </c>
@@ -9608,8 +9747,8 @@
       </c>
     </row>
     <row r="375" spans="2:5" ht="18" customHeight="1">
-      <c r="B375" s="22"/>
-      <c r="C375" s="22" t="s">
+      <c r="B375" s="14"/>
+      <c r="C375" s="14" t="s">
         <v>542</v>
       </c>
       <c r="D375" s="6">
@@ -9620,8 +9759,8 @@
       </c>
     </row>
     <row r="376" spans="2:5" ht="18" customHeight="1">
-      <c r="B376" s="22"/>
-      <c r="C376" s="22"/>
+      <c r="B376" s="14"/>
+      <c r="C376" s="14"/>
       <c r="D376" s="6">
         <v>110602</v>
       </c>
@@ -9630,7 +9769,7 @@
       </c>
     </row>
     <row r="377" spans="2:5" ht="18" customHeight="1">
-      <c r="B377" s="22"/>
+      <c r="B377" s="14"/>
       <c r="C377" s="6" t="s">
         <v>545</v>
       </c>
@@ -9642,8 +9781,8 @@
       </c>
     </row>
     <row r="378" spans="2:5" ht="18" customHeight="1">
-      <c r="B378" s="22"/>
-      <c r="C378" s="22" t="s">
+      <c r="B378" s="14"/>
+      <c r="C378" s="14" t="s">
         <v>546</v>
       </c>
       <c r="D378" s="6">
@@ -9654,8 +9793,8 @@
       </c>
     </row>
     <row r="379" spans="2:5" ht="18" customHeight="1">
-      <c r="B379" s="22"/>
-      <c r="C379" s="22"/>
+      <c r="B379" s="14"/>
+      <c r="C379" s="14"/>
       <c r="D379" s="6">
         <v>110802</v>
       </c>
@@ -9664,8 +9803,8 @@
       </c>
     </row>
     <row r="380" spans="2:5" ht="18" customHeight="1">
-      <c r="B380" s="22"/>
-      <c r="C380" s="22"/>
+      <c r="B380" s="14"/>
+      <c r="C380" s="14"/>
       <c r="D380" s="6">
         <v>110803</v>
       </c>
@@ -9674,7 +9813,7 @@
       </c>
     </row>
     <row r="381" spans="2:5" ht="18" customHeight="1">
-      <c r="B381" s="22" t="s">
+      <c r="B381" s="14" t="s">
         <v>550</v>
       </c>
       <c r="C381" s="6" t="s">
@@ -9688,8 +9827,8 @@
       </c>
     </row>
     <row r="382" spans="2:5" ht="18" customHeight="1">
-      <c r="B382" s="22"/>
-      <c r="C382" s="22" t="s">
+      <c r="B382" s="14"/>
+      <c r="C382" s="14" t="s">
         <v>552</v>
       </c>
       <c r="D382" s="6">
@@ -9700,8 +9839,8 @@
       </c>
     </row>
     <row r="383" spans="2:5" ht="18" customHeight="1">
-      <c r="B383" s="22"/>
-      <c r="C383" s="22"/>
+      <c r="B383" s="14"/>
+      <c r="C383" s="14"/>
       <c r="D383" s="6">
         <v>120202</v>
       </c>
@@ -9710,8 +9849,8 @@
       </c>
     </row>
     <row r="384" spans="2:5" ht="18" customHeight="1">
-      <c r="B384" s="22"/>
-      <c r="C384" s="22"/>
+      <c r="B384" s="14"/>
+      <c r="C384" s="14"/>
       <c r="D384" s="6">
         <v>120203</v>
       </c>
@@ -9720,8 +9859,8 @@
       </c>
     </row>
     <row r="385" spans="2:5" ht="18" customHeight="1">
-      <c r="B385" s="22"/>
-      <c r="C385" s="22"/>
+      <c r="B385" s="14"/>
+      <c r="C385" s="14"/>
       <c r="D385" s="6">
         <v>120204</v>
       </c>
@@ -9730,8 +9869,8 @@
       </c>
     </row>
     <row r="386" spans="2:5" ht="22.5" customHeight="1">
-      <c r="B386" s="22"/>
-      <c r="C386" s="22" t="s">
+      <c r="B386" s="14"/>
+      <c r="C386" s="14" t="s">
         <v>557</v>
       </c>
       <c r="D386" s="6">
@@ -9742,8 +9881,8 @@
       </c>
     </row>
     <row r="387" spans="2:5" ht="18" customHeight="1">
-      <c r="B387" s="22"/>
-      <c r="C387" s="22"/>
+      <c r="B387" s="14"/>
+      <c r="C387" s="14"/>
       <c r="D387" s="6">
         <v>120302</v>
       </c>
@@ -9752,8 +9891,8 @@
       </c>
     </row>
     <row r="388" spans="2:5" ht="18" customHeight="1">
-      <c r="B388" s="22"/>
-      <c r="C388" s="22" t="s">
+      <c r="B388" s="14"/>
+      <c r="C388" s="14" t="s">
         <v>560</v>
       </c>
       <c r="D388" s="6">
@@ -9764,8 +9903,8 @@
       </c>
     </row>
     <row r="389" spans="2:5" ht="18" customHeight="1">
-      <c r="B389" s="22"/>
-      <c r="C389" s="22"/>
+      <c r="B389" s="14"/>
+      <c r="C389" s="14"/>
       <c r="D389" s="6">
         <v>120402</v>
       </c>
@@ -9774,8 +9913,8 @@
       </c>
     </row>
     <row r="390" spans="2:5" ht="18" customHeight="1">
-      <c r="B390" s="22"/>
-      <c r="C390" s="22"/>
+      <c r="B390" s="14"/>
+      <c r="C390" s="14"/>
       <c r="D390" s="6">
         <v>120403</v>
       </c>
@@ -9784,8 +9923,8 @@
       </c>
     </row>
     <row r="391" spans="2:5" ht="18" customHeight="1">
-      <c r="B391" s="22"/>
-      <c r="C391" s="22"/>
+      <c r="B391" s="14"/>
+      <c r="C391" s="14"/>
       <c r="D391" s="6">
         <v>120404</v>
       </c>
@@ -9794,8 +9933,8 @@
       </c>
     </row>
     <row r="392" spans="2:5" ht="18" customHeight="1">
-      <c r="B392" s="22"/>
-      <c r="C392" s="22"/>
+      <c r="B392" s="14"/>
+      <c r="C392" s="14"/>
       <c r="D392" s="6">
         <v>120405</v>
       </c>
@@ -9804,8 +9943,8 @@
       </c>
     </row>
     <row r="393" spans="2:5" ht="18" customHeight="1">
-      <c r="B393" s="22"/>
-      <c r="C393" s="22" t="s">
+      <c r="B393" s="14"/>
+      <c r="C393" s="14" t="s">
         <v>566</v>
       </c>
       <c r="D393" s="6">
@@ -9816,8 +9955,8 @@
       </c>
     </row>
     <row r="394" spans="2:5" ht="18" customHeight="1">
-      <c r="B394" s="22"/>
-      <c r="C394" s="22"/>
+      <c r="B394" s="14"/>
+      <c r="C394" s="14"/>
       <c r="D394" s="6">
         <v>120502</v>
       </c>
@@ -9826,8 +9965,8 @@
       </c>
     </row>
     <row r="395" spans="2:5" ht="18" customHeight="1">
-      <c r="B395" s="22"/>
-      <c r="C395" s="22"/>
+      <c r="B395" s="14"/>
+      <c r="C395" s="14"/>
       <c r="D395" s="6">
         <v>120503</v>
       </c>
@@ -9836,37 +9975,75 @@
       </c>
     </row>
     <row r="397" spans="2:5" ht="18" customHeight="1">
-      <c r="B397" s="32" t="s">
+      <c r="B397" s="19" t="s">
         <v>570</v>
       </c>
-      <c r="C397" s="32"/>
-      <c r="D397" s="32"/>
-      <c r="E397" s="32"/>
+      <c r="C397" s="19"/>
+      <c r="D397" s="19"/>
+      <c r="E397" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="98">
-    <mergeCell ref="B397:E397"/>
-    <mergeCell ref="B361:B380"/>
-    <mergeCell ref="C361:C362"/>
-    <mergeCell ref="C363:C364"/>
-    <mergeCell ref="C365:C366"/>
-    <mergeCell ref="C367:C368"/>
-    <mergeCell ref="C369:C374"/>
-    <mergeCell ref="C375:C376"/>
-    <mergeCell ref="C378:C380"/>
-    <mergeCell ref="B381:B395"/>
-    <mergeCell ref="C382:C385"/>
-    <mergeCell ref="C386:C387"/>
-    <mergeCell ref="C388:C392"/>
-    <mergeCell ref="C393:C395"/>
-    <mergeCell ref="B306:B360"/>
-    <mergeCell ref="C306:C312"/>
-    <mergeCell ref="C313:C330"/>
-    <mergeCell ref="C331:C332"/>
-    <mergeCell ref="C333:C338"/>
-    <mergeCell ref="C339:C351"/>
-    <mergeCell ref="C352:C353"/>
-    <mergeCell ref="C354:C359"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="B4:B11"/>
+    <mergeCell ref="C4:C11"/>
+    <mergeCell ref="B12:B27"/>
+    <mergeCell ref="C12:C17"/>
+    <mergeCell ref="C18:C27"/>
+    <mergeCell ref="B28:B58"/>
+    <mergeCell ref="C28:C37"/>
+    <mergeCell ref="C38:C44"/>
+    <mergeCell ref="C45:C48"/>
+    <mergeCell ref="C49:C53"/>
+    <mergeCell ref="C54:C58"/>
+    <mergeCell ref="C149:C160"/>
+    <mergeCell ref="C161:C162"/>
+    <mergeCell ref="B59:B75"/>
+    <mergeCell ref="C59:C68"/>
+    <mergeCell ref="C69:C71"/>
+    <mergeCell ref="C72:C75"/>
+    <mergeCell ref="B76:B104"/>
+    <mergeCell ref="C76:C83"/>
+    <mergeCell ref="C84:C94"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="C97:C104"/>
+    <mergeCell ref="C203:C205"/>
+    <mergeCell ref="C206:C209"/>
+    <mergeCell ref="C210:C215"/>
+    <mergeCell ref="C216:C220"/>
+    <mergeCell ref="B105:B112"/>
+    <mergeCell ref="C105:C112"/>
+    <mergeCell ref="B113:B163"/>
+    <mergeCell ref="C113:C117"/>
+    <mergeCell ref="C118:C125"/>
+    <mergeCell ref="C126:C130"/>
+    <mergeCell ref="C131:C132"/>
+    <mergeCell ref="C133:C135"/>
+    <mergeCell ref="C136:C137"/>
+    <mergeCell ref="C138:C141"/>
+    <mergeCell ref="C142:C143"/>
+    <mergeCell ref="C144:C148"/>
+    <mergeCell ref="C181:C186"/>
+    <mergeCell ref="C187:C191"/>
+    <mergeCell ref="C192:C195"/>
+    <mergeCell ref="C196:C197"/>
+    <mergeCell ref="C198:C202"/>
+    <mergeCell ref="C221:C223"/>
+    <mergeCell ref="C224:C228"/>
+    <mergeCell ref="C272:C273"/>
+    <mergeCell ref="C232:C234"/>
+    <mergeCell ref="C235:C237"/>
+    <mergeCell ref="C238:C241"/>
+    <mergeCell ref="C242:C245"/>
+    <mergeCell ref="C246:C249"/>
+    <mergeCell ref="C250:C252"/>
+    <mergeCell ref="C253:C256"/>
+    <mergeCell ref="C257:C260"/>
+    <mergeCell ref="C261:C264"/>
+    <mergeCell ref="C265:C268"/>
+    <mergeCell ref="C269:C271"/>
+    <mergeCell ref="C229:C231"/>
     <mergeCell ref="C275:C278"/>
     <mergeCell ref="B279:B305"/>
     <mergeCell ref="C279:C280"/>
@@ -9883,66 +10060,28 @@
     <mergeCell ref="C173:C174"/>
     <mergeCell ref="C175:C177"/>
     <mergeCell ref="C178:C180"/>
-    <mergeCell ref="C221:C223"/>
-    <mergeCell ref="C224:C228"/>
-    <mergeCell ref="C272:C273"/>
-    <mergeCell ref="C232:C234"/>
-    <mergeCell ref="C235:C237"/>
-    <mergeCell ref="C238:C241"/>
-    <mergeCell ref="C242:C245"/>
-    <mergeCell ref="C246:C249"/>
-    <mergeCell ref="C250:C252"/>
-    <mergeCell ref="C253:C256"/>
-    <mergeCell ref="C257:C260"/>
-    <mergeCell ref="C261:C264"/>
-    <mergeCell ref="C265:C268"/>
-    <mergeCell ref="C269:C271"/>
-    <mergeCell ref="C229:C231"/>
-    <mergeCell ref="C181:C186"/>
-    <mergeCell ref="C187:C191"/>
-    <mergeCell ref="C192:C195"/>
-    <mergeCell ref="C196:C197"/>
-    <mergeCell ref="C198:C202"/>
-    <mergeCell ref="C203:C205"/>
-    <mergeCell ref="C206:C209"/>
-    <mergeCell ref="C210:C215"/>
-    <mergeCell ref="C216:C220"/>
-    <mergeCell ref="B105:B112"/>
-    <mergeCell ref="C105:C112"/>
-    <mergeCell ref="B113:B163"/>
-    <mergeCell ref="C113:C117"/>
-    <mergeCell ref="C118:C125"/>
-    <mergeCell ref="C126:C130"/>
-    <mergeCell ref="C131:C132"/>
-    <mergeCell ref="C133:C135"/>
-    <mergeCell ref="C136:C137"/>
-    <mergeCell ref="C138:C141"/>
-    <mergeCell ref="C142:C143"/>
-    <mergeCell ref="C144:C148"/>
-    <mergeCell ref="C149:C160"/>
-    <mergeCell ref="C161:C162"/>
-    <mergeCell ref="B59:B75"/>
-    <mergeCell ref="C59:C68"/>
-    <mergeCell ref="C69:C71"/>
-    <mergeCell ref="C72:C75"/>
-    <mergeCell ref="B76:B104"/>
-    <mergeCell ref="C76:C83"/>
-    <mergeCell ref="C84:C94"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="C97:C104"/>
-    <mergeCell ref="B28:B58"/>
-    <mergeCell ref="C28:C37"/>
-    <mergeCell ref="C38:C44"/>
-    <mergeCell ref="C45:C48"/>
-    <mergeCell ref="C49:C53"/>
-    <mergeCell ref="C54:C58"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="B4:B11"/>
-    <mergeCell ref="C4:C11"/>
-    <mergeCell ref="B12:B27"/>
-    <mergeCell ref="C12:C17"/>
-    <mergeCell ref="C18:C27"/>
+    <mergeCell ref="B306:B360"/>
+    <mergeCell ref="C306:C312"/>
+    <mergeCell ref="C313:C330"/>
+    <mergeCell ref="C331:C332"/>
+    <mergeCell ref="C333:C338"/>
+    <mergeCell ref="C339:C351"/>
+    <mergeCell ref="C352:C353"/>
+    <mergeCell ref="C354:C359"/>
+    <mergeCell ref="B397:E397"/>
+    <mergeCell ref="B361:B380"/>
+    <mergeCell ref="C361:C362"/>
+    <mergeCell ref="C363:C364"/>
+    <mergeCell ref="C365:C366"/>
+    <mergeCell ref="C367:C368"/>
+    <mergeCell ref="C369:C374"/>
+    <mergeCell ref="C375:C376"/>
+    <mergeCell ref="C378:C380"/>
+    <mergeCell ref="B381:B395"/>
+    <mergeCell ref="C382:C385"/>
+    <mergeCell ref="C386:C387"/>
+    <mergeCell ref="C388:C392"/>
+    <mergeCell ref="C393:C395"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14056,10 +14195,10 @@
       </c>
     </row>
     <row r="569" spans="2:3" ht="18" customHeight="1">
-      <c r="B569" s="33" t="s">
+      <c r="B569" s="20" t="s">
         <v>1058</v>
       </c>
-      <c r="C569" s="34"/>
+      <c r="C569" s="21"/>
     </row>
     <row r="570" spans="2:3" ht="18" customHeight="1">
       <c r="B570" s="10"/>

--- a/doc/EducationMatrix.xlsx
+++ b/doc/EducationMatrix.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="501"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="501" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="教育矩阵" sheetId="1" r:id="rId1"/>
     <sheet name="职称等级" sheetId="4" r:id="rId2"/>
     <sheet name="学科专业目录" sheetId="5" r:id="rId3"/>
     <sheet name="普通高等学校本科专业目录" sheetId="6" r:id="rId4"/>
+    <sheet name="教辅教材" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1506" uniqueCount="1392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1561" uniqueCount="1422">
   <si>
     <t>教育阶段</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4349,6 +4350,126 @@
   </si>
   <si>
     <t>50W+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小学低</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小学中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小学高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英语</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>艺术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>健康</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>思想品德</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>化学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政治</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息技术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体育</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音乐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写字</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4434,15 +4555,57 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -4663,11 +4826,131 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4711,14 +4994,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4732,61 +5081,64 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5092,8 +5444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6:K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1"/>
@@ -5108,51 +5460,51 @@
   <sheetData>
     <row r="1" spans="2:11" ht="18" customHeight="1" thickBot="1"/>
     <row r="2" spans="2:11" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="17" t="s">
         <v>1383</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="18" t="s">
         <v>1377</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="18" t="s">
         <v>1370</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="18" t="s">
         <v>1369</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="H2" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="23" t="s">
+      <c r="I2" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="23" t="s">
+      <c r="J2" s="18" t="s">
         <v>1367</v>
       </c>
-      <c r="K2" s="24" t="s">
+      <c r="K2" s="19" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="3" spans="2:11" s="4" customFormat="1" ht="18" customHeight="1">
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="25" t="s">
         <v>1385</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="33" t="s">
         <v>1376</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="33" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="13"/>
@@ -5165,16 +5517,16 @@
       <c r="J3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="25" t="s">
+      <c r="K3" s="36" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="4" spans="2:11" s="4" customFormat="1" ht="18" customHeight="1">
-      <c r="B4" s="39"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
       <c r="G4" s="13"/>
       <c r="H4" s="13">
         <v>1</v>
@@ -5185,14 +5537,14 @@
       <c r="J4" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="25"/>
+      <c r="K4" s="36"/>
     </row>
     <row r="5" spans="2:11" s="4" customFormat="1" ht="18" customHeight="1">
-      <c r="B5" s="39"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
       <c r="G5" s="13"/>
       <c r="H5" s="13">
         <v>1</v>
@@ -5203,18 +5555,18 @@
       <c r="J5" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="K5" s="25"/>
+      <c r="K5" s="36"/>
     </row>
     <row r="6" spans="2:11" ht="18" customHeight="1">
-      <c r="B6" s="39"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="16" t="s">
+      <c r="B6" s="26"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="33" t="s">
         <v>1375</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="31" t="s">
         <v>37</v>
       </c>
       <c r="G6" s="12"/>
@@ -5227,16 +5579,16 @@
       <c r="J6" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="27" t="s">
+      <c r="K6" s="38" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="18" customHeight="1">
-      <c r="B7" s="39"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="14"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="31"/>
       <c r="G7" s="12"/>
       <c r="H7" s="12">
         <v>1</v>
@@ -5247,14 +5599,14 @@
       <c r="J7" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="27"/>
+      <c r="K7" s="38"/>
     </row>
     <row r="8" spans="2:11" ht="18" customHeight="1">
-      <c r="B8" s="39"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="14" t="s">
+      <c r="B8" s="26"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="31" t="s">
         <v>38</v>
       </c>
       <c r="G8" s="12"/>
@@ -5267,14 +5619,14 @@
       <c r="J8" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="K8" s="27"/>
+      <c r="K8" s="38"/>
     </row>
     <row r="9" spans="2:11" ht="18" customHeight="1">
-      <c r="B9" s="39"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="14"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="31"/>
       <c r="G9" s="12"/>
       <c r="H9" s="12">
         <v>1</v>
@@ -5285,14 +5637,14 @@
       <c r="J9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="K9" s="27"/>
+      <c r="K9" s="38"/>
     </row>
     <row r="10" spans="2:11" ht="18" customHeight="1">
-      <c r="B10" s="39"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="14" t="s">
+      <c r="B10" s="26"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="31" t="s">
         <v>39</v>
       </c>
       <c r="G10" s="12"/>
@@ -5305,14 +5657,14 @@
       <c r="J10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="K10" s="27"/>
+      <c r="K10" s="38"/>
     </row>
     <row r="11" spans="2:11" ht="18" customHeight="1">
-      <c r="B11" s="40"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="14"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="31"/>
       <c r="G11" s="12"/>
       <c r="H11" s="12">
         <v>1</v>
@@ -5323,18 +5675,18 @@
       <c r="J11" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="K11" s="27"/>
+      <c r="K11" s="38"/>
     </row>
     <row r="12" spans="2:11" ht="18" customHeight="1">
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="28" t="s">
         <v>1384</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16" t="s">
+      <c r="C12" s="31"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33" t="s">
         <v>1374</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="31" t="s">
         <v>22</v>
       </c>
       <c r="G12" s="12"/>
@@ -5347,16 +5699,16 @@
       <c r="J12" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="K12" s="28" t="s">
+      <c r="K12" s="21" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="13" spans="2:11" ht="18" customHeight="1">
-      <c r="B13" s="37"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="14"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="31"/>
       <c r="G13" s="12"/>
       <c r="H13" s="12">
         <v>1</v>
@@ -5367,16 +5719,16 @@
       <c r="J13" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="K13" s="29" t="s">
+      <c r="K13" s="22" t="s">
         <v>1372</v>
       </c>
     </row>
     <row r="14" spans="2:11" ht="18" customHeight="1">
-      <c r="B14" s="36"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="14"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="31"/>
       <c r="G14" s="12"/>
       <c r="H14" s="12">
         <v>1</v>
@@ -5387,22 +5739,22 @@
       <c r="J14" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="K14" s="28" t="s">
+      <c r="K14" s="21" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="15" spans="2:11" ht="18" customHeight="1">
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="20" t="s">
         <v>1389</v>
       </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14" t="s">
+      <c r="C15" s="31"/>
+      <c r="D15" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="17" t="s">
+      <c r="E15" s="34" t="s">
         <v>1373</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="F15" s="35" t="s">
         <v>1378</v>
       </c>
       <c r="G15" s="12"/>
@@ -5415,18 +5767,18 @@
       <c r="J15" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="K15" s="28" t="s">
+      <c r="K15" s="21" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="16" spans="2:11" ht="18" customHeight="1">
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="28" t="s">
         <v>1390</v>
       </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="14"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="31"/>
       <c r="G16" s="12"/>
       <c r="H16" s="12">
         <v>1</v>
@@ -5437,16 +5789,16 @@
       <c r="J16" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K16" s="27" t="s">
+      <c r="K16" s="38" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="17" spans="2:11" ht="18" customHeight="1">
-      <c r="B17" s="36"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="14"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="31"/>
       <c r="G17" s="12"/>
       <c r="H17" s="12">
         <v>1</v>
@@ -5457,23 +5809,23 @@
       <c r="J17" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="K17" s="27"/>
+      <c r="K17" s="38"/>
     </row>
     <row r="18" spans="2:11" ht="18" customHeight="1">
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="28" t="s">
         <v>1386</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="15" t="s">
+      <c r="D18" s="31"/>
+      <c r="E18" s="35" t="s">
         <v>1381</v>
       </c>
-      <c r="F18" s="15" t="s">
+      <c r="F18" s="35" t="s">
         <v>1379</v>
       </c>
-      <c r="G18" s="14" t="s">
+      <c r="G18" s="31" t="s">
         <v>1371</v>
       </c>
       <c r="H18" s="12">
@@ -5485,17 +5837,17 @@
       <c r="J18" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="K18" s="30" t="s">
+      <c r="K18" s="37" t="s">
         <v>1380</v>
       </c>
     </row>
     <row r="19" spans="2:11" ht="18" customHeight="1">
-      <c r="B19" s="36"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
       <c r="H19" s="12">
         <v>1</v>
       </c>
@@ -5505,17 +5857,17 @@
       <c r="J19" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="K19" s="30"/>
+      <c r="K19" s="37"/>
     </row>
     <row r="20" spans="2:11" ht="18" customHeight="1">
-      <c r="B20" s="35" t="s">
+      <c r="B20" s="28" t="s">
         <v>1387</v>
       </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
       <c r="H20" s="12">
         <v>1</v>
       </c>
@@ -5525,15 +5877,15 @@
       <c r="J20" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="K20" s="30"/>
+      <c r="K20" s="37"/>
     </row>
     <row r="21" spans="2:11" ht="18" customHeight="1">
-      <c r="B21" s="36"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
       <c r="H21" s="12">
         <v>1</v>
       </c>
@@ -5543,21 +5895,21 @@
       <c r="J21" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="K21" s="30"/>
+      <c r="K21" s="37"/>
     </row>
     <row r="22" spans="2:11" ht="18" customHeight="1">
-      <c r="B22" s="35" t="s">
+      <c r="B22" s="28" t="s">
         <v>1388</v>
       </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="15" t="s">
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="35" t="s">
         <v>1382</v>
       </c>
-      <c r="F22" s="14" t="s">
+      <c r="F22" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="G22" s="14" t="s">
+      <c r="G22" s="31" t="s">
         <v>1368</v>
       </c>
       <c r="H22" s="12">
@@ -5569,17 +5921,17 @@
       <c r="J22" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="K22" s="30" t="s">
+      <c r="K22" s="37" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="23" spans="2:11" ht="18" customHeight="1">
-      <c r="B23" s="36"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
       <c r="H23" s="12">
         <v>1</v>
       </c>
@@ -5589,10 +5941,10 @@
       <c r="J23" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="K23" s="30"/>
+      <c r="K23" s="37"/>
     </row>
     <row r="24" spans="2:11" ht="18" customHeight="1" thickBot="1">
-      <c r="B24" s="31" t="s">
+      <c r="B24" s="23" t="s">
         <v>1391</v>
       </c>
       <c r="C24" s="32"/>
@@ -5600,25 +5952,31 @@
       <c r="E24" s="32"/>
       <c r="F24" s="32"/>
       <c r="G24" s="32"/>
-      <c r="H24" s="33">
+      <c r="H24" s="24">
         <v>1</v>
       </c>
-      <c r="I24" s="33">
+      <c r="I24" s="24">
         <v>24</v>
       </c>
-      <c r="J24" s="33" t="s">
+      <c r="J24" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="K24" s="34"/>
+      <c r="K24" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="B3:B11"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="K3:K5"/>
+    <mergeCell ref="K18:K21"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="K22:K24"/>
+    <mergeCell ref="D15:D24"/>
+    <mergeCell ref="G22:G24"/>
+    <mergeCell ref="G18:G21"/>
+    <mergeCell ref="E18:E21"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="E6:E11"/>
+    <mergeCell ref="K6:K11"/>
     <mergeCell ref="C18:C24"/>
     <mergeCell ref="F22:F24"/>
     <mergeCell ref="F12:F14"/>
@@ -5633,18 +5991,12 @@
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="F10:F11"/>
-    <mergeCell ref="K3:K5"/>
-    <mergeCell ref="K18:K21"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="K22:K24"/>
-    <mergeCell ref="D15:D24"/>
-    <mergeCell ref="G22:G24"/>
-    <mergeCell ref="G18:G21"/>
-    <mergeCell ref="E18:E21"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="E6:E11"/>
-    <mergeCell ref="K6:K11"/>
+    <mergeCell ref="B3:B11"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B12:B14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5657,7 +6009,7 @@
   <dimension ref="B2:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1"/>
@@ -5671,23 +6023,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="18"/>
+      <c r="D2" s="40"/>
       <c r="E2" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="18"/>
+      <c r="G2" s="40"/>
     </row>
     <row r="3" spans="2:7" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="B3" s="18"/>
+      <c r="B3" s="40"/>
       <c r="C3" s="5" t="s">
         <v>46</v>
       </c>
@@ -5814,8 +6166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E397"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:C17"/>
+    <sheetView topLeftCell="A144" workbookViewId="0">
+      <selection activeCell="E167" sqref="E167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1"/>
@@ -5835,10 +6187,10 @@
       <c r="C2" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="18"/>
+      <c r="E2" s="40"/>
     </row>
     <row r="3" spans="2:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="B3" s="5" t="s">
@@ -5847,16 +6199,16 @@
       <c r="C3" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="E3" s="18"/>
+      <c r="E3" s="40"/>
     </row>
     <row r="4" spans="2:5" ht="18" customHeight="1">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="31" t="s">
         <v>83</v>
       </c>
       <c r="D4" s="6">
@@ -5867,8 +6219,8 @@
       </c>
     </row>
     <row r="5" spans="2:5" ht="18" customHeight="1">
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
       <c r="D5" s="6">
         <v>10102</v>
       </c>
@@ -5877,8 +6229,8 @@
       </c>
     </row>
     <row r="6" spans="2:5" ht="18" customHeight="1">
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
       <c r="D6" s="6">
         <v>10103</v>
       </c>
@@ -5887,8 +6239,8 @@
       </c>
     </row>
     <row r="7" spans="2:5" ht="18" customHeight="1">
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
       <c r="D7" s="6">
         <v>10104</v>
       </c>
@@ -5897,8 +6249,8 @@
       </c>
     </row>
     <row r="8" spans="2:5" ht="18" customHeight="1">
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
       <c r="D8" s="6">
         <v>10105</v>
       </c>
@@ -5907,8 +6259,8 @@
       </c>
     </row>
     <row r="9" spans="2:5" ht="18" customHeight="1">
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
       <c r="D9" s="6">
         <v>10106</v>
       </c>
@@ -5917,8 +6269,8 @@
       </c>
     </row>
     <row r="10" spans="2:5" ht="18" customHeight="1">
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
       <c r="D10" s="6">
         <v>10107</v>
       </c>
@@ -5927,8 +6279,8 @@
       </c>
     </row>
     <row r="11" spans="2:5" ht="18" customHeight="1">
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
       <c r="D11" s="6">
         <v>10108</v>
       </c>
@@ -5937,10 +6289,10 @@
       </c>
     </row>
     <row r="12" spans="2:5" ht="18" customHeight="1">
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="31" t="s">
         <v>93</v>
       </c>
       <c r="D12" s="6">
@@ -5951,8 +6303,8 @@
       </c>
     </row>
     <row r="13" spans="2:5" ht="18" customHeight="1">
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
       <c r="D13" s="6">
         <v>20102</v>
       </c>
@@ -5961,8 +6313,8 @@
       </c>
     </row>
     <row r="14" spans="2:5" ht="18" customHeight="1">
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
       <c r="D14" s="6">
         <v>20103</v>
       </c>
@@ -5971,8 +6323,8 @@
       </c>
     </row>
     <row r="15" spans="2:5" ht="18" customHeight="1">
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
       <c r="D15" s="6">
         <v>20104</v>
       </c>
@@ -5981,8 +6333,8 @@
       </c>
     </row>
     <row r="16" spans="2:5" ht="18" customHeight="1">
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
       <c r="D16" s="6">
         <v>20105</v>
       </c>
@@ -5991,8 +6343,8 @@
       </c>
     </row>
     <row r="17" spans="2:5" ht="18" customHeight="1">
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
       <c r="D17" s="6">
         <v>20106</v>
       </c>
@@ -6001,8 +6353,8 @@
       </c>
     </row>
     <row r="18" spans="2:5" ht="18" customHeight="1">
-      <c r="B18" s="14"/>
-      <c r="C18" s="14" t="s">
+      <c r="B18" s="31"/>
+      <c r="C18" s="31" t="s">
         <v>100</v>
       </c>
       <c r="D18" s="6">
@@ -6013,8 +6365,8 @@
       </c>
     </row>
     <row r="19" spans="2:5" ht="18" customHeight="1">
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
       <c r="D19" s="6">
         <v>20202</v>
       </c>
@@ -6023,8 +6375,8 @@
       </c>
     </row>
     <row r="20" spans="2:5" ht="18" customHeight="1">
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
       <c r="D20" s="6">
         <v>20203</v>
       </c>
@@ -6033,8 +6385,8 @@
       </c>
     </row>
     <row r="21" spans="2:5" ht="18" customHeight="1">
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
       <c r="D21" s="6">
         <v>20204</v>
       </c>
@@ -6043,8 +6395,8 @@
       </c>
     </row>
     <row r="22" spans="2:5" ht="18" customHeight="1">
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
       <c r="D22" s="6">
         <v>20205</v>
       </c>
@@ -6053,8 +6405,8 @@
       </c>
     </row>
     <row r="23" spans="2:5" ht="18" customHeight="1">
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
       <c r="D23" s="6">
         <v>20206</v>
       </c>
@@ -6063,8 +6415,8 @@
       </c>
     </row>
     <row r="24" spans="2:5" ht="18" customHeight="1">
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
       <c r="D24" s="6">
         <v>20207</v>
       </c>
@@ -6073,8 +6425,8 @@
       </c>
     </row>
     <row r="25" spans="2:5" ht="18" customHeight="1">
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
       <c r="D25" s="6">
         <v>20208</v>
       </c>
@@ -6083,8 +6435,8 @@
       </c>
     </row>
     <row r="26" spans="2:5" ht="18" customHeight="1">
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="31"/>
       <c r="D26" s="6">
         <v>20209</v>
       </c>
@@ -6093,8 +6445,8 @@
       </c>
     </row>
     <row r="27" spans="2:5" ht="18" customHeight="1">
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="31"/>
       <c r="D27" s="6">
         <v>20210</v>
       </c>
@@ -6103,10 +6455,10 @@
       </c>
     </row>
     <row r="28" spans="2:5" ht="18" customHeight="1">
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C28" s="31" t="s">
         <v>112</v>
       </c>
       <c r="D28" s="6">
@@ -6117,8 +6469,8 @@
       </c>
     </row>
     <row r="29" spans="2:5" ht="18" customHeight="1">
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="31"/>
       <c r="D29" s="6">
         <v>30102</v>
       </c>
@@ -6127,8 +6479,8 @@
       </c>
     </row>
     <row r="30" spans="2:5" ht="18" customHeight="1">
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
       <c r="D30" s="6">
         <v>30103</v>
       </c>
@@ -6137,8 +6489,8 @@
       </c>
     </row>
     <row r="31" spans="2:5" ht="18" customHeight="1">
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="31"/>
       <c r="D31" s="6">
         <v>30104</v>
       </c>
@@ -6147,8 +6499,8 @@
       </c>
     </row>
     <row r="32" spans="2:5" ht="18" customHeight="1">
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="31"/>
       <c r="D32" s="6">
         <v>30105</v>
       </c>
@@ -6157,8 +6509,8 @@
       </c>
     </row>
     <row r="33" spans="2:5" ht="18" customHeight="1">
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="31"/>
       <c r="D33" s="6">
         <v>30106</v>
       </c>
@@ -6167,8 +6519,8 @@
       </c>
     </row>
     <row r="34" spans="2:5" ht="18" customHeight="1">
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="31"/>
       <c r="D34" s="6">
         <v>30107</v>
       </c>
@@ -6177,8 +6529,8 @@
       </c>
     </row>
     <row r="35" spans="2:5" ht="18" customHeight="1">
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="31"/>
       <c r="D35" s="6">
         <v>30108</v>
       </c>
@@ -6187,8 +6539,8 @@
       </c>
     </row>
     <row r="36" spans="2:5" ht="18" customHeight="1">
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
       <c r="D36" s="6">
         <v>30109</v>
       </c>
@@ -6197,8 +6549,8 @@
       </c>
     </row>
     <row r="37" spans="2:5" ht="18" customHeight="1">
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
+      <c r="B37" s="31"/>
+      <c r="C37" s="31"/>
       <c r="D37" s="6">
         <v>30110</v>
       </c>
@@ -6207,8 +6559,8 @@
       </c>
     </row>
     <row r="38" spans="2:5" ht="18" customHeight="1">
-      <c r="B38" s="14"/>
-      <c r="C38" s="14" t="s">
+      <c r="B38" s="31"/>
+      <c r="C38" s="31" t="s">
         <v>123</v>
       </c>
       <c r="D38" s="6">
@@ -6219,8 +6571,8 @@
       </c>
     </row>
     <row r="39" spans="2:5" ht="18" customHeight="1">
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
+      <c r="B39" s="31"/>
+      <c r="C39" s="31"/>
       <c r="D39" s="6">
         <v>30202</v>
       </c>
@@ -6229,8 +6581,8 @@
       </c>
     </row>
     <row r="40" spans="2:5" ht="18" customHeight="1">
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
+      <c r="B40" s="31"/>
+      <c r="C40" s="31"/>
       <c r="D40" s="6">
         <v>30203</v>
       </c>
@@ -6239,8 +6591,8 @@
       </c>
     </row>
     <row r="41" spans="2:5" ht="18" customHeight="1">
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
+      <c r="B41" s="31"/>
+      <c r="C41" s="31"/>
       <c r="D41" s="6">
         <v>30204</v>
       </c>
@@ -6249,8 +6601,8 @@
       </c>
     </row>
     <row r="42" spans="2:5" ht="18" customHeight="1">
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
+      <c r="B42" s="31"/>
+      <c r="C42" s="31"/>
       <c r="D42" s="6">
         <v>30206</v>
       </c>
@@ -6259,8 +6611,8 @@
       </c>
     </row>
     <row r="43" spans="2:5" ht="18" customHeight="1">
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
+      <c r="B43" s="31"/>
+      <c r="C43" s="31"/>
       <c r="D43" s="6">
         <v>30207</v>
       </c>
@@ -6269,8 +6621,8 @@
       </c>
     </row>
     <row r="44" spans="2:5" ht="18" customHeight="1">
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
+      <c r="B44" s="31"/>
+      <c r="C44" s="31"/>
       <c r="D44" s="6">
         <v>30208</v>
       </c>
@@ -6279,8 +6631,8 @@
       </c>
     </row>
     <row r="45" spans="2:5" ht="18" customHeight="1">
-      <c r="B45" s="14"/>
-      <c r="C45" s="14" t="s">
+      <c r="B45" s="31"/>
+      <c r="C45" s="31" t="s">
         <v>131</v>
       </c>
       <c r="D45" s="6">
@@ -6291,8 +6643,8 @@
       </c>
     </row>
     <row r="46" spans="2:5" ht="18" customHeight="1">
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
+      <c r="B46" s="31"/>
+      <c r="C46" s="31"/>
       <c r="D46" s="6">
         <v>30302</v>
       </c>
@@ -6301,8 +6653,8 @@
       </c>
     </row>
     <row r="47" spans="2:5" ht="18" customHeight="1">
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
+      <c r="B47" s="31"/>
+      <c r="C47" s="31"/>
       <c r="D47" s="6">
         <v>30303</v>
       </c>
@@ -6311,8 +6663,8 @@
       </c>
     </row>
     <row r="48" spans="2:5" ht="18" customHeight="1">
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
+      <c r="B48" s="31"/>
+      <c r="C48" s="31"/>
       <c r="D48" s="6">
         <v>30304</v>
       </c>
@@ -6321,8 +6673,8 @@
       </c>
     </row>
     <row r="49" spans="2:5" ht="18" customHeight="1">
-      <c r="B49" s="14"/>
-      <c r="C49" s="14" t="s">
+      <c r="B49" s="31"/>
+      <c r="C49" s="31" t="s">
         <v>136</v>
       </c>
       <c r="D49" s="6">
@@ -6333,8 +6685,8 @@
       </c>
     </row>
     <row r="50" spans="2:5" ht="18" customHeight="1">
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
+      <c r="B50" s="31"/>
+      <c r="C50" s="31"/>
       <c r="D50" s="6">
         <v>30402</v>
       </c>
@@ -6343,8 +6695,8 @@
       </c>
     </row>
     <row r="51" spans="2:5" ht="18" customHeight="1">
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
+      <c r="B51" s="31"/>
+      <c r="C51" s="31"/>
       <c r="D51" s="6">
         <v>30403</v>
       </c>
@@ -6353,8 +6705,8 @@
       </c>
     </row>
     <row r="52" spans="2:5" ht="18" customHeight="1">
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
+      <c r="B52" s="31"/>
+      <c r="C52" s="31"/>
       <c r="D52" s="6">
         <v>30404</v>
       </c>
@@ -6363,8 +6715,8 @@
       </c>
     </row>
     <row r="53" spans="2:5" ht="18" customHeight="1">
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
+      <c r="B53" s="31"/>
+      <c r="C53" s="31"/>
       <c r="D53" s="6">
         <v>30405</v>
       </c>
@@ -6373,8 +6725,8 @@
       </c>
     </row>
     <row r="54" spans="2:5" ht="18" customHeight="1">
-      <c r="B54" s="14"/>
-      <c r="C54" s="14" t="s">
+      <c r="B54" s="31"/>
+      <c r="C54" s="31" t="s">
         <v>142</v>
       </c>
       <c r="D54" s="6">
@@ -6385,8 +6737,8 @@
       </c>
     </row>
     <row r="55" spans="2:5" ht="18" customHeight="1">
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
+      <c r="B55" s="31"/>
+      <c r="C55" s="31"/>
       <c r="D55" s="6">
         <v>30502</v>
       </c>
@@ -6395,8 +6747,8 @@
       </c>
     </row>
     <row r="56" spans="2:5" ht="18" customHeight="1">
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
+      <c r="B56" s="31"/>
+      <c r="C56" s="31"/>
       <c r="D56" s="6">
         <v>30503</v>
       </c>
@@ -6405,8 +6757,8 @@
       </c>
     </row>
     <row r="57" spans="2:5" ht="18" customHeight="1">
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
+      <c r="B57" s="31"/>
+      <c r="C57" s="31"/>
       <c r="D57" s="6">
         <v>30504</v>
       </c>
@@ -6415,8 +6767,8 @@
       </c>
     </row>
     <row r="58" spans="2:5" ht="18" customHeight="1">
-      <c r="B58" s="14"/>
-      <c r="C58" s="14"/>
+      <c r="B58" s="31"/>
+      <c r="C58" s="31"/>
       <c r="D58" s="6">
         <v>30505</v>
       </c>
@@ -6425,10 +6777,10 @@
       </c>
     </row>
     <row r="59" spans="2:5" ht="18" customHeight="1">
-      <c r="B59" s="14" t="s">
+      <c r="B59" s="31" t="s">
         <v>148</v>
       </c>
-      <c r="C59" s="14" t="s">
+      <c r="C59" s="31" t="s">
         <v>149</v>
       </c>
       <c r="D59" s="6">
@@ -6439,8 +6791,8 @@
       </c>
     </row>
     <row r="60" spans="2:5" ht="18" customHeight="1">
-      <c r="B60" s="14"/>
-      <c r="C60" s="14"/>
+      <c r="B60" s="31"/>
+      <c r="C60" s="31"/>
       <c r="D60" s="6">
         <v>40102</v>
       </c>
@@ -6449,8 +6801,8 @@
       </c>
     </row>
     <row r="61" spans="2:5" ht="18" customHeight="1">
-      <c r="B61" s="14"/>
-      <c r="C61" s="14"/>
+      <c r="B61" s="31"/>
+      <c r="C61" s="31"/>
       <c r="D61" s="6">
         <v>40103</v>
       </c>
@@ -6459,8 +6811,8 @@
       </c>
     </row>
     <row r="62" spans="2:5" ht="18" customHeight="1">
-      <c r="B62" s="14"/>
-      <c r="C62" s="14"/>
+      <c r="B62" s="31"/>
+      <c r="C62" s="31"/>
       <c r="D62" s="6">
         <v>40104</v>
       </c>
@@ -6469,8 +6821,8 @@
       </c>
     </row>
     <row r="63" spans="2:5" ht="18" customHeight="1">
-      <c r="B63" s="14"/>
-      <c r="C63" s="14"/>
+      <c r="B63" s="31"/>
+      <c r="C63" s="31"/>
       <c r="D63" s="6">
         <v>40105</v>
       </c>
@@ -6479,8 +6831,8 @@
       </c>
     </row>
     <row r="64" spans="2:5" ht="18" customHeight="1">
-      <c r="B64" s="14"/>
-      <c r="C64" s="14"/>
+      <c r="B64" s="31"/>
+      <c r="C64" s="31"/>
       <c r="D64" s="6">
         <v>40106</v>
       </c>
@@ -6489,8 +6841,8 @@
       </c>
     </row>
     <row r="65" spans="2:5" ht="18" customHeight="1">
-      <c r="B65" s="14"/>
-      <c r="C65" s="14"/>
+      <c r="B65" s="31"/>
+      <c r="C65" s="31"/>
       <c r="D65" s="6">
         <v>40107</v>
       </c>
@@ -6499,8 +6851,8 @@
       </c>
     </row>
     <row r="66" spans="2:5" ht="18" customHeight="1">
-      <c r="B66" s="14"/>
-      <c r="C66" s="14"/>
+      <c r="B66" s="31"/>
+      <c r="C66" s="31"/>
       <c r="D66" s="6">
         <v>40108</v>
       </c>
@@ -6509,8 +6861,8 @@
       </c>
     </row>
     <row r="67" spans="2:5" ht="18" customHeight="1">
-      <c r="B67" s="14"/>
-      <c r="C67" s="14"/>
+      <c r="B67" s="31"/>
+      <c r="C67" s="31"/>
       <c r="D67" s="6">
         <v>40109</v>
       </c>
@@ -6519,8 +6871,8 @@
       </c>
     </row>
     <row r="68" spans="2:5" ht="18" customHeight="1">
-      <c r="B68" s="14"/>
-      <c r="C68" s="14"/>
+      <c r="B68" s="31"/>
+      <c r="C68" s="31"/>
       <c r="D68" s="6">
         <v>40110</v>
       </c>
@@ -6529,8 +6881,8 @@
       </c>
     </row>
     <row r="69" spans="2:5" ht="31.5" customHeight="1">
-      <c r="B69" s="14"/>
-      <c r="C69" s="14" t="s">
+      <c r="B69" s="31"/>
+      <c r="C69" s="31" t="s">
         <v>160</v>
       </c>
       <c r="D69" s="6">
@@ -6541,8 +6893,8 @@
       </c>
     </row>
     <row r="70" spans="2:5" ht="18" customHeight="1">
-      <c r="B70" s="14"/>
-      <c r="C70" s="14"/>
+      <c r="B70" s="31"/>
+      <c r="C70" s="31"/>
       <c r="D70" s="6">
         <v>40202</v>
       </c>
@@ -6551,8 +6903,8 @@
       </c>
     </row>
     <row r="71" spans="2:5" ht="18" customHeight="1">
-      <c r="B71" s="14"/>
-      <c r="C71" s="14"/>
+      <c r="B71" s="31"/>
+      <c r="C71" s="31"/>
       <c r="D71" s="6">
         <v>40203</v>
       </c>
@@ -6561,8 +6913,8 @@
       </c>
     </row>
     <row r="72" spans="2:5" ht="18" customHeight="1">
-      <c r="B72" s="14"/>
-      <c r="C72" s="14" t="s">
+      <c r="B72" s="31"/>
+      <c r="C72" s="31" t="s">
         <v>164</v>
       </c>
       <c r="D72" s="6">
@@ -6573,8 +6925,8 @@
       </c>
     </row>
     <row r="73" spans="2:5" ht="18" customHeight="1">
-      <c r="B73" s="14"/>
-      <c r="C73" s="14"/>
+      <c r="B73" s="31"/>
+      <c r="C73" s="31"/>
       <c r="D73" s="6">
         <v>40302</v>
       </c>
@@ -6583,8 +6935,8 @@
       </c>
     </row>
     <row r="74" spans="2:5" ht="18" customHeight="1">
-      <c r="B74" s="14"/>
-      <c r="C74" s="14"/>
+      <c r="B74" s="31"/>
+      <c r="C74" s="31"/>
       <c r="D74" s="6">
         <v>40303</v>
       </c>
@@ -6593,8 +6945,8 @@
       </c>
     </row>
     <row r="75" spans="2:5" ht="18" customHeight="1">
-      <c r="B75" s="14"/>
-      <c r="C75" s="14"/>
+      <c r="B75" s="31"/>
+      <c r="C75" s="31"/>
       <c r="D75" s="6">
         <v>40304</v>
       </c>
@@ -6603,10 +6955,10 @@
       </c>
     </row>
     <row r="76" spans="2:5" ht="18" customHeight="1">
-      <c r="B76" s="14" t="s">
+      <c r="B76" s="31" t="s">
         <v>169</v>
       </c>
-      <c r="C76" s="14" t="s">
+      <c r="C76" s="31" t="s">
         <v>170</v>
       </c>
       <c r="D76" s="6">
@@ -6617,8 +6969,8 @@
       </c>
     </row>
     <row r="77" spans="2:5" ht="18" customHeight="1">
-      <c r="B77" s="14"/>
-      <c r="C77" s="14"/>
+      <c r="B77" s="31"/>
+      <c r="C77" s="31"/>
       <c r="D77" s="6">
         <v>50102</v>
       </c>
@@ -6627,8 +6979,8 @@
       </c>
     </row>
     <row r="78" spans="2:5" ht="18" customHeight="1">
-      <c r="B78" s="14"/>
-      <c r="C78" s="14"/>
+      <c r="B78" s="31"/>
+      <c r="C78" s="31"/>
       <c r="D78" s="6">
         <v>50103</v>
       </c>
@@ -6637,8 +6989,8 @@
       </c>
     </row>
     <row r="79" spans="2:5" ht="18" customHeight="1">
-      <c r="B79" s="14"/>
-      <c r="C79" s="14"/>
+      <c r="B79" s="31"/>
+      <c r="C79" s="31"/>
       <c r="D79" s="6">
         <v>50104</v>
       </c>
@@ -6647,8 +6999,8 @@
       </c>
     </row>
     <row r="80" spans="2:5" ht="18" customHeight="1">
-      <c r="B80" s="14"/>
-      <c r="C80" s="14"/>
+      <c r="B80" s="31"/>
+      <c r="C80" s="31"/>
       <c r="D80" s="6">
         <v>50105</v>
       </c>
@@ -6657,8 +7009,8 @@
       </c>
     </row>
     <row r="81" spans="2:5" ht="18" customHeight="1">
-      <c r="B81" s="14"/>
-      <c r="C81" s="14"/>
+      <c r="B81" s="31"/>
+      <c r="C81" s="31"/>
       <c r="D81" s="6">
         <v>50106</v>
       </c>
@@ -6667,8 +7019,8 @@
       </c>
     </row>
     <row r="82" spans="2:5" ht="18" customHeight="1">
-      <c r="B82" s="14"/>
-      <c r="C82" s="14"/>
+      <c r="B82" s="31"/>
+      <c r="C82" s="31"/>
       <c r="D82" s="6">
         <v>50107</v>
       </c>
@@ -6677,8 +7029,8 @@
       </c>
     </row>
     <row r="83" spans="2:5" ht="18" customHeight="1">
-      <c r="B83" s="14"/>
-      <c r="C83" s="14"/>
+      <c r="B83" s="31"/>
+      <c r="C83" s="31"/>
       <c r="D83" s="6">
         <v>50108</v>
       </c>
@@ -6687,8 +7039,8 @@
       </c>
     </row>
     <row r="84" spans="2:5" ht="18" customHeight="1">
-      <c r="B84" s="14"/>
-      <c r="C84" s="14" t="s">
+      <c r="B84" s="31"/>
+      <c r="C84" s="31" t="s">
         <v>179</v>
       </c>
       <c r="D84" s="6">
@@ -6699,8 +7051,8 @@
       </c>
     </row>
     <row r="85" spans="2:5" ht="18" customHeight="1">
-      <c r="B85" s="14"/>
-      <c r="C85" s="14"/>
+      <c r="B85" s="31"/>
+      <c r="C85" s="31"/>
       <c r="D85" s="6">
         <v>50202</v>
       </c>
@@ -6709,8 +7061,8 @@
       </c>
     </row>
     <row r="86" spans="2:5" ht="18" customHeight="1">
-      <c r="B86" s="14"/>
-      <c r="C86" s="14"/>
+      <c r="B86" s="31"/>
+      <c r="C86" s="31"/>
       <c r="D86" s="6">
         <v>50203</v>
       </c>
@@ -6719,8 +7071,8 @@
       </c>
     </row>
     <row r="87" spans="2:5" ht="18" customHeight="1">
-      <c r="B87" s="14"/>
-      <c r="C87" s="14"/>
+      <c r="B87" s="31"/>
+      <c r="C87" s="31"/>
       <c r="D87" s="6">
         <v>50204</v>
       </c>
@@ -6729,8 +7081,8 @@
       </c>
     </row>
     <row r="88" spans="2:5" ht="18" customHeight="1">
-      <c r="B88" s="14"/>
-      <c r="C88" s="14"/>
+      <c r="B88" s="31"/>
+      <c r="C88" s="31"/>
       <c r="D88" s="6">
         <v>50205</v>
       </c>
@@ -6739,8 +7091,8 @@
       </c>
     </row>
     <row r="89" spans="2:5" ht="18" customHeight="1">
-      <c r="B89" s="14"/>
-      <c r="C89" s="14"/>
+      <c r="B89" s="31"/>
+      <c r="C89" s="31"/>
       <c r="D89" s="6">
         <v>50206</v>
       </c>
@@ -6749,8 +7101,8 @@
       </c>
     </row>
     <row r="90" spans="2:5" ht="18" customHeight="1">
-      <c r="B90" s="14"/>
-      <c r="C90" s="14"/>
+      <c r="B90" s="31"/>
+      <c r="C90" s="31"/>
       <c r="D90" s="6">
         <v>50207</v>
       </c>
@@ -6759,8 +7111,8 @@
       </c>
     </row>
     <row r="91" spans="2:5" ht="18" customHeight="1">
-      <c r="B91" s="14"/>
-      <c r="C91" s="14"/>
+      <c r="B91" s="31"/>
+      <c r="C91" s="31"/>
       <c r="D91" s="6">
         <v>50208</v>
       </c>
@@ -6769,8 +7121,8 @@
       </c>
     </row>
     <row r="92" spans="2:5" ht="18" customHeight="1">
-      <c r="B92" s="14"/>
-      <c r="C92" s="14"/>
+      <c r="B92" s="31"/>
+      <c r="C92" s="31"/>
       <c r="D92" s="6">
         <v>50209</v>
       </c>
@@ -6779,8 +7131,8 @@
       </c>
     </row>
     <row r="93" spans="2:5" ht="18" customHeight="1">
-      <c r="B93" s="14"/>
-      <c r="C93" s="14"/>
+      <c r="B93" s="31"/>
+      <c r="C93" s="31"/>
       <c r="D93" s="6">
         <v>50210</v>
       </c>
@@ -6789,8 +7141,8 @@
       </c>
     </row>
     <row r="94" spans="2:5" ht="18" customHeight="1">
-      <c r="B94" s="14"/>
-      <c r="C94" s="14"/>
+      <c r="B94" s="31"/>
+      <c r="C94" s="31"/>
       <c r="D94" s="6">
         <v>50211</v>
       </c>
@@ -6799,8 +7151,8 @@
       </c>
     </row>
     <row r="95" spans="2:5" ht="18" customHeight="1">
-      <c r="B95" s="14"/>
-      <c r="C95" s="14" t="s">
+      <c r="B95" s="31"/>
+      <c r="C95" s="31" t="s">
         <v>191</v>
       </c>
       <c r="D95" s="6">
@@ -6811,8 +7163,8 @@
       </c>
     </row>
     <row r="96" spans="2:5" ht="18" customHeight="1">
-      <c r="B96" s="14"/>
-      <c r="C96" s="14"/>
+      <c r="B96" s="31"/>
+      <c r="C96" s="31"/>
       <c r="D96" s="6">
         <v>50302</v>
       </c>
@@ -6821,8 +7173,8 @@
       </c>
     </row>
     <row r="97" spans="2:5" ht="18" customHeight="1">
-      <c r="B97" s="14"/>
-      <c r="C97" s="14" t="s">
+      <c r="B97" s="31"/>
+      <c r="C97" s="31" t="s">
         <v>194</v>
       </c>
       <c r="D97" s="6">
@@ -6833,8 +7185,8 @@
       </c>
     </row>
     <row r="98" spans="2:5" ht="18" customHeight="1">
-      <c r="B98" s="14"/>
-      <c r="C98" s="14"/>
+      <c r="B98" s="31"/>
+      <c r="C98" s="31"/>
       <c r="D98" s="6">
         <v>50402</v>
       </c>
@@ -6843,8 +7195,8 @@
       </c>
     </row>
     <row r="99" spans="2:5" ht="18" customHeight="1">
-      <c r="B99" s="14"/>
-      <c r="C99" s="14"/>
+      <c r="B99" s="31"/>
+      <c r="C99" s="31"/>
       <c r="D99" s="6">
         <v>50403</v>
       </c>
@@ -6853,8 +7205,8 @@
       </c>
     </row>
     <row r="100" spans="2:5" ht="18" customHeight="1">
-      <c r="B100" s="14"/>
-      <c r="C100" s="14"/>
+      <c r="B100" s="31"/>
+      <c r="C100" s="31"/>
       <c r="D100" s="6">
         <v>50404</v>
       </c>
@@ -6863,8 +7215,8 @@
       </c>
     </row>
     <row r="101" spans="2:5" ht="18" customHeight="1">
-      <c r="B101" s="14"/>
-      <c r="C101" s="14"/>
+      <c r="B101" s="31"/>
+      <c r="C101" s="31"/>
       <c r="D101" s="6">
         <v>50405</v>
       </c>
@@ -6873,8 +7225,8 @@
       </c>
     </row>
     <row r="102" spans="2:5" ht="18" customHeight="1">
-      <c r="B102" s="14"/>
-      <c r="C102" s="14"/>
+      <c r="B102" s="31"/>
+      <c r="C102" s="31"/>
       <c r="D102" s="6">
         <v>50406</v>
       </c>
@@ -6883,8 +7235,8 @@
       </c>
     </row>
     <row r="103" spans="2:5" ht="18" customHeight="1">
-      <c r="B103" s="14"/>
-      <c r="C103" s="14"/>
+      <c r="B103" s="31"/>
+      <c r="C103" s="31"/>
       <c r="D103" s="6">
         <v>50407</v>
       </c>
@@ -6893,8 +7245,8 @@
       </c>
     </row>
     <row r="104" spans="2:5" ht="18" customHeight="1">
-      <c r="B104" s="14"/>
-      <c r="C104" s="14"/>
+      <c r="B104" s="31"/>
+      <c r="C104" s="31"/>
       <c r="D104" s="6">
         <v>50408</v>
       </c>
@@ -6903,10 +7255,10 @@
       </c>
     </row>
     <row r="105" spans="2:5" ht="18" customHeight="1">
-      <c r="B105" s="14" t="s">
+      <c r="B105" s="31" t="s">
         <v>203</v>
       </c>
-      <c r="C105" s="14" t="s">
+      <c r="C105" s="31" t="s">
         <v>204</v>
       </c>
       <c r="D105" s="6">
@@ -6917,8 +7269,8 @@
       </c>
     </row>
     <row r="106" spans="2:5" ht="18" customHeight="1">
-      <c r="B106" s="14"/>
-      <c r="C106" s="14"/>
+      <c r="B106" s="31"/>
+      <c r="C106" s="31"/>
       <c r="D106" s="6">
         <v>60102</v>
       </c>
@@ -6927,8 +7279,8 @@
       </c>
     </row>
     <row r="107" spans="2:5" ht="18" customHeight="1">
-      <c r="B107" s="14"/>
-      <c r="C107" s="14"/>
+      <c r="B107" s="31"/>
+      <c r="C107" s="31"/>
       <c r="D107" s="6">
         <v>60103</v>
       </c>
@@ -6937,8 +7289,8 @@
       </c>
     </row>
     <row r="108" spans="2:5" ht="18" customHeight="1">
-      <c r="B108" s="14"/>
-      <c r="C108" s="14"/>
+      <c r="B108" s="31"/>
+      <c r="C108" s="31"/>
       <c r="D108" s="6">
         <v>60104</v>
       </c>
@@ -6947,8 +7299,8 @@
       </c>
     </row>
     <row r="109" spans="2:5" ht="18" customHeight="1">
-      <c r="B109" s="14"/>
-      <c r="C109" s="14"/>
+      <c r="B109" s="31"/>
+      <c r="C109" s="31"/>
       <c r="D109" s="6">
         <v>60105</v>
       </c>
@@ -6957,8 +7309,8 @@
       </c>
     </row>
     <row r="110" spans="2:5" ht="18" customHeight="1">
-      <c r="B110" s="14"/>
-      <c r="C110" s="14"/>
+      <c r="B110" s="31"/>
+      <c r="C110" s="31"/>
       <c r="D110" s="6">
         <v>60106</v>
       </c>
@@ -6967,8 +7319,8 @@
       </c>
     </row>
     <row r="111" spans="2:5" ht="18" customHeight="1">
-      <c r="B111" s="14"/>
-      <c r="C111" s="14"/>
+      <c r="B111" s="31"/>
+      <c r="C111" s="31"/>
       <c r="D111" s="6">
         <v>60107</v>
       </c>
@@ -6977,8 +7329,8 @@
       </c>
     </row>
     <row r="112" spans="2:5" ht="18" customHeight="1">
-      <c r="B112" s="14"/>
-      <c r="C112" s="14"/>
+      <c r="B112" s="31"/>
+      <c r="C112" s="31"/>
       <c r="D112" s="6">
         <v>60108</v>
       </c>
@@ -6987,10 +7339,10 @@
       </c>
     </row>
     <row r="113" spans="2:5" ht="18" customHeight="1">
-      <c r="B113" s="14" t="s">
+      <c r="B113" s="31" t="s">
         <v>213</v>
       </c>
-      <c r="C113" s="14" t="s">
+      <c r="C113" s="31" t="s">
         <v>214</v>
       </c>
       <c r="D113" s="6">
@@ -7001,8 +7353,8 @@
       </c>
     </row>
     <row r="114" spans="2:5" ht="18" customHeight="1">
-      <c r="B114" s="14"/>
-      <c r="C114" s="14"/>
+      <c r="B114" s="31"/>
+      <c r="C114" s="31"/>
       <c r="D114" s="6">
         <v>70102</v>
       </c>
@@ -7011,8 +7363,8 @@
       </c>
     </row>
     <row r="115" spans="2:5" ht="18" customHeight="1">
-      <c r="B115" s="14"/>
-      <c r="C115" s="14"/>
+      <c r="B115" s="31"/>
+      <c r="C115" s="31"/>
       <c r="D115" s="6">
         <v>70103</v>
       </c>
@@ -7021,8 +7373,8 @@
       </c>
     </row>
     <row r="116" spans="2:5" ht="18" customHeight="1">
-      <c r="B116" s="14"/>
-      <c r="C116" s="14"/>
+      <c r="B116" s="31"/>
+      <c r="C116" s="31"/>
       <c r="D116" s="6">
         <v>70104</v>
       </c>
@@ -7031,8 +7383,8 @@
       </c>
     </row>
     <row r="117" spans="2:5" ht="18" customHeight="1">
-      <c r="B117" s="14"/>
-      <c r="C117" s="14"/>
+      <c r="B117" s="31"/>
+      <c r="C117" s="31"/>
       <c r="D117" s="6">
         <v>70105</v>
       </c>
@@ -7041,8 +7393,8 @@
       </c>
     </row>
     <row r="118" spans="2:5" ht="18" customHeight="1">
-      <c r="B118" s="14"/>
-      <c r="C118" s="14" t="s">
+      <c r="B118" s="31"/>
+      <c r="C118" s="31" t="s">
         <v>220</v>
       </c>
       <c r="D118" s="6">
@@ -7053,8 +7405,8 @@
       </c>
     </row>
     <row r="119" spans="2:5" ht="18" customHeight="1">
-      <c r="B119" s="14"/>
-      <c r="C119" s="14"/>
+      <c r="B119" s="31"/>
+      <c r="C119" s="31"/>
       <c r="D119" s="6">
         <v>70202</v>
       </c>
@@ -7063,8 +7415,8 @@
       </c>
     </row>
     <row r="120" spans="2:5" ht="18" customHeight="1">
-      <c r="B120" s="14"/>
-      <c r="C120" s="14"/>
+      <c r="B120" s="31"/>
+      <c r="C120" s="31"/>
       <c r="D120" s="6">
         <v>70203</v>
       </c>
@@ -7073,8 +7425,8 @@
       </c>
     </row>
     <row r="121" spans="2:5" ht="18" customHeight="1">
-      <c r="B121" s="14"/>
-      <c r="C121" s="14"/>
+      <c r="B121" s="31"/>
+      <c r="C121" s="31"/>
       <c r="D121" s="6">
         <v>70204</v>
       </c>
@@ -7083,8 +7435,8 @@
       </c>
     </row>
     <row r="122" spans="2:5" ht="18" customHeight="1">
-      <c r="B122" s="14"/>
-      <c r="C122" s="14"/>
+      <c r="B122" s="31"/>
+      <c r="C122" s="31"/>
       <c r="D122" s="6">
         <v>70205</v>
       </c>
@@ -7093,8 +7445,8 @@
       </c>
     </row>
     <row r="123" spans="2:5" ht="18" customHeight="1">
-      <c r="B123" s="14"/>
-      <c r="C123" s="14"/>
+      <c r="B123" s="31"/>
+      <c r="C123" s="31"/>
       <c r="D123" s="6">
         <v>70206</v>
       </c>
@@ -7103,8 +7455,8 @@
       </c>
     </row>
     <row r="124" spans="2:5" ht="18" customHeight="1">
-      <c r="B124" s="14"/>
-      <c r="C124" s="14"/>
+      <c r="B124" s="31"/>
+      <c r="C124" s="31"/>
       <c r="D124" s="6">
         <v>70207</v>
       </c>
@@ -7113,8 +7465,8 @@
       </c>
     </row>
     <row r="125" spans="2:5" ht="18" customHeight="1">
-      <c r="B125" s="14"/>
-      <c r="C125" s="14"/>
+      <c r="B125" s="31"/>
+      <c r="C125" s="31"/>
       <c r="D125" s="6">
         <v>70208</v>
       </c>
@@ -7123,8 +7475,8 @@
       </c>
     </row>
     <row r="126" spans="2:5" ht="18" customHeight="1">
-      <c r="B126" s="14"/>
-      <c r="C126" s="14" t="s">
+      <c r="B126" s="31"/>
+      <c r="C126" s="31" t="s">
         <v>229</v>
       </c>
       <c r="D126" s="6">
@@ -7135,8 +7487,8 @@
       </c>
     </row>
     <row r="127" spans="2:5" ht="18" customHeight="1">
-      <c r="B127" s="14"/>
-      <c r="C127" s="14"/>
+      <c r="B127" s="31"/>
+      <c r="C127" s="31"/>
       <c r="D127" s="6">
         <v>70302</v>
       </c>
@@ -7145,8 +7497,8 @@
       </c>
     </row>
     <row r="128" spans="2:5" ht="18" customHeight="1">
-      <c r="B128" s="14"/>
-      <c r="C128" s="14"/>
+      <c r="B128" s="31"/>
+      <c r="C128" s="31"/>
       <c r="D128" s="6">
         <v>70303</v>
       </c>
@@ -7155,8 +7507,8 @@
       </c>
     </row>
     <row r="129" spans="2:5" ht="18" customHeight="1">
-      <c r="B129" s="14"/>
-      <c r="C129" s="14"/>
+      <c r="B129" s="31"/>
+      <c r="C129" s="31"/>
       <c r="D129" s="6">
         <v>70304</v>
       </c>
@@ -7165,8 +7517,8 @@
       </c>
     </row>
     <row r="130" spans="2:5" ht="18" customHeight="1">
-      <c r="B130" s="14"/>
-      <c r="C130" s="14"/>
+      <c r="B130" s="31"/>
+      <c r="C130" s="31"/>
       <c r="D130" s="6">
         <v>70305</v>
       </c>
@@ -7175,8 +7527,8 @@
       </c>
     </row>
     <row r="131" spans="2:5" ht="18" customHeight="1">
-      <c r="B131" s="14"/>
-      <c r="C131" s="14" t="s">
+      <c r="B131" s="31"/>
+      <c r="C131" s="31" t="s">
         <v>235</v>
       </c>
       <c r="D131" s="6">
@@ -7187,8 +7539,8 @@
       </c>
     </row>
     <row r="132" spans="2:5" ht="18" customHeight="1">
-      <c r="B132" s="14"/>
-      <c r="C132" s="14"/>
+      <c r="B132" s="31"/>
+      <c r="C132" s="31"/>
       <c r="D132" s="6">
         <v>70402</v>
       </c>
@@ -7197,8 +7549,8 @@
       </c>
     </row>
     <row r="133" spans="2:5" ht="18" customHeight="1">
-      <c r="B133" s="14"/>
-      <c r="C133" s="14" t="s">
+      <c r="B133" s="31"/>
+      <c r="C133" s="31" t="s">
         <v>238</v>
       </c>
       <c r="D133" s="6">
@@ -7209,8 +7561,8 @@
       </c>
     </row>
     <row r="134" spans="2:5" ht="18" customHeight="1">
-      <c r="B134" s="14"/>
-      <c r="C134" s="14"/>
+      <c r="B134" s="31"/>
+      <c r="C134" s="31"/>
       <c r="D134" s="6">
         <v>70502</v>
       </c>
@@ -7219,8 +7571,8 @@
       </c>
     </row>
     <row r="135" spans="2:5" ht="18" customHeight="1">
-      <c r="B135" s="14"/>
-      <c r="C135" s="14"/>
+      <c r="B135" s="31"/>
+      <c r="C135" s="31"/>
       <c r="D135" s="6">
         <v>70503</v>
       </c>
@@ -7229,8 +7581,8 @@
       </c>
     </row>
     <row r="136" spans="2:5" ht="18" customHeight="1">
-      <c r="B136" s="14"/>
-      <c r="C136" s="14" t="s">
+      <c r="B136" s="31"/>
+      <c r="C136" s="31" t="s">
         <v>242</v>
       </c>
       <c r="D136" s="6">
@@ -7241,8 +7593,8 @@
       </c>
     </row>
     <row r="137" spans="2:5" ht="18" customHeight="1">
-      <c r="B137" s="14"/>
-      <c r="C137" s="14"/>
+      <c r="B137" s="31"/>
+      <c r="C137" s="31"/>
       <c r="D137" s="6">
         <v>70602</v>
       </c>
@@ -7251,8 +7603,8 @@
       </c>
     </row>
     <row r="138" spans="2:5" ht="18" customHeight="1">
-      <c r="B138" s="14"/>
-      <c r="C138" s="14" t="s">
+      <c r="B138" s="31"/>
+      <c r="C138" s="31" t="s">
         <v>245</v>
       </c>
       <c r="D138" s="6">
@@ -7263,8 +7615,8 @@
       </c>
     </row>
     <row r="139" spans="2:5" ht="18" customHeight="1">
-      <c r="B139" s="14"/>
-      <c r="C139" s="14"/>
+      <c r="B139" s="31"/>
+      <c r="C139" s="31"/>
       <c r="D139" s="6">
         <v>70702</v>
       </c>
@@ -7273,8 +7625,8 @@
       </c>
     </row>
     <row r="140" spans="2:5" ht="18" customHeight="1">
-      <c r="B140" s="14"/>
-      <c r="C140" s="14"/>
+      <c r="B140" s="31"/>
+      <c r="C140" s="31"/>
       <c r="D140" s="6">
         <v>70703</v>
       </c>
@@ -7283,8 +7635,8 @@
       </c>
     </row>
     <row r="141" spans="2:5" ht="18" customHeight="1">
-      <c r="B141" s="14"/>
-      <c r="C141" s="14"/>
+      <c r="B141" s="31"/>
+      <c r="C141" s="31"/>
       <c r="D141" s="6">
         <v>70704</v>
       </c>
@@ -7293,8 +7645,8 @@
       </c>
     </row>
     <row r="142" spans="2:5" ht="18" customHeight="1">
-      <c r="B142" s="14"/>
-      <c r="C142" s="14" t="s">
+      <c r="B142" s="31"/>
+      <c r="C142" s="31" t="s">
         <v>250</v>
       </c>
       <c r="D142" s="6">
@@ -7305,8 +7657,8 @@
       </c>
     </row>
     <row r="143" spans="2:5" ht="18" customHeight="1">
-      <c r="B143" s="14"/>
-      <c r="C143" s="14"/>
+      <c r="B143" s="31"/>
+      <c r="C143" s="31"/>
       <c r="D143" s="6">
         <v>70802</v>
       </c>
@@ -7315,8 +7667,8 @@
       </c>
     </row>
     <row r="144" spans="2:5" ht="18" customHeight="1">
-      <c r="B144" s="14"/>
-      <c r="C144" s="14" t="s">
+      <c r="B144" s="31"/>
+      <c r="C144" s="31" t="s">
         <v>253</v>
       </c>
       <c r="D144" s="6">
@@ -7327,8 +7679,8 @@
       </c>
     </row>
     <row r="145" spans="2:5" ht="18" customHeight="1">
-      <c r="B145" s="14"/>
-      <c r="C145" s="14"/>
+      <c r="B145" s="31"/>
+      <c r="C145" s="31"/>
       <c r="D145" s="6">
         <v>70902</v>
       </c>
@@ -7337,8 +7689,8 @@
       </c>
     </row>
     <row r="146" spans="2:5" ht="18" customHeight="1">
-      <c r="B146" s="14"/>
-      <c r="C146" s="14"/>
+      <c r="B146" s="31"/>
+      <c r="C146" s="31"/>
       <c r="D146" s="6">
         <v>70903</v>
       </c>
@@ -7347,8 +7699,8 @@
       </c>
     </row>
     <row r="147" spans="2:5" ht="18" customHeight="1">
-      <c r="B147" s="14"/>
-      <c r="C147" s="14"/>
+      <c r="B147" s="31"/>
+      <c r="C147" s="31"/>
       <c r="D147" s="6">
         <v>70904</v>
       </c>
@@ -7357,8 +7709,8 @@
       </c>
     </row>
     <row r="148" spans="2:5" ht="18" customHeight="1">
-      <c r="B148" s="14"/>
-      <c r="C148" s="14"/>
+      <c r="B148" s="31"/>
+      <c r="C148" s="31"/>
       <c r="D148" s="6">
         <v>70905</v>
       </c>
@@ -7367,8 +7719,8 @@
       </c>
     </row>
     <row r="149" spans="2:5" ht="18" customHeight="1">
-      <c r="B149" s="14"/>
-      <c r="C149" s="14" t="s">
+      <c r="B149" s="31"/>
+      <c r="C149" s="31" t="s">
         <v>259</v>
       </c>
       <c r="D149" s="6">
@@ -7379,8 +7731,8 @@
       </c>
     </row>
     <row r="150" spans="2:5" ht="18" customHeight="1">
-      <c r="B150" s="14"/>
-      <c r="C150" s="14"/>
+      <c r="B150" s="31"/>
+      <c r="C150" s="31"/>
       <c r="D150" s="6">
         <v>71002</v>
       </c>
@@ -7389,8 +7741,8 @@
       </c>
     </row>
     <row r="151" spans="2:5" ht="18" customHeight="1">
-      <c r="B151" s="14"/>
-      <c r="C151" s="14"/>
+      <c r="B151" s="31"/>
+      <c r="C151" s="31"/>
       <c r="D151" s="6">
         <v>71003</v>
       </c>
@@ -7399,8 +7751,8 @@
       </c>
     </row>
     <row r="152" spans="2:5" ht="18" customHeight="1">
-      <c r="B152" s="14"/>
-      <c r="C152" s="14"/>
+      <c r="B152" s="31"/>
+      <c r="C152" s="31"/>
       <c r="D152" s="6">
         <v>71004</v>
       </c>
@@ -7409,8 +7761,8 @@
       </c>
     </row>
     <row r="153" spans="2:5" ht="18" customHeight="1">
-      <c r="B153" s="14"/>
-      <c r="C153" s="14"/>
+      <c r="B153" s="31"/>
+      <c r="C153" s="31"/>
       <c r="D153" s="6">
         <v>71005</v>
       </c>
@@ -7419,8 +7771,8 @@
       </c>
     </row>
     <row r="154" spans="2:5" ht="18" customHeight="1">
-      <c r="B154" s="14"/>
-      <c r="C154" s="14"/>
+      <c r="B154" s="31"/>
+      <c r="C154" s="31"/>
       <c r="D154" s="6">
         <v>71006</v>
       </c>
@@ -7429,8 +7781,8 @@
       </c>
     </row>
     <row r="155" spans="2:5" ht="18" customHeight="1">
-      <c r="B155" s="14"/>
-      <c r="C155" s="14"/>
+      <c r="B155" s="31"/>
+      <c r="C155" s="31"/>
       <c r="D155" s="6">
         <v>71007</v>
       </c>
@@ -7439,8 +7791,8 @@
       </c>
     </row>
     <row r="156" spans="2:5" ht="18" customHeight="1">
-      <c r="B156" s="14"/>
-      <c r="C156" s="14"/>
+      <c r="B156" s="31"/>
+      <c r="C156" s="31"/>
       <c r="D156" s="6">
         <v>71008</v>
       </c>
@@ -7449,8 +7801,8 @@
       </c>
     </row>
     <row r="157" spans="2:5" ht="18" customHeight="1">
-      <c r="B157" s="14"/>
-      <c r="C157" s="14"/>
+      <c r="B157" s="31"/>
+      <c r="C157" s="31"/>
       <c r="D157" s="6">
         <v>71009</v>
       </c>
@@ -7459,8 +7811,8 @@
       </c>
     </row>
     <row r="158" spans="2:5" ht="18" customHeight="1">
-      <c r="B158" s="14"/>
-      <c r="C158" s="14"/>
+      <c r="B158" s="31"/>
+      <c r="C158" s="31"/>
       <c r="D158" s="6">
         <v>71010</v>
       </c>
@@ -7469,8 +7821,8 @@
       </c>
     </row>
     <row r="159" spans="2:5" ht="18" customHeight="1">
-      <c r="B159" s="14"/>
-      <c r="C159" s="14"/>
+      <c r="B159" s="31"/>
+      <c r="C159" s="31"/>
       <c r="D159" s="6">
         <v>71011</v>
       </c>
@@ -7479,8 +7831,8 @@
       </c>
     </row>
     <row r="160" spans="2:5" ht="18" customHeight="1">
-      <c r="B160" s="14"/>
-      <c r="C160" s="14"/>
+      <c r="B160" s="31"/>
+      <c r="C160" s="31"/>
       <c r="D160" s="6">
         <v>71012</v>
       </c>
@@ -7489,8 +7841,8 @@
       </c>
     </row>
     <row r="161" spans="2:5" ht="18" customHeight="1">
-      <c r="B161" s="14"/>
-      <c r="C161" s="14" t="s">
+      <c r="B161" s="31"/>
+      <c r="C161" s="31" t="s">
         <v>272</v>
       </c>
       <c r="D161" s="6">
@@ -7501,8 +7853,8 @@
       </c>
     </row>
     <row r="162" spans="2:5" ht="18" customHeight="1">
-      <c r="B162" s="14"/>
-      <c r="C162" s="14"/>
+      <c r="B162" s="31"/>
+      <c r="C162" s="31"/>
       <c r="D162" s="6">
         <v>71102</v>
       </c>
@@ -7511,7 +7863,7 @@
       </c>
     </row>
     <row r="163" spans="2:5" ht="18" customHeight="1">
-      <c r="B163" s="14"/>
+      <c r="B163" s="31"/>
       <c r="C163" s="6" t="s">
         <v>275</v>
       </c>
@@ -7523,10 +7875,10 @@
       </c>
     </row>
     <row r="164" spans="2:5" ht="18" customHeight="1">
-      <c r="B164" s="14" t="s">
+      <c r="B164" s="31" t="s">
         <v>277</v>
       </c>
-      <c r="C164" s="14" t="s">
+      <c r="C164" s="31" t="s">
         <v>278</v>
       </c>
       <c r="D164" s="6">
@@ -7537,8 +7889,8 @@
       </c>
     </row>
     <row r="165" spans="2:5" ht="18" customHeight="1">
-      <c r="B165" s="14"/>
-      <c r="C165" s="14"/>
+      <c r="B165" s="31"/>
+      <c r="C165" s="31"/>
       <c r="D165" s="6">
         <v>80102</v>
       </c>
@@ -7547,8 +7899,8 @@
       </c>
     </row>
     <row r="166" spans="2:5" ht="18" customHeight="1">
-      <c r="B166" s="14"/>
-      <c r="C166" s="14"/>
+      <c r="B166" s="31"/>
+      <c r="C166" s="31"/>
       <c r="D166" s="6">
         <v>80103</v>
       </c>
@@ -7557,8 +7909,8 @@
       </c>
     </row>
     <row r="167" spans="2:5" ht="18" customHeight="1">
-      <c r="B167" s="14"/>
-      <c r="C167" s="14"/>
+      <c r="B167" s="31"/>
+      <c r="C167" s="31"/>
       <c r="D167" s="6">
         <v>80104</v>
       </c>
@@ -7567,8 +7919,8 @@
       </c>
     </row>
     <row r="168" spans="2:5" ht="18" customHeight="1">
-      <c r="B168" s="14"/>
-      <c r="C168" s="14" t="s">
+      <c r="B168" s="31"/>
+      <c r="C168" s="31" t="s">
         <v>283</v>
       </c>
       <c r="D168" s="6">
@@ -7579,8 +7931,8 @@
       </c>
     </row>
     <row r="169" spans="2:5" ht="18" customHeight="1">
-      <c r="B169" s="14"/>
-      <c r="C169" s="14"/>
+      <c r="B169" s="31"/>
+      <c r="C169" s="31"/>
       <c r="D169" s="6">
         <v>80202</v>
       </c>
@@ -7589,8 +7941,8 @@
       </c>
     </row>
     <row r="170" spans="2:5" ht="18" customHeight="1">
-      <c r="B170" s="14"/>
-      <c r="C170" s="14"/>
+      <c r="B170" s="31"/>
+      <c r="C170" s="31"/>
       <c r="D170" s="6">
         <v>80203</v>
       </c>
@@ -7599,8 +7951,8 @@
       </c>
     </row>
     <row r="171" spans="2:5" ht="18" customHeight="1">
-      <c r="B171" s="14"/>
-      <c r="C171" s="14"/>
+      <c r="B171" s="31"/>
+      <c r="C171" s="31"/>
       <c r="D171" s="6">
         <v>80204</v>
       </c>
@@ -7609,7 +7961,7 @@
       </c>
     </row>
     <row r="172" spans="2:5" ht="18" customHeight="1">
-      <c r="B172" s="14"/>
+      <c r="B172" s="31"/>
       <c r="C172" s="6" t="s">
         <v>288</v>
       </c>
@@ -7621,8 +7973,8 @@
       </c>
     </row>
     <row r="173" spans="2:5" ht="22.5" customHeight="1">
-      <c r="B173" s="14"/>
-      <c r="C173" s="14" t="s">
+      <c r="B173" s="31"/>
+      <c r="C173" s="31" t="s">
         <v>289</v>
       </c>
       <c r="D173" s="6">
@@ -7633,8 +7985,8 @@
       </c>
     </row>
     <row r="174" spans="2:5" ht="18" customHeight="1">
-      <c r="B174" s="14"/>
-      <c r="C174" s="14"/>
+      <c r="B174" s="31"/>
+      <c r="C174" s="31"/>
       <c r="D174" s="6">
         <v>80402</v>
       </c>
@@ -7643,8 +7995,8 @@
       </c>
     </row>
     <row r="175" spans="2:5" ht="18" customHeight="1">
-      <c r="B175" s="14"/>
-      <c r="C175" s="14" t="s">
+      <c r="B175" s="31"/>
+      <c r="C175" s="31" t="s">
         <v>292</v>
       </c>
       <c r="D175" s="6">
@@ -7655,8 +8007,8 @@
       </c>
     </row>
     <row r="176" spans="2:5" ht="18" customHeight="1">
-      <c r="B176" s="14"/>
-      <c r="C176" s="14"/>
+      <c r="B176" s="31"/>
+      <c r="C176" s="31"/>
       <c r="D176" s="6">
         <v>80502</v>
       </c>
@@ -7665,8 +8017,8 @@
       </c>
     </row>
     <row r="177" spans="2:5" ht="18" customHeight="1">
-      <c r="B177" s="14"/>
-      <c r="C177" s="14"/>
+      <c r="B177" s="31"/>
+      <c r="C177" s="31"/>
       <c r="D177" s="6">
         <v>80503</v>
       </c>
@@ -7675,8 +8027,8 @@
       </c>
     </row>
     <row r="178" spans="2:5" ht="18" customHeight="1">
-      <c r="B178" s="14"/>
-      <c r="C178" s="14" t="s">
+      <c r="B178" s="31"/>
+      <c r="C178" s="31" t="s">
         <v>296</v>
       </c>
       <c r="D178" s="6">
@@ -7687,8 +8039,8 @@
       </c>
     </row>
     <row r="179" spans="2:5" ht="18" customHeight="1">
-      <c r="B179" s="14"/>
-      <c r="C179" s="14"/>
+      <c r="B179" s="31"/>
+      <c r="C179" s="31"/>
       <c r="D179" s="6">
         <v>80602</v>
       </c>
@@ -7697,8 +8049,8 @@
       </c>
     </row>
     <row r="180" spans="2:5" ht="18" customHeight="1">
-      <c r="B180" s="14"/>
-      <c r="C180" s="14"/>
+      <c r="B180" s="31"/>
+      <c r="C180" s="31"/>
       <c r="D180" s="6">
         <v>80603</v>
       </c>
@@ -7707,8 +8059,8 @@
       </c>
     </row>
     <row r="181" spans="2:5" ht="18" customHeight="1">
-      <c r="B181" s="14"/>
-      <c r="C181" s="14" t="s">
+      <c r="B181" s="31"/>
+      <c r="C181" s="31" t="s">
         <v>300</v>
       </c>
       <c r="D181" s="6">
@@ -7719,8 +8071,8 @@
       </c>
     </row>
     <row r="182" spans="2:5" ht="18" customHeight="1">
-      <c r="B182" s="14"/>
-      <c r="C182" s="14"/>
+      <c r="B182" s="31"/>
+      <c r="C182" s="31"/>
       <c r="D182" s="6">
         <v>80702</v>
       </c>
@@ -7729,8 +8081,8 @@
       </c>
     </row>
     <row r="183" spans="2:5" ht="18" customHeight="1">
-      <c r="B183" s="14"/>
-      <c r="C183" s="14"/>
+      <c r="B183" s="31"/>
+      <c r="C183" s="31"/>
       <c r="D183" s="6">
         <v>80703</v>
       </c>
@@ -7739,8 +8091,8 @@
       </c>
     </row>
     <row r="184" spans="2:5" ht="18" customHeight="1">
-      <c r="B184" s="14"/>
-      <c r="C184" s="14"/>
+      <c r="B184" s="31"/>
+      <c r="C184" s="31"/>
       <c r="D184" s="6">
         <v>80704</v>
       </c>
@@ -7749,8 +8101,8 @@
       </c>
     </row>
     <row r="185" spans="2:5" ht="18" customHeight="1">
-      <c r="B185" s="14"/>
-      <c r="C185" s="14"/>
+      <c r="B185" s="31"/>
+      <c r="C185" s="31"/>
       <c r="D185" s="6">
         <v>80705</v>
       </c>
@@ -7759,8 +8111,8 @@
       </c>
     </row>
     <row r="186" spans="2:5" ht="18" customHeight="1">
-      <c r="B186" s="14"/>
-      <c r="C186" s="14"/>
+      <c r="B186" s="31"/>
+      <c r="C186" s="31"/>
       <c r="D186" s="6">
         <v>80706</v>
       </c>
@@ -7769,8 +8121,8 @@
       </c>
     </row>
     <row r="187" spans="2:5" ht="18" customHeight="1">
-      <c r="B187" s="14"/>
-      <c r="C187" s="14" t="s">
+      <c r="B187" s="31"/>
+      <c r="C187" s="31" t="s">
         <v>307</v>
       </c>
       <c r="D187" s="6">
@@ -7781,8 +8133,8 @@
       </c>
     </row>
     <row r="188" spans="2:5" ht="18" customHeight="1">
-      <c r="B188" s="14"/>
-      <c r="C188" s="14"/>
+      <c r="B188" s="31"/>
+      <c r="C188" s="31"/>
       <c r="D188" s="6">
         <v>80802</v>
       </c>
@@ -7791,8 +8143,8 @@
       </c>
     </row>
     <row r="189" spans="2:5" ht="18" customHeight="1">
-      <c r="B189" s="14"/>
-      <c r="C189" s="14"/>
+      <c r="B189" s="31"/>
+      <c r="C189" s="31"/>
       <c r="D189" s="6">
         <v>80803</v>
       </c>
@@ -7801,8 +8153,8 @@
       </c>
     </row>
     <row r="190" spans="2:5" ht="18" customHeight="1">
-      <c r="B190" s="14"/>
-      <c r="C190" s="14"/>
+      <c r="B190" s="31"/>
+      <c r="C190" s="31"/>
       <c r="D190" s="6">
         <v>80804</v>
       </c>
@@ -7811,8 +8163,8 @@
       </c>
     </row>
     <row r="191" spans="2:5" ht="18" customHeight="1">
-      <c r="B191" s="14"/>
-      <c r="C191" s="14"/>
+      <c r="B191" s="31"/>
+      <c r="C191" s="31"/>
       <c r="D191" s="6">
         <v>80805</v>
       </c>
@@ -7821,8 +8173,8 @@
       </c>
     </row>
     <row r="192" spans="2:5" ht="18" customHeight="1">
-      <c r="B192" s="14"/>
-      <c r="C192" s="14" t="s">
+      <c r="B192" s="31"/>
+      <c r="C192" s="31" t="s">
         <v>313</v>
       </c>
       <c r="D192" s="6">
@@ -7833,8 +8185,8 @@
       </c>
     </row>
     <row r="193" spans="2:5" ht="18" customHeight="1">
-      <c r="B193" s="14"/>
-      <c r="C193" s="14"/>
+      <c r="B193" s="31"/>
+      <c r="C193" s="31"/>
       <c r="D193" s="6">
         <v>80902</v>
       </c>
@@ -7843,8 +8195,8 @@
       </c>
     </row>
     <row r="194" spans="2:5" ht="18" customHeight="1">
-      <c r="B194" s="14"/>
-      <c r="C194" s="14"/>
+      <c r="B194" s="31"/>
+      <c r="C194" s="31"/>
       <c r="D194" s="6">
         <v>80903</v>
       </c>
@@ -7853,8 +8205,8 @@
       </c>
     </row>
     <row r="195" spans="2:5" ht="18" customHeight="1">
-      <c r="B195" s="14"/>
-      <c r="C195" s="14"/>
+      <c r="B195" s="31"/>
+      <c r="C195" s="31"/>
       <c r="D195" s="6">
         <v>80904</v>
       </c>
@@ -7863,8 +8215,8 @@
       </c>
     </row>
     <row r="196" spans="2:5" ht="22.5" customHeight="1">
-      <c r="B196" s="14"/>
-      <c r="C196" s="14" t="s">
+      <c r="B196" s="31"/>
+      <c r="C196" s="31" t="s">
         <v>318</v>
       </c>
       <c r="D196" s="6">
@@ -7875,8 +8227,8 @@
       </c>
     </row>
     <row r="197" spans="2:5" ht="18" customHeight="1">
-      <c r="B197" s="14"/>
-      <c r="C197" s="14"/>
+      <c r="B197" s="31"/>
+      <c r="C197" s="31"/>
       <c r="D197" s="6">
         <v>81002</v>
       </c>
@@ -7885,8 +8237,8 @@
       </c>
     </row>
     <row r="198" spans="2:5" ht="18" customHeight="1">
-      <c r="B198" s="14"/>
-      <c r="C198" s="14" t="s">
+      <c r="B198" s="31"/>
+      <c r="C198" s="31" t="s">
         <v>321</v>
       </c>
       <c r="D198" s="6">
@@ -7897,8 +8249,8 @@
       </c>
     </row>
     <row r="199" spans="2:5" ht="18" customHeight="1">
-      <c r="B199" s="14"/>
-      <c r="C199" s="14"/>
+      <c r="B199" s="31"/>
+      <c r="C199" s="31"/>
       <c r="D199" s="6">
         <v>81102</v>
       </c>
@@ -7907,8 +8259,8 @@
       </c>
     </row>
     <row r="200" spans="2:5" ht="18" customHeight="1">
-      <c r="B200" s="14"/>
-      <c r="C200" s="14"/>
+      <c r="B200" s="31"/>
+      <c r="C200" s="31"/>
       <c r="D200" s="6">
         <v>81103</v>
       </c>
@@ -7917,8 +8269,8 @@
       </c>
     </row>
     <row r="201" spans="2:5" ht="18" customHeight="1">
-      <c r="B201" s="14"/>
-      <c r="C201" s="14"/>
+      <c r="B201" s="31"/>
+      <c r="C201" s="31"/>
       <c r="D201" s="6">
         <v>81104</v>
       </c>
@@ -7927,8 +8279,8 @@
       </c>
     </row>
     <row r="202" spans="2:5" ht="18" customHeight="1">
-      <c r="B202" s="14"/>
-      <c r="C202" s="14"/>
+      <c r="B202" s="31"/>
+      <c r="C202" s="31"/>
       <c r="D202" s="6">
         <v>81105</v>
       </c>
@@ -7937,8 +8289,8 @@
       </c>
     </row>
     <row r="203" spans="2:5" ht="18" customHeight="1">
-      <c r="B203" s="14"/>
-      <c r="C203" s="14" t="s">
+      <c r="B203" s="31"/>
+      <c r="C203" s="31" t="s">
         <v>327</v>
       </c>
       <c r="D203" s="6">
@@ -7949,8 +8301,8 @@
       </c>
     </row>
     <row r="204" spans="2:5" ht="18" customHeight="1">
-      <c r="B204" s="14"/>
-      <c r="C204" s="14"/>
+      <c r="B204" s="31"/>
+      <c r="C204" s="31"/>
       <c r="D204" s="6">
         <v>81202</v>
       </c>
@@ -7959,8 +8311,8 @@
       </c>
     </row>
     <row r="205" spans="2:5" ht="18" customHeight="1">
-      <c r="B205" s="14"/>
-      <c r="C205" s="14"/>
+      <c r="B205" s="31"/>
+      <c r="C205" s="31"/>
       <c r="D205" s="6">
         <v>81203</v>
       </c>
@@ -7969,8 +8321,8 @@
       </c>
     </row>
     <row r="206" spans="2:5" ht="18" customHeight="1">
-      <c r="B206" s="14"/>
-      <c r="C206" s="14" t="s">
+      <c r="B206" s="31"/>
+      <c r="C206" s="31" t="s">
         <v>331</v>
       </c>
       <c r="D206" s="6">
@@ -7981,8 +8333,8 @@
       </c>
     </row>
     <row r="207" spans="2:5" ht="18" customHeight="1">
-      <c r="B207" s="14"/>
-      <c r="C207" s="14"/>
+      <c r="B207" s="31"/>
+      <c r="C207" s="31"/>
       <c r="D207" s="6">
         <v>81302</v>
       </c>
@@ -7991,8 +8343,8 @@
       </c>
     </row>
     <row r="208" spans="2:5" ht="18" customHeight="1">
-      <c r="B208" s="14"/>
-      <c r="C208" s="14"/>
+      <c r="B208" s="31"/>
+      <c r="C208" s="31"/>
       <c r="D208" s="6">
         <v>81303</v>
       </c>
@@ -8001,8 +8353,8 @@
       </c>
     </row>
     <row r="209" spans="2:5" ht="18" customHeight="1">
-      <c r="B209" s="14"/>
-      <c r="C209" s="14"/>
+      <c r="B209" s="31"/>
+      <c r="C209" s="31"/>
       <c r="D209" s="6">
         <v>81304</v>
       </c>
@@ -8011,8 +8363,8 @@
       </c>
     </row>
     <row r="210" spans="2:5" ht="18" customHeight="1">
-      <c r="B210" s="14"/>
-      <c r="C210" s="14" t="s">
+      <c r="B210" s="31"/>
+      <c r="C210" s="31" t="s">
         <v>336</v>
       </c>
       <c r="D210" s="6">
@@ -8023,8 +8375,8 @@
       </c>
     </row>
     <row r="211" spans="2:5" ht="18" customHeight="1">
-      <c r="B211" s="14"/>
-      <c r="C211" s="14"/>
+      <c r="B211" s="31"/>
+      <c r="C211" s="31"/>
       <c r="D211" s="6">
         <v>81402</v>
       </c>
@@ -8033,8 +8385,8 @@
       </c>
     </row>
     <row r="212" spans="2:5" ht="18" customHeight="1">
-      <c r="B212" s="14"/>
-      <c r="C212" s="14"/>
+      <c r="B212" s="31"/>
+      <c r="C212" s="31"/>
       <c r="D212" s="6">
         <v>81403</v>
       </c>
@@ -8043,8 +8395,8 @@
       </c>
     </row>
     <row r="213" spans="2:5" ht="18" customHeight="1">
-      <c r="B213" s="14"/>
-      <c r="C213" s="14"/>
+      <c r="B213" s="31"/>
+      <c r="C213" s="31"/>
       <c r="D213" s="6">
         <v>81404</v>
       </c>
@@ -8053,8 +8405,8 @@
       </c>
     </row>
     <row r="214" spans="2:5" ht="18" customHeight="1">
-      <c r="B214" s="14"/>
-      <c r="C214" s="14"/>
+      <c r="B214" s="31"/>
+      <c r="C214" s="31"/>
       <c r="D214" s="6">
         <v>81405</v>
       </c>
@@ -8063,8 +8415,8 @@
       </c>
     </row>
     <row r="215" spans="2:5" ht="18" customHeight="1">
-      <c r="B215" s="14"/>
-      <c r="C215" s="14"/>
+      <c r="B215" s="31"/>
+      <c r="C215" s="31"/>
       <c r="D215" s="6">
         <v>81406</v>
       </c>
@@ -8073,8 +8425,8 @@
       </c>
     </row>
     <row r="216" spans="2:5" ht="18" customHeight="1">
-      <c r="B216" s="14"/>
-      <c r="C216" s="14" t="s">
+      <c r="B216" s="31"/>
+      <c r="C216" s="31" t="s">
         <v>343</v>
       </c>
       <c r="D216" s="6">
@@ -8085,8 +8437,8 @@
       </c>
     </row>
     <row r="217" spans="2:5" ht="18" customHeight="1">
-      <c r="B217" s="14"/>
-      <c r="C217" s="14"/>
+      <c r="B217" s="31"/>
+      <c r="C217" s="31"/>
       <c r="D217" s="6">
         <v>81502</v>
       </c>
@@ -8095,8 +8447,8 @@
       </c>
     </row>
     <row r="218" spans="2:5" ht="18" customHeight="1">
-      <c r="B218" s="14"/>
-      <c r="C218" s="14"/>
+      <c r="B218" s="31"/>
+      <c r="C218" s="31"/>
       <c r="D218" s="6">
         <v>81503</v>
       </c>
@@ -8105,8 +8457,8 @@
       </c>
     </row>
     <row r="219" spans="2:5" ht="18" customHeight="1">
-      <c r="B219" s="14"/>
-      <c r="C219" s="14"/>
+      <c r="B219" s="31"/>
+      <c r="C219" s="31"/>
       <c r="D219" s="6">
         <v>81504</v>
       </c>
@@ -8115,8 +8467,8 @@
       </c>
     </row>
     <row r="220" spans="2:5" ht="18" customHeight="1">
-      <c r="B220" s="14"/>
-      <c r="C220" s="14"/>
+      <c r="B220" s="31"/>
+      <c r="C220" s="31"/>
       <c r="D220" s="6">
         <v>81505</v>
       </c>
@@ -8125,8 +8477,8 @@
       </c>
     </row>
     <row r="221" spans="2:5" ht="18" customHeight="1">
-      <c r="B221" s="14"/>
-      <c r="C221" s="14" t="s">
+      <c r="B221" s="31"/>
+      <c r="C221" s="31" t="s">
         <v>349</v>
       </c>
       <c r="D221" s="6">
@@ -8137,8 +8489,8 @@
       </c>
     </row>
     <row r="222" spans="2:5" ht="18" customHeight="1">
-      <c r="B222" s="14"/>
-      <c r="C222" s="14"/>
+      <c r="B222" s="31"/>
+      <c r="C222" s="31"/>
       <c r="D222" s="6">
         <v>81602</v>
       </c>
@@ -8147,8 +8499,8 @@
       </c>
     </row>
     <row r="223" spans="2:5" ht="18" customHeight="1">
-      <c r="B223" s="14"/>
-      <c r="C223" s="14"/>
+      <c r="B223" s="31"/>
+      <c r="C223" s="31"/>
       <c r="D223" s="6">
         <v>81603</v>
       </c>
@@ -8157,8 +8509,8 @@
       </c>
     </row>
     <row r="224" spans="2:5" ht="18" customHeight="1">
-      <c r="B224" s="14"/>
-      <c r="C224" s="14" t="s">
+      <c r="B224" s="31"/>
+      <c r="C224" s="31" t="s">
         <v>353</v>
       </c>
       <c r="D224" s="6">
@@ -8169,8 +8521,8 @@
       </c>
     </row>
     <row r="225" spans="2:5" ht="18" customHeight="1">
-      <c r="B225" s="14"/>
-      <c r="C225" s="14"/>
+      <c r="B225" s="31"/>
+      <c r="C225" s="31"/>
       <c r="D225" s="6">
         <v>81702</v>
       </c>
@@ -8179,8 +8531,8 @@
       </c>
     </row>
     <row r="226" spans="2:5" ht="18" customHeight="1">
-      <c r="B226" s="14"/>
-      <c r="C226" s="14"/>
+      <c r="B226" s="31"/>
+      <c r="C226" s="31"/>
       <c r="D226" s="6">
         <v>81703</v>
       </c>
@@ -8189,8 +8541,8 @@
       </c>
     </row>
     <row r="227" spans="2:5" ht="18" customHeight="1">
-      <c r="B227" s="14"/>
-      <c r="C227" s="14"/>
+      <c r="B227" s="31"/>
+      <c r="C227" s="31"/>
       <c r="D227" s="6">
         <v>81704</v>
       </c>
@@ -8199,8 +8551,8 @@
       </c>
     </row>
     <row r="228" spans="2:5" ht="18" customHeight="1">
-      <c r="B228" s="14"/>
-      <c r="C228" s="14"/>
+      <c r="B228" s="31"/>
+      <c r="C228" s="31"/>
       <c r="D228" s="6">
         <v>81705</v>
       </c>
@@ -8209,8 +8561,8 @@
       </c>
     </row>
     <row r="229" spans="2:5" ht="18" customHeight="1">
-      <c r="B229" s="14"/>
-      <c r="C229" s="14" t="s">
+      <c r="B229" s="31"/>
+      <c r="C229" s="31" t="s">
         <v>359</v>
       </c>
       <c r="D229" s="6">
@@ -8221,8 +8573,8 @@
       </c>
     </row>
     <row r="230" spans="2:5" ht="18" customHeight="1">
-      <c r="B230" s="14"/>
-      <c r="C230" s="14"/>
+      <c r="B230" s="31"/>
+      <c r="C230" s="31"/>
       <c r="D230" s="6">
         <v>81802</v>
       </c>
@@ -8231,8 +8583,8 @@
       </c>
     </row>
     <row r="231" spans="2:5" ht="18" customHeight="1">
-      <c r="B231" s="14"/>
-      <c r="C231" s="14"/>
+      <c r="B231" s="31"/>
+      <c r="C231" s="31"/>
       <c r="D231" s="6">
         <v>81803</v>
       </c>
@@ -8241,8 +8593,8 @@
       </c>
     </row>
     <row r="232" spans="2:5" ht="18" customHeight="1">
-      <c r="B232" s="14"/>
-      <c r="C232" s="14" t="s">
+      <c r="B232" s="31"/>
+      <c r="C232" s="31" t="s">
         <v>363</v>
       </c>
       <c r="D232" s="6">
@@ -8253,8 +8605,8 @@
       </c>
     </row>
     <row r="233" spans="2:5" ht="18" customHeight="1">
-      <c r="B233" s="14"/>
-      <c r="C233" s="14"/>
+      <c r="B233" s="31"/>
+      <c r="C233" s="31"/>
       <c r="D233" s="6">
         <v>81902</v>
       </c>
@@ -8263,8 +8615,8 @@
       </c>
     </row>
     <row r="234" spans="2:5" ht="18" customHeight="1">
-      <c r="B234" s="14"/>
-      <c r="C234" s="14"/>
+      <c r="B234" s="31"/>
+      <c r="C234" s="31"/>
       <c r="D234" s="6">
         <v>81903</v>
       </c>
@@ -8273,8 +8625,8 @@
       </c>
     </row>
     <row r="235" spans="2:5" ht="18" customHeight="1">
-      <c r="B235" s="14"/>
-      <c r="C235" s="14" t="s">
+      <c r="B235" s="31"/>
+      <c r="C235" s="31" t="s">
         <v>367</v>
       </c>
       <c r="D235" s="6">
@@ -8285,8 +8637,8 @@
       </c>
     </row>
     <row r="236" spans="2:5" ht="18" customHeight="1">
-      <c r="B236" s="14"/>
-      <c r="C236" s="14"/>
+      <c r="B236" s="31"/>
+      <c r="C236" s="31"/>
       <c r="D236" s="6">
         <v>82002</v>
       </c>
@@ -8295,8 +8647,8 @@
       </c>
     </row>
     <row r="237" spans="2:5" ht="18" customHeight="1">
-      <c r="B237" s="14"/>
-      <c r="C237" s="14"/>
+      <c r="B237" s="31"/>
+      <c r="C237" s="31"/>
       <c r="D237" s="6">
         <v>82003</v>
       </c>
@@ -8305,8 +8657,8 @@
       </c>
     </row>
     <row r="238" spans="2:5" ht="18" customHeight="1">
-      <c r="B238" s="14"/>
-      <c r="C238" s="14" t="s">
+      <c r="B238" s="31"/>
+      <c r="C238" s="31" t="s">
         <v>371</v>
       </c>
       <c r="D238" s="6">
@@ -8317,8 +8669,8 @@
       </c>
     </row>
     <row r="239" spans="2:5" ht="18" customHeight="1">
-      <c r="B239" s="14"/>
-      <c r="C239" s="14"/>
+      <c r="B239" s="31"/>
+      <c r="C239" s="31"/>
       <c r="D239" s="6">
         <v>82102</v>
       </c>
@@ -8327,8 +8679,8 @@
       </c>
     </row>
     <row r="240" spans="2:5" ht="18" customHeight="1">
-      <c r="B240" s="14"/>
-      <c r="C240" s="14"/>
+      <c r="B240" s="31"/>
+      <c r="C240" s="31"/>
       <c r="D240" s="6">
         <v>82103</v>
       </c>
@@ -8337,8 +8689,8 @@
       </c>
     </row>
     <row r="241" spans="2:5" ht="18" customHeight="1">
-      <c r="B241" s="14"/>
-      <c r="C241" s="14"/>
+      <c r="B241" s="31"/>
+      <c r="C241" s="31"/>
       <c r="D241" s="6">
         <v>82104</v>
       </c>
@@ -8347,8 +8699,8 @@
       </c>
     </row>
     <row r="242" spans="2:5" ht="18" customHeight="1">
-      <c r="B242" s="14"/>
-      <c r="C242" s="14" t="s">
+      <c r="B242" s="31"/>
+      <c r="C242" s="31" t="s">
         <v>376</v>
       </c>
       <c r="D242" s="6">
@@ -8359,8 +8711,8 @@
       </c>
     </row>
     <row r="243" spans="2:5" ht="18" customHeight="1">
-      <c r="B243" s="14"/>
-      <c r="C243" s="14"/>
+      <c r="B243" s="31"/>
+      <c r="C243" s="31"/>
       <c r="D243" s="6">
         <v>82202</v>
       </c>
@@ -8369,8 +8721,8 @@
       </c>
     </row>
     <row r="244" spans="2:5" ht="18" customHeight="1">
-      <c r="B244" s="14"/>
-      <c r="C244" s="14"/>
+      <c r="B244" s="31"/>
+      <c r="C244" s="31"/>
       <c r="D244" s="6">
         <v>82203</v>
       </c>
@@ -8379,8 +8731,8 @@
       </c>
     </row>
     <row r="245" spans="2:5" ht="18" customHeight="1">
-      <c r="B245" s="14"/>
-      <c r="C245" s="14"/>
+      <c r="B245" s="31"/>
+      <c r="C245" s="31"/>
       <c r="D245" s="6">
         <v>82204</v>
       </c>
@@ -8389,8 +8741,8 @@
       </c>
     </row>
     <row r="246" spans="2:5" ht="18" customHeight="1">
-      <c r="B246" s="14"/>
-      <c r="C246" s="14" t="s">
+      <c r="B246" s="31"/>
+      <c r="C246" s="31" t="s">
         <v>381</v>
       </c>
       <c r="D246" s="6">
@@ -8401,8 +8753,8 @@
       </c>
     </row>
     <row r="247" spans="2:5" ht="18" customHeight="1">
-      <c r="B247" s="14"/>
-      <c r="C247" s="14"/>
+      <c r="B247" s="31"/>
+      <c r="C247" s="31"/>
       <c r="D247" s="6">
         <v>82302</v>
       </c>
@@ -8411,8 +8763,8 @@
       </c>
     </row>
     <row r="248" spans="2:5" ht="18" customHeight="1">
-      <c r="B248" s="14"/>
-      <c r="C248" s="14"/>
+      <c r="B248" s="31"/>
+      <c r="C248" s="31"/>
       <c r="D248" s="6">
         <v>82303</v>
       </c>
@@ -8421,8 +8773,8 @@
       </c>
     </row>
     <row r="249" spans="2:5" ht="18" customHeight="1">
-      <c r="B249" s="14"/>
-      <c r="C249" s="14"/>
+      <c r="B249" s="31"/>
+      <c r="C249" s="31"/>
       <c r="D249" s="6">
         <v>82304</v>
       </c>
@@ -8431,8 +8783,8 @@
       </c>
     </row>
     <row r="250" spans="2:5" ht="18" customHeight="1">
-      <c r="B250" s="14"/>
-      <c r="C250" s="14" t="s">
+      <c r="B250" s="31"/>
+      <c r="C250" s="31" t="s">
         <v>386</v>
       </c>
       <c r="D250" s="6">
@@ -8443,8 +8795,8 @@
       </c>
     </row>
     <row r="251" spans="2:5" ht="18" customHeight="1">
-      <c r="B251" s="14"/>
-      <c r="C251" s="14"/>
+      <c r="B251" s="31"/>
+      <c r="C251" s="31"/>
       <c r="D251" s="6">
         <v>82402</v>
       </c>
@@ -8453,8 +8805,8 @@
       </c>
     </row>
     <row r="252" spans="2:5" ht="18" customHeight="1">
-      <c r="B252" s="14"/>
-      <c r="C252" s="14"/>
+      <c r="B252" s="31"/>
+      <c r="C252" s="31"/>
       <c r="D252" s="6">
         <v>82403</v>
       </c>
@@ -8463,8 +8815,8 @@
       </c>
     </row>
     <row r="253" spans="2:5" ht="18" customHeight="1">
-      <c r="B253" s="14"/>
-      <c r="C253" s="14" t="s">
+      <c r="B253" s="31"/>
+      <c r="C253" s="31" t="s">
         <v>390</v>
       </c>
       <c r="D253" s="6">
@@ -8475,8 +8827,8 @@
       </c>
     </row>
     <row r="254" spans="2:5" ht="18" customHeight="1">
-      <c r="B254" s="14"/>
-      <c r="C254" s="14"/>
+      <c r="B254" s="31"/>
+      <c r="C254" s="31"/>
       <c r="D254" s="6">
         <v>82502</v>
       </c>
@@ -8485,8 +8837,8 @@
       </c>
     </row>
     <row r="255" spans="2:5" ht="18" customHeight="1">
-      <c r="B255" s="14"/>
-      <c r="C255" s="14"/>
+      <c r="B255" s="31"/>
+      <c r="C255" s="31"/>
       <c r="D255" s="6">
         <v>82503</v>
       </c>
@@ -8495,8 +8847,8 @@
       </c>
     </row>
     <row r="256" spans="2:5" ht="18" customHeight="1">
-      <c r="B256" s="14"/>
-      <c r="C256" s="14"/>
+      <c r="B256" s="31"/>
+      <c r="C256" s="31"/>
       <c r="D256" s="6">
         <v>82504</v>
       </c>
@@ -8505,8 +8857,8 @@
       </c>
     </row>
     <row r="257" spans="2:5" ht="18" customHeight="1">
-      <c r="B257" s="14"/>
-      <c r="C257" s="14" t="s">
+      <c r="B257" s="31"/>
+      <c r="C257" s="31" t="s">
         <v>395</v>
       </c>
       <c r="D257" s="6">
@@ -8517,8 +8869,8 @@
       </c>
     </row>
     <row r="258" spans="2:5" ht="18" customHeight="1">
-      <c r="B258" s="14"/>
-      <c r="C258" s="14"/>
+      <c r="B258" s="31"/>
+      <c r="C258" s="31"/>
       <c r="D258" s="6">
         <v>82602</v>
       </c>
@@ -8527,8 +8879,8 @@
       </c>
     </row>
     <row r="259" spans="2:5" ht="18" customHeight="1">
-      <c r="B259" s="14"/>
-      <c r="C259" s="14"/>
+      <c r="B259" s="31"/>
+      <c r="C259" s="31"/>
       <c r="D259" s="6">
         <v>82603</v>
       </c>
@@ -8537,8 +8889,8 @@
       </c>
     </row>
     <row r="260" spans="2:5" ht="18" customHeight="1">
-      <c r="B260" s="14"/>
-      <c r="C260" s="14"/>
+      <c r="B260" s="31"/>
+      <c r="C260" s="31"/>
       <c r="D260" s="6">
         <v>82604</v>
       </c>
@@ -8547,8 +8899,8 @@
       </c>
     </row>
     <row r="261" spans="2:5" ht="18" customHeight="1">
-      <c r="B261" s="14"/>
-      <c r="C261" s="14" t="s">
+      <c r="B261" s="31"/>
+      <c r="C261" s="31" t="s">
         <v>400</v>
       </c>
       <c r="D261" s="6">
@@ -8559,8 +8911,8 @@
       </c>
     </row>
     <row r="262" spans="2:5" ht="18" customHeight="1">
-      <c r="B262" s="14"/>
-      <c r="C262" s="14"/>
+      <c r="B262" s="31"/>
+      <c r="C262" s="31"/>
       <c r="D262" s="6">
         <v>82702</v>
       </c>
@@ -8569,8 +8921,8 @@
       </c>
     </row>
     <row r="263" spans="2:5" ht="18" customHeight="1">
-      <c r="B263" s="14"/>
-      <c r="C263" s="14"/>
+      <c r="B263" s="31"/>
+      <c r="C263" s="31"/>
       <c r="D263" s="6">
         <v>82703</v>
       </c>
@@ -8579,8 +8931,8 @@
       </c>
     </row>
     <row r="264" spans="2:5" ht="18" customHeight="1">
-      <c r="B264" s="14"/>
-      <c r="C264" s="14"/>
+      <c r="B264" s="31"/>
+      <c r="C264" s="31"/>
       <c r="D264" s="6">
         <v>82704</v>
       </c>
@@ -8589,8 +8941,8 @@
       </c>
     </row>
     <row r="265" spans="2:5" ht="18" customHeight="1">
-      <c r="B265" s="14"/>
-      <c r="C265" s="14" t="s">
+      <c r="B265" s="31"/>
+      <c r="C265" s="31" t="s">
         <v>405</v>
       </c>
       <c r="D265" s="6">
@@ -8601,8 +8953,8 @@
       </c>
     </row>
     <row r="266" spans="2:5" ht="18" customHeight="1">
-      <c r="B266" s="14"/>
-      <c r="C266" s="14"/>
+      <c r="B266" s="31"/>
+      <c r="C266" s="31"/>
       <c r="D266" s="6">
         <v>82802</v>
       </c>
@@ -8611,8 +8963,8 @@
       </c>
     </row>
     <row r="267" spans="2:5" ht="18" customHeight="1">
-      <c r="B267" s="14"/>
-      <c r="C267" s="14"/>
+      <c r="B267" s="31"/>
+      <c r="C267" s="31"/>
       <c r="D267" s="6">
         <v>82803</v>
       </c>
@@ -8621,8 +8973,8 @@
       </c>
     </row>
     <row r="268" spans="2:5" ht="18" customHeight="1">
-      <c r="B268" s="14"/>
-      <c r="C268" s="14"/>
+      <c r="B268" s="31"/>
+      <c r="C268" s="31"/>
       <c r="D268" s="6">
         <v>82804</v>
       </c>
@@ -8631,8 +8983,8 @@
       </c>
     </row>
     <row r="269" spans="2:5" ht="18" customHeight="1">
-      <c r="B269" s="14"/>
-      <c r="C269" s="14" t="s">
+      <c r="B269" s="31"/>
+      <c r="C269" s="31" t="s">
         <v>410</v>
       </c>
       <c r="D269" s="6">
@@ -8643,8 +8995,8 @@
       </c>
     </row>
     <row r="270" spans="2:5" ht="18" customHeight="1">
-      <c r="B270" s="14"/>
-      <c r="C270" s="14"/>
+      <c r="B270" s="31"/>
+      <c r="C270" s="31"/>
       <c r="D270" s="6">
         <v>82902</v>
       </c>
@@ -8653,8 +9005,8 @@
       </c>
     </row>
     <row r="271" spans="2:5" ht="18" customHeight="1">
-      <c r="B271" s="14"/>
-      <c r="C271" s="14"/>
+      <c r="B271" s="31"/>
+      <c r="C271" s="31"/>
       <c r="D271" s="6">
         <v>82903</v>
       </c>
@@ -8663,8 +9015,8 @@
       </c>
     </row>
     <row r="272" spans="2:5" ht="22.5" customHeight="1">
-      <c r="B272" s="14"/>
-      <c r="C272" s="14" t="s">
+      <c r="B272" s="31"/>
+      <c r="C272" s="31" t="s">
         <v>414</v>
       </c>
       <c r="D272" s="6">
@@ -8675,8 +9027,8 @@
       </c>
     </row>
     <row r="273" spans="2:5" ht="18" customHeight="1">
-      <c r="B273" s="14"/>
-      <c r="C273" s="14"/>
+      <c r="B273" s="31"/>
+      <c r="C273" s="31"/>
       <c r="D273" s="6">
         <v>83002</v>
       </c>
@@ -8685,7 +9037,7 @@
       </c>
     </row>
     <row r="274" spans="2:5" ht="18" customHeight="1">
-      <c r="B274" s="14"/>
+      <c r="B274" s="31"/>
       <c r="C274" s="6" t="s">
         <v>417</v>
       </c>
@@ -8697,8 +9049,8 @@
       </c>
     </row>
     <row r="275" spans="2:5" ht="18" customHeight="1">
-      <c r="B275" s="14"/>
-      <c r="C275" s="14" t="s">
+      <c r="B275" s="31"/>
+      <c r="C275" s="31" t="s">
         <v>418</v>
       </c>
       <c r="D275" s="6">
@@ -8709,8 +9061,8 @@
       </c>
     </row>
     <row r="276" spans="2:5" ht="18" customHeight="1">
-      <c r="B276" s="14"/>
-      <c r="C276" s="14"/>
+      <c r="B276" s="31"/>
+      <c r="C276" s="31"/>
       <c r="D276" s="6">
         <v>83202</v>
       </c>
@@ -8719,8 +9071,8 @@
       </c>
     </row>
     <row r="277" spans="2:5" ht="18" customHeight="1">
-      <c r="B277" s="14"/>
-      <c r="C277" s="14"/>
+      <c r="B277" s="31"/>
+      <c r="C277" s="31"/>
       <c r="D277" s="6">
         <v>83203</v>
       </c>
@@ -8729,8 +9081,8 @@
       </c>
     </row>
     <row r="278" spans="2:5" ht="18" customHeight="1">
-      <c r="B278" s="14"/>
-      <c r="C278" s="14"/>
+      <c r="B278" s="31"/>
+      <c r="C278" s="31"/>
       <c r="D278" s="6">
         <v>83204</v>
       </c>
@@ -8739,10 +9091,10 @@
       </c>
     </row>
     <row r="279" spans="2:5" ht="18" customHeight="1">
-      <c r="B279" s="14" t="s">
+      <c r="B279" s="31" t="s">
         <v>423</v>
       </c>
-      <c r="C279" s="14" t="s">
+      <c r="C279" s="31" t="s">
         <v>424</v>
       </c>
       <c r="D279" s="6">
@@ -8753,8 +9105,8 @@
       </c>
     </row>
     <row r="280" spans="2:5" ht="18" customHeight="1">
-      <c r="B280" s="14"/>
-      <c r="C280" s="14"/>
+      <c r="B280" s="31"/>
+      <c r="C280" s="31"/>
       <c r="D280" s="6">
         <v>90102</v>
       </c>
@@ -8763,8 +9115,8 @@
       </c>
     </row>
     <row r="281" spans="2:5" ht="18" customHeight="1">
-      <c r="B281" s="14"/>
-      <c r="C281" s="14" t="s">
+      <c r="B281" s="31"/>
+      <c r="C281" s="31" t="s">
         <v>427</v>
       </c>
       <c r="D281" s="6">
@@ -8775,8 +9127,8 @@
       </c>
     </row>
     <row r="282" spans="2:5" ht="18" customHeight="1">
-      <c r="B282" s="14"/>
-      <c r="C282" s="14"/>
+      <c r="B282" s="31"/>
+      <c r="C282" s="31"/>
       <c r="D282" s="6">
         <v>90202</v>
       </c>
@@ -8785,8 +9137,8 @@
       </c>
     </row>
     <row r="283" spans="2:5" ht="18" customHeight="1">
-      <c r="B283" s="14"/>
-      <c r="C283" s="14"/>
+      <c r="B283" s="31"/>
+      <c r="C283" s="31"/>
       <c r="D283" s="6">
         <v>90203</v>
       </c>
@@ -8795,8 +9147,8 @@
       </c>
     </row>
     <row r="284" spans="2:5" ht="22.5" customHeight="1">
-      <c r="B284" s="14"/>
-      <c r="C284" s="14" t="s">
+      <c r="B284" s="31"/>
+      <c r="C284" s="31" t="s">
         <v>431</v>
       </c>
       <c r="D284" s="6">
@@ -8807,8 +9159,8 @@
       </c>
     </row>
     <row r="285" spans="2:5" ht="18" customHeight="1">
-      <c r="B285" s="14"/>
-      <c r="C285" s="14"/>
+      <c r="B285" s="31"/>
+      <c r="C285" s="31"/>
       <c r="D285" s="6">
         <v>90302</v>
       </c>
@@ -8817,8 +9169,8 @@
       </c>
     </row>
     <row r="286" spans="2:5" ht="18" customHeight="1">
-      <c r="B286" s="14"/>
-      <c r="C286" s="14" t="s">
+      <c r="B286" s="31"/>
+      <c r="C286" s="31" t="s">
         <v>434</v>
       </c>
       <c r="D286" s="6">
@@ -8829,8 +9181,8 @@
       </c>
     </row>
     <row r="287" spans="2:5" ht="18" customHeight="1">
-      <c r="B287" s="14"/>
-      <c r="C287" s="14"/>
+      <c r="B287" s="31"/>
+      <c r="C287" s="31"/>
       <c r="D287" s="6">
         <v>90402</v>
       </c>
@@ -8839,8 +9191,8 @@
       </c>
     </row>
     <row r="288" spans="2:5" ht="18" customHeight="1">
-      <c r="B288" s="14"/>
-      <c r="C288" s="14"/>
+      <c r="B288" s="31"/>
+      <c r="C288" s="31"/>
       <c r="D288" s="6">
         <v>90403</v>
       </c>
@@ -8849,8 +9201,8 @@
       </c>
     </row>
     <row r="289" spans="2:5" ht="18" customHeight="1">
-      <c r="B289" s="14"/>
-      <c r="C289" s="14" t="s">
+      <c r="B289" s="31"/>
+      <c r="C289" s="31" t="s">
         <v>438</v>
       </c>
       <c r="D289" s="6">
@@ -8861,8 +9213,8 @@
       </c>
     </row>
     <row r="290" spans="2:5" ht="18" customHeight="1">
-      <c r="B290" s="14"/>
-      <c r="C290" s="14"/>
+      <c r="B290" s="31"/>
+      <c r="C290" s="31"/>
       <c r="D290" s="6">
         <v>90502</v>
       </c>
@@ -8871,8 +9223,8 @@
       </c>
     </row>
     <row r="291" spans="2:5" ht="18" customHeight="1">
-      <c r="B291" s="14"/>
-      <c r="C291" s="14"/>
+      <c r="B291" s="31"/>
+      <c r="C291" s="31"/>
       <c r="D291" s="6">
         <v>90503</v>
       </c>
@@ -8881,8 +9233,8 @@
       </c>
     </row>
     <row r="292" spans="2:5" ht="18" customHeight="1">
-      <c r="B292" s="14"/>
-      <c r="C292" s="14"/>
+      <c r="B292" s="31"/>
+      <c r="C292" s="31"/>
       <c r="D292" s="6">
         <v>90504</v>
       </c>
@@ -8891,8 +9243,8 @@
       </c>
     </row>
     <row r="293" spans="2:5" ht="18" customHeight="1">
-      <c r="B293" s="14"/>
-      <c r="C293" s="14" t="s">
+      <c r="B293" s="31"/>
+      <c r="C293" s="31" t="s">
         <v>443</v>
       </c>
       <c r="D293" s="6">
@@ -8903,8 +9255,8 @@
       </c>
     </row>
     <row r="294" spans="2:5" ht="18" customHeight="1">
-      <c r="B294" s="14"/>
-      <c r="C294" s="14"/>
+      <c r="B294" s="31"/>
+      <c r="C294" s="31"/>
       <c r="D294" s="6">
         <v>90602</v>
       </c>
@@ -8913,8 +9265,8 @@
       </c>
     </row>
     <row r="295" spans="2:5" ht="18" customHeight="1">
-      <c r="B295" s="14"/>
-      <c r="C295" s="14"/>
+      <c r="B295" s="31"/>
+      <c r="C295" s="31"/>
       <c r="D295" s="6">
         <v>90603</v>
       </c>
@@ -8923,8 +9275,8 @@
       </c>
     </row>
     <row r="296" spans="2:5" ht="18" customHeight="1">
-      <c r="B296" s="14"/>
-      <c r="C296" s="14" t="s">
+      <c r="B296" s="31"/>
+      <c r="C296" s="31" t="s">
         <v>447</v>
       </c>
       <c r="D296" s="6">
@@ -8935,8 +9287,8 @@
       </c>
     </row>
     <row r="297" spans="2:5" ht="18" customHeight="1">
-      <c r="B297" s="14"/>
-      <c r="C297" s="14"/>
+      <c r="B297" s="31"/>
+      <c r="C297" s="31"/>
       <c r="D297" s="6">
         <v>90702</v>
       </c>
@@ -8945,8 +9297,8 @@
       </c>
     </row>
     <row r="298" spans="2:5" ht="18" customHeight="1">
-      <c r="B298" s="14"/>
-      <c r="C298" s="14"/>
+      <c r="B298" s="31"/>
+      <c r="C298" s="31"/>
       <c r="D298" s="6">
         <v>90703</v>
       </c>
@@ -8955,8 +9307,8 @@
       </c>
     </row>
     <row r="299" spans="2:5" ht="18" customHeight="1">
-      <c r="B299" s="14"/>
-      <c r="C299" s="14"/>
+      <c r="B299" s="31"/>
+      <c r="C299" s="31"/>
       <c r="D299" s="6">
         <v>90704</v>
       </c>
@@ -8965,8 +9317,8 @@
       </c>
     </row>
     <row r="300" spans="2:5" ht="18" customHeight="1">
-      <c r="B300" s="14"/>
-      <c r="C300" s="14"/>
+      <c r="B300" s="31"/>
+      <c r="C300" s="31"/>
       <c r="D300" s="6">
         <v>90705</v>
       </c>
@@ -8975,8 +9327,8 @@
       </c>
     </row>
     <row r="301" spans="2:5" ht="18" customHeight="1">
-      <c r="B301" s="14"/>
-      <c r="C301" s="14"/>
+      <c r="B301" s="31"/>
+      <c r="C301" s="31"/>
       <c r="D301" s="6">
         <v>90706</v>
       </c>
@@ -8985,8 +9337,8 @@
       </c>
     </row>
     <row r="302" spans="2:5" ht="18" customHeight="1">
-      <c r="B302" s="14"/>
-      <c r="C302" s="14"/>
+      <c r="B302" s="31"/>
+      <c r="C302" s="31"/>
       <c r="D302" s="6">
         <v>90707</v>
       </c>
@@ -8995,8 +9347,8 @@
       </c>
     </row>
     <row r="303" spans="2:5" ht="18" customHeight="1">
-      <c r="B303" s="14"/>
-      <c r="C303" s="14" t="s">
+      <c r="B303" s="31"/>
+      <c r="C303" s="31" t="s">
         <v>455</v>
       </c>
       <c r="D303" s="6">
@@ -9007,8 +9359,8 @@
       </c>
     </row>
     <row r="304" spans="2:5" ht="18" customHeight="1">
-      <c r="B304" s="14"/>
-      <c r="C304" s="14"/>
+      <c r="B304" s="31"/>
+      <c r="C304" s="31"/>
       <c r="D304" s="6">
         <v>90802</v>
       </c>
@@ -9017,8 +9369,8 @@
       </c>
     </row>
     <row r="305" spans="2:5" ht="18" customHeight="1">
-      <c r="B305" s="14"/>
-      <c r="C305" s="14"/>
+      <c r="B305" s="31"/>
+      <c r="C305" s="31"/>
       <c r="D305" s="6">
         <v>90803</v>
       </c>
@@ -9027,10 +9379,10 @@
       </c>
     </row>
     <row r="306" spans="2:5" ht="18" customHeight="1">
-      <c r="B306" s="14" t="s">
+      <c r="B306" s="31" t="s">
         <v>459</v>
       </c>
-      <c r="C306" s="14" t="s">
+      <c r="C306" s="31" t="s">
         <v>460</v>
       </c>
       <c r="D306" s="6">
@@ -9041,8 +9393,8 @@
       </c>
     </row>
     <row r="307" spans="2:5" ht="18" customHeight="1">
-      <c r="B307" s="14"/>
-      <c r="C307" s="14"/>
+      <c r="B307" s="31"/>
+      <c r="C307" s="31"/>
       <c r="D307" s="6">
         <v>100102</v>
       </c>
@@ -9051,8 +9403,8 @@
       </c>
     </row>
     <row r="308" spans="2:5" ht="18" customHeight="1">
-      <c r="B308" s="14"/>
-      <c r="C308" s="14"/>
+      <c r="B308" s="31"/>
+      <c r="C308" s="31"/>
       <c r="D308" s="6">
         <v>100103</v>
       </c>
@@ -9061,8 +9413,8 @@
       </c>
     </row>
     <row r="309" spans="2:5" ht="18" customHeight="1">
-      <c r="B309" s="14"/>
-      <c r="C309" s="14"/>
+      <c r="B309" s="31"/>
+      <c r="C309" s="31"/>
       <c r="D309" s="6">
         <v>100104</v>
       </c>
@@ -9071,8 +9423,8 @@
       </c>
     </row>
     <row r="310" spans="2:5" ht="18" customHeight="1">
-      <c r="B310" s="14"/>
-      <c r="C310" s="14"/>
+      <c r="B310" s="31"/>
+      <c r="C310" s="31"/>
       <c r="D310" s="6">
         <v>100105</v>
       </c>
@@ -9081,8 +9433,8 @@
       </c>
     </row>
     <row r="311" spans="2:5" ht="18" customHeight="1">
-      <c r="B311" s="14"/>
-      <c r="C311" s="14"/>
+      <c r="B311" s="31"/>
+      <c r="C311" s="31"/>
       <c r="D311" s="6">
         <v>100106</v>
       </c>
@@ -9091,8 +9443,8 @@
       </c>
     </row>
     <row r="312" spans="2:5" ht="18" customHeight="1">
-      <c r="B312" s="14"/>
-      <c r="C312" s="14"/>
+      <c r="B312" s="31"/>
+      <c r="C312" s="31"/>
       <c r="D312" s="6">
         <v>100107</v>
       </c>
@@ -9101,8 +9453,8 @@
       </c>
     </row>
     <row r="313" spans="2:5" ht="18" customHeight="1">
-      <c r="B313" s="14"/>
-      <c r="C313" s="14" t="s">
+      <c r="B313" s="31"/>
+      <c r="C313" s="31" t="s">
         <v>468</v>
       </c>
       <c r="D313" s="6">
@@ -9113,8 +9465,8 @@
       </c>
     </row>
     <row r="314" spans="2:5" ht="18" customHeight="1">
-      <c r="B314" s="14"/>
-      <c r="C314" s="14"/>
+      <c r="B314" s="31"/>
+      <c r="C314" s="31"/>
       <c r="D314" s="6">
         <v>100202</v>
       </c>
@@ -9123,8 +9475,8 @@
       </c>
     </row>
     <row r="315" spans="2:5" ht="18" customHeight="1">
-      <c r="B315" s="14"/>
-      <c r="C315" s="14"/>
+      <c r="B315" s="31"/>
+      <c r="C315" s="31"/>
       <c r="D315" s="6">
         <v>100203</v>
       </c>
@@ -9133,8 +9485,8 @@
       </c>
     </row>
     <row r="316" spans="2:5" ht="18" customHeight="1">
-      <c r="B316" s="14"/>
-      <c r="C316" s="14"/>
+      <c r="B316" s="31"/>
+      <c r="C316" s="31"/>
       <c r="D316" s="6">
         <v>100204</v>
       </c>
@@ -9143,8 +9495,8 @@
       </c>
     </row>
     <row r="317" spans="2:5" ht="18" customHeight="1">
-      <c r="B317" s="14"/>
-      <c r="C317" s="14"/>
+      <c r="B317" s="31"/>
+      <c r="C317" s="31"/>
       <c r="D317" s="6">
         <v>100205</v>
       </c>
@@ -9153,8 +9505,8 @@
       </c>
     </row>
     <row r="318" spans="2:5" ht="18" customHeight="1">
-      <c r="B318" s="14"/>
-      <c r="C318" s="14"/>
+      <c r="B318" s="31"/>
+      <c r="C318" s="31"/>
       <c r="D318" s="6">
         <v>100206</v>
       </c>
@@ -9163,8 +9515,8 @@
       </c>
     </row>
     <row r="319" spans="2:5" ht="18" customHeight="1">
-      <c r="B319" s="14"/>
-      <c r="C319" s="14"/>
+      <c r="B319" s="31"/>
+      <c r="C319" s="31"/>
       <c r="D319" s="6">
         <v>100207</v>
       </c>
@@ -9173,8 +9525,8 @@
       </c>
     </row>
     <row r="320" spans="2:5" ht="18" customHeight="1">
-      <c r="B320" s="14"/>
-      <c r="C320" s="14"/>
+      <c r="B320" s="31"/>
+      <c r="C320" s="31"/>
       <c r="D320" s="6">
         <v>100208</v>
       </c>
@@ -9183,8 +9535,8 @@
       </c>
     </row>
     <row r="321" spans="2:5" ht="18" customHeight="1">
-      <c r="B321" s="14"/>
-      <c r="C321" s="14"/>
+      <c r="B321" s="31"/>
+      <c r="C321" s="31"/>
       <c r="D321" s="6">
         <v>100209</v>
       </c>
@@ -9193,8 +9545,8 @@
       </c>
     </row>
     <row r="322" spans="2:5" ht="18" customHeight="1">
-      <c r="B322" s="14"/>
-      <c r="C322" s="14"/>
+      <c r="B322" s="31"/>
+      <c r="C322" s="31"/>
       <c r="D322" s="6">
         <v>100210</v>
       </c>
@@ -9203,8 +9555,8 @@
       </c>
     </row>
     <row r="323" spans="2:5" ht="18" customHeight="1">
-      <c r="B323" s="14"/>
-      <c r="C323" s="14"/>
+      <c r="B323" s="31"/>
+      <c r="C323" s="31"/>
       <c r="D323" s="6">
         <v>100211</v>
       </c>
@@ -9213,8 +9565,8 @@
       </c>
     </row>
     <row r="324" spans="2:5" ht="18" customHeight="1">
-      <c r="B324" s="14"/>
-      <c r="C324" s="14"/>
+      <c r="B324" s="31"/>
+      <c r="C324" s="31"/>
       <c r="D324" s="6">
         <v>100212</v>
       </c>
@@ -9223,8 +9575,8 @@
       </c>
     </row>
     <row r="325" spans="2:5" ht="18" customHeight="1">
-      <c r="B325" s="14"/>
-      <c r="C325" s="14"/>
+      <c r="B325" s="31"/>
+      <c r="C325" s="31"/>
       <c r="D325" s="6">
         <v>100213</v>
       </c>
@@ -9233,8 +9585,8 @@
       </c>
     </row>
     <row r="326" spans="2:5" ht="18" customHeight="1">
-      <c r="B326" s="14"/>
-      <c r="C326" s="14"/>
+      <c r="B326" s="31"/>
+      <c r="C326" s="31"/>
       <c r="D326" s="6">
         <v>100214</v>
       </c>
@@ -9243,8 +9595,8 @@
       </c>
     </row>
     <row r="327" spans="2:5" ht="18" customHeight="1">
-      <c r="B327" s="14"/>
-      <c r="C327" s="14"/>
+      <c r="B327" s="31"/>
+      <c r="C327" s="31"/>
       <c r="D327" s="6">
         <v>100215</v>
       </c>
@@ -9253,8 +9605,8 @@
       </c>
     </row>
     <row r="328" spans="2:5" ht="18" customHeight="1">
-      <c r="B328" s="14"/>
-      <c r="C328" s="14"/>
+      <c r="B328" s="31"/>
+      <c r="C328" s="31"/>
       <c r="D328" s="6">
         <v>100216</v>
       </c>
@@ -9263,8 +9615,8 @@
       </c>
     </row>
     <row r="329" spans="2:5" ht="18" customHeight="1">
-      <c r="B329" s="14"/>
-      <c r="C329" s="14"/>
+      <c r="B329" s="31"/>
+      <c r="C329" s="31"/>
       <c r="D329" s="6">
         <v>100217</v>
       </c>
@@ -9273,8 +9625,8 @@
       </c>
     </row>
     <row r="330" spans="2:5" ht="18" customHeight="1">
-      <c r="B330" s="14"/>
-      <c r="C330" s="14"/>
+      <c r="B330" s="31"/>
+      <c r="C330" s="31"/>
       <c r="D330" s="6">
         <v>100218</v>
       </c>
@@ -9283,8 +9635,8 @@
       </c>
     </row>
     <row r="331" spans="2:5" ht="18" customHeight="1">
-      <c r="B331" s="14"/>
-      <c r="C331" s="14" t="s">
+      <c r="B331" s="31"/>
+      <c r="C331" s="31" t="s">
         <v>487</v>
       </c>
       <c r="D331" s="6">
@@ -9295,8 +9647,8 @@
       </c>
     </row>
     <row r="332" spans="2:5" ht="18" customHeight="1">
-      <c r="B332" s="14"/>
-      <c r="C332" s="14"/>
+      <c r="B332" s="31"/>
+      <c r="C332" s="31"/>
       <c r="D332" s="6">
         <v>100302</v>
       </c>
@@ -9305,8 +9657,8 @@
       </c>
     </row>
     <row r="333" spans="2:5" ht="18" customHeight="1">
-      <c r="B333" s="14"/>
-      <c r="C333" s="14" t="s">
+      <c r="B333" s="31"/>
+      <c r="C333" s="31" t="s">
         <v>490</v>
       </c>
       <c r="D333" s="6">
@@ -9317,8 +9669,8 @@
       </c>
     </row>
     <row r="334" spans="2:5" ht="18" customHeight="1">
-      <c r="B334" s="14"/>
-      <c r="C334" s="14"/>
+      <c r="B334" s="31"/>
+      <c r="C334" s="31"/>
       <c r="D334" s="6">
         <v>100402</v>
       </c>
@@ -9327,8 +9679,8 @@
       </c>
     </row>
     <row r="335" spans="2:5" ht="18" customHeight="1">
-      <c r="B335" s="14"/>
-      <c r="C335" s="14"/>
+      <c r="B335" s="31"/>
+      <c r="C335" s="31"/>
       <c r="D335" s="6">
         <v>100403</v>
       </c>
@@ -9337,8 +9689,8 @@
       </c>
     </row>
     <row r="336" spans="2:5" ht="18" customHeight="1">
-      <c r="B336" s="14"/>
-      <c r="C336" s="14"/>
+      <c r="B336" s="31"/>
+      <c r="C336" s="31"/>
       <c r="D336" s="6">
         <v>100404</v>
       </c>
@@ -9347,8 +9699,8 @@
       </c>
     </row>
     <row r="337" spans="2:5" ht="18" customHeight="1">
-      <c r="B337" s="14"/>
-      <c r="C337" s="14"/>
+      <c r="B337" s="31"/>
+      <c r="C337" s="31"/>
       <c r="D337" s="6">
         <v>100405</v>
       </c>
@@ -9357,8 +9709,8 @@
       </c>
     </row>
     <row r="338" spans="2:5" ht="18" customHeight="1">
-      <c r="B338" s="14"/>
-      <c r="C338" s="14"/>
+      <c r="B338" s="31"/>
+      <c r="C338" s="31"/>
       <c r="D338" s="6">
         <v>100406</v>
       </c>
@@ -9367,8 +9719,8 @@
       </c>
     </row>
     <row r="339" spans="2:5" ht="18" customHeight="1">
-      <c r="B339" s="14"/>
-      <c r="C339" s="14" t="s">
+      <c r="B339" s="31"/>
+      <c r="C339" s="31" t="s">
         <v>497</v>
       </c>
       <c r="D339" s="6">
@@ -9379,8 +9731,8 @@
       </c>
     </row>
     <row r="340" spans="2:5" ht="18" customHeight="1">
-      <c r="B340" s="14"/>
-      <c r="C340" s="14"/>
+      <c r="B340" s="31"/>
+      <c r="C340" s="31"/>
       <c r="D340" s="6">
         <v>100502</v>
       </c>
@@ -9389,8 +9741,8 @@
       </c>
     </row>
     <row r="341" spans="2:5" ht="18" customHeight="1">
-      <c r="B341" s="14"/>
-      <c r="C341" s="14"/>
+      <c r="B341" s="31"/>
+      <c r="C341" s="31"/>
       <c r="D341" s="6">
         <v>100503</v>
       </c>
@@ -9399,8 +9751,8 @@
       </c>
     </row>
     <row r="342" spans="2:5" ht="18" customHeight="1">
-      <c r="B342" s="14"/>
-      <c r="C342" s="14"/>
+      <c r="B342" s="31"/>
+      <c r="C342" s="31"/>
       <c r="D342" s="6">
         <v>100504</v>
       </c>
@@ -9409,8 +9761,8 @@
       </c>
     </row>
     <row r="343" spans="2:5" ht="18" customHeight="1">
-      <c r="B343" s="14"/>
-      <c r="C343" s="14"/>
+      <c r="B343" s="31"/>
+      <c r="C343" s="31"/>
       <c r="D343" s="6">
         <v>100505</v>
       </c>
@@ -9419,8 +9771,8 @@
       </c>
     </row>
     <row r="344" spans="2:5" ht="18" customHeight="1">
-      <c r="B344" s="14"/>
-      <c r="C344" s="14"/>
+      <c r="B344" s="31"/>
+      <c r="C344" s="31"/>
       <c r="D344" s="6">
         <v>100506</v>
       </c>
@@ -9429,8 +9781,8 @@
       </c>
     </row>
     <row r="345" spans="2:5" ht="18" customHeight="1">
-      <c r="B345" s="14"/>
-      <c r="C345" s="14"/>
+      <c r="B345" s="31"/>
+      <c r="C345" s="31"/>
       <c r="D345" s="6">
         <v>100507</v>
       </c>
@@ -9439,8 +9791,8 @@
       </c>
     </row>
     <row r="346" spans="2:5" ht="18" customHeight="1">
-      <c r="B346" s="14"/>
-      <c r="C346" s="14"/>
+      <c r="B346" s="31"/>
+      <c r="C346" s="31"/>
       <c r="D346" s="6">
         <v>100508</v>
       </c>
@@ -9449,8 +9801,8 @@
       </c>
     </row>
     <row r="347" spans="2:5" ht="18" customHeight="1">
-      <c r="B347" s="14"/>
-      <c r="C347" s="14"/>
+      <c r="B347" s="31"/>
+      <c r="C347" s="31"/>
       <c r="D347" s="6">
         <v>100509</v>
       </c>
@@ -9459,8 +9811,8 @@
       </c>
     </row>
     <row r="348" spans="2:5" ht="18" customHeight="1">
-      <c r="B348" s="14"/>
-      <c r="C348" s="14"/>
+      <c r="B348" s="31"/>
+      <c r="C348" s="31"/>
       <c r="D348" s="6">
         <v>100510</v>
       </c>
@@ -9469,8 +9821,8 @@
       </c>
     </row>
     <row r="349" spans="2:5" ht="18" customHeight="1">
-      <c r="B349" s="14"/>
-      <c r="C349" s="14"/>
+      <c r="B349" s="31"/>
+      <c r="C349" s="31"/>
       <c r="D349" s="6">
         <v>100511</v>
       </c>
@@ -9479,8 +9831,8 @@
       </c>
     </row>
     <row r="350" spans="2:5" ht="18" customHeight="1">
-      <c r="B350" s="14"/>
-      <c r="C350" s="14"/>
+      <c r="B350" s="31"/>
+      <c r="C350" s="31"/>
       <c r="D350" s="6">
         <v>100512</v>
       </c>
@@ -9489,8 +9841,8 @@
       </c>
     </row>
     <row r="351" spans="2:5" ht="18" customHeight="1">
-      <c r="B351" s="14"/>
-      <c r="C351" s="14"/>
+      <c r="B351" s="31"/>
+      <c r="C351" s="31"/>
       <c r="D351" s="6">
         <v>100513</v>
       </c>
@@ -9499,8 +9851,8 @@
       </c>
     </row>
     <row r="352" spans="2:5" ht="18" customHeight="1">
-      <c r="B352" s="14"/>
-      <c r="C352" s="14" t="s">
+      <c r="B352" s="31"/>
+      <c r="C352" s="31" t="s">
         <v>511</v>
       </c>
       <c r="D352" s="6">
@@ -9511,8 +9863,8 @@
       </c>
     </row>
     <row r="353" spans="2:5" ht="18" customHeight="1">
-      <c r="B353" s="14"/>
-      <c r="C353" s="14"/>
+      <c r="B353" s="31"/>
+      <c r="C353" s="31"/>
       <c r="D353" s="6">
         <v>100602</v>
       </c>
@@ -9521,8 +9873,8 @@
       </c>
     </row>
     <row r="354" spans="2:5" ht="18" customHeight="1">
-      <c r="B354" s="14"/>
-      <c r="C354" s="14" t="s">
+      <c r="B354" s="31"/>
+      <c r="C354" s="31" t="s">
         <v>514</v>
       </c>
       <c r="D354" s="6">
@@ -9533,8 +9885,8 @@
       </c>
     </row>
     <row r="355" spans="2:5" ht="18" customHeight="1">
-      <c r="B355" s="14"/>
-      <c r="C355" s="14"/>
+      <c r="B355" s="31"/>
+      <c r="C355" s="31"/>
       <c r="D355" s="6">
         <v>100702</v>
       </c>
@@ -9543,8 +9895,8 @@
       </c>
     </row>
     <row r="356" spans="2:5" ht="18" customHeight="1">
-      <c r="B356" s="14"/>
-      <c r="C356" s="14"/>
+      <c r="B356" s="31"/>
+      <c r="C356" s="31"/>
       <c r="D356" s="6">
         <v>100703</v>
       </c>
@@ -9553,8 +9905,8 @@
       </c>
     </row>
     <row r="357" spans="2:5" ht="18" customHeight="1">
-      <c r="B357" s="14"/>
-      <c r="C357" s="14"/>
+      <c r="B357" s="31"/>
+      <c r="C357" s="31"/>
       <c r="D357" s="6">
         <v>100704</v>
       </c>
@@ -9563,8 +9915,8 @@
       </c>
     </row>
     <row r="358" spans="2:5" ht="18" customHeight="1">
-      <c r="B358" s="14"/>
-      <c r="C358" s="14"/>
+      <c r="B358" s="31"/>
+      <c r="C358" s="31"/>
       <c r="D358" s="6">
         <v>100705</v>
       </c>
@@ -9573,8 +9925,8 @@
       </c>
     </row>
     <row r="359" spans="2:5" ht="18" customHeight="1">
-      <c r="B359" s="14"/>
-      <c r="C359" s="14"/>
+      <c r="B359" s="31"/>
+      <c r="C359" s="31"/>
       <c r="D359" s="6">
         <v>100706</v>
       </c>
@@ -9583,7 +9935,7 @@
       </c>
     </row>
     <row r="360" spans="2:5" ht="18" customHeight="1">
-      <c r="B360" s="14"/>
+      <c r="B360" s="31"/>
       <c r="C360" s="6" t="s">
         <v>521</v>
       </c>
@@ -9595,10 +9947,10 @@
       </c>
     </row>
     <row r="361" spans="2:5" ht="22.5" customHeight="1">
-      <c r="B361" s="14" t="s">
+      <c r="B361" s="31" t="s">
         <v>522</v>
       </c>
-      <c r="C361" s="14" t="s">
+      <c r="C361" s="31" t="s">
         <v>523</v>
       </c>
       <c r="D361" s="6">
@@ -9609,8 +9961,8 @@
       </c>
     </row>
     <row r="362" spans="2:5" ht="18" customHeight="1">
-      <c r="B362" s="14"/>
-      <c r="C362" s="14"/>
+      <c r="B362" s="31"/>
+      <c r="C362" s="31"/>
       <c r="D362" s="6">
         <v>110102</v>
       </c>
@@ -9619,8 +9971,8 @@
       </c>
     </row>
     <row r="363" spans="2:5" ht="18" customHeight="1">
-      <c r="B363" s="14"/>
-      <c r="C363" s="14" t="s">
+      <c r="B363" s="31"/>
+      <c r="C363" s="31" t="s">
         <v>526</v>
       </c>
       <c r="D363" s="6">
@@ -9631,8 +9983,8 @@
       </c>
     </row>
     <row r="364" spans="2:5" ht="18" customHeight="1">
-      <c r="B364" s="14"/>
-      <c r="C364" s="14"/>
+      <c r="B364" s="31"/>
+      <c r="C364" s="31"/>
       <c r="D364" s="6">
         <v>110202</v>
       </c>
@@ -9641,8 +9993,8 @@
       </c>
     </row>
     <row r="365" spans="2:5" ht="18" customHeight="1">
-      <c r="B365" s="14"/>
-      <c r="C365" s="14" t="s">
+      <c r="B365" s="31"/>
+      <c r="C365" s="31" t="s">
         <v>529</v>
       </c>
       <c r="D365" s="6">
@@ -9653,8 +10005,8 @@
       </c>
     </row>
     <row r="366" spans="2:5" ht="18" customHeight="1">
-      <c r="B366" s="14"/>
-      <c r="C366" s="14"/>
+      <c r="B366" s="31"/>
+      <c r="C366" s="31"/>
       <c r="D366" s="6">
         <v>110302</v>
       </c>
@@ -9663,8 +10015,8 @@
       </c>
     </row>
     <row r="367" spans="2:5" ht="18" customHeight="1">
-      <c r="B367" s="14"/>
-      <c r="C367" s="14" t="s">
+      <c r="B367" s="31"/>
+      <c r="C367" s="31" t="s">
         <v>532</v>
       </c>
       <c r="D367" s="6">
@@ -9675,8 +10027,8 @@
       </c>
     </row>
     <row r="368" spans="2:5" ht="18" customHeight="1">
-      <c r="B368" s="14"/>
-      <c r="C368" s="14"/>
+      <c r="B368" s="31"/>
+      <c r="C368" s="31"/>
       <c r="D368" s="6">
         <v>110402</v>
       </c>
@@ -9685,8 +10037,8 @@
       </c>
     </row>
     <row r="369" spans="2:5" ht="18" customHeight="1">
-      <c r="B369" s="14"/>
-      <c r="C369" s="14" t="s">
+      <c r="B369" s="31"/>
+      <c r="C369" s="31" t="s">
         <v>535</v>
       </c>
       <c r="D369" s="6">
@@ -9697,8 +10049,8 @@
       </c>
     </row>
     <row r="370" spans="2:5" ht="18" customHeight="1">
-      <c r="B370" s="14"/>
-      <c r="C370" s="14"/>
+      <c r="B370" s="31"/>
+      <c r="C370" s="31"/>
       <c r="D370" s="6">
         <v>110502</v>
       </c>
@@ -9707,8 +10059,8 @@
       </c>
     </row>
     <row r="371" spans="2:5" ht="18" customHeight="1">
-      <c r="B371" s="14"/>
-      <c r="C371" s="14"/>
+      <c r="B371" s="31"/>
+      <c r="C371" s="31"/>
       <c r="D371" s="6">
         <v>110503</v>
       </c>
@@ -9717,8 +10069,8 @@
       </c>
     </row>
     <row r="372" spans="2:5" ht="18" customHeight="1">
-      <c r="B372" s="14"/>
-      <c r="C372" s="14"/>
+      <c r="B372" s="31"/>
+      <c r="C372" s="31"/>
       <c r="D372" s="6">
         <v>110504</v>
       </c>
@@ -9727,8 +10079,8 @@
       </c>
     </row>
     <row r="373" spans="2:5" ht="18" customHeight="1">
-      <c r="B373" s="14"/>
-      <c r="C373" s="14"/>
+      <c r="B373" s="31"/>
+      <c r="C373" s="31"/>
       <c r="D373" s="6">
         <v>110505</v>
       </c>
@@ -9737,8 +10089,8 @@
       </c>
     </row>
     <row r="374" spans="2:5" ht="18" customHeight="1">
-      <c r="B374" s="14"/>
-      <c r="C374" s="14"/>
+      <c r="B374" s="31"/>
+      <c r="C374" s="31"/>
       <c r="D374" s="6">
         <v>110506</v>
       </c>
@@ -9747,8 +10099,8 @@
       </c>
     </row>
     <row r="375" spans="2:5" ht="18" customHeight="1">
-      <c r="B375" s="14"/>
-      <c r="C375" s="14" t="s">
+      <c r="B375" s="31"/>
+      <c r="C375" s="31" t="s">
         <v>542</v>
       </c>
       <c r="D375" s="6">
@@ -9759,8 +10111,8 @@
       </c>
     </row>
     <row r="376" spans="2:5" ht="18" customHeight="1">
-      <c r="B376" s="14"/>
-      <c r="C376" s="14"/>
+      <c r="B376" s="31"/>
+      <c r="C376" s="31"/>
       <c r="D376" s="6">
         <v>110602</v>
       </c>
@@ -9769,7 +10121,7 @@
       </c>
     </row>
     <row r="377" spans="2:5" ht="18" customHeight="1">
-      <c r="B377" s="14"/>
+      <c r="B377" s="31"/>
       <c r="C377" s="6" t="s">
         <v>545</v>
       </c>
@@ -9781,8 +10133,8 @@
       </c>
     </row>
     <row r="378" spans="2:5" ht="18" customHeight="1">
-      <c r="B378" s="14"/>
-      <c r="C378" s="14" t="s">
+      <c r="B378" s="31"/>
+      <c r="C378" s="31" t="s">
         <v>546</v>
       </c>
       <c r="D378" s="6">
@@ -9793,8 +10145,8 @@
       </c>
     </row>
     <row r="379" spans="2:5" ht="18" customHeight="1">
-      <c r="B379" s="14"/>
-      <c r="C379" s="14"/>
+      <c r="B379" s="31"/>
+      <c r="C379" s="31"/>
       <c r="D379" s="6">
         <v>110802</v>
       </c>
@@ -9803,8 +10155,8 @@
       </c>
     </row>
     <row r="380" spans="2:5" ht="18" customHeight="1">
-      <c r="B380" s="14"/>
-      <c r="C380" s="14"/>
+      <c r="B380" s="31"/>
+      <c r="C380" s="31"/>
       <c r="D380" s="6">
         <v>110803</v>
       </c>
@@ -9813,7 +10165,7 @@
       </c>
     </row>
     <row r="381" spans="2:5" ht="18" customHeight="1">
-      <c r="B381" s="14" t="s">
+      <c r="B381" s="31" t="s">
         <v>550</v>
       </c>
       <c r="C381" s="6" t="s">
@@ -9827,8 +10179,8 @@
       </c>
     </row>
     <row r="382" spans="2:5" ht="18" customHeight="1">
-      <c r="B382" s="14"/>
-      <c r="C382" s="14" t="s">
+      <c r="B382" s="31"/>
+      <c r="C382" s="31" t="s">
         <v>552</v>
       </c>
       <c r="D382" s="6">
@@ -9839,8 +10191,8 @@
       </c>
     </row>
     <row r="383" spans="2:5" ht="18" customHeight="1">
-      <c r="B383" s="14"/>
-      <c r="C383" s="14"/>
+      <c r="B383" s="31"/>
+      <c r="C383" s="31"/>
       <c r="D383" s="6">
         <v>120202</v>
       </c>
@@ -9849,8 +10201,8 @@
       </c>
     </row>
     <row r="384" spans="2:5" ht="18" customHeight="1">
-      <c r="B384" s="14"/>
-      <c r="C384" s="14"/>
+      <c r="B384" s="31"/>
+      <c r="C384" s="31"/>
       <c r="D384" s="6">
         <v>120203</v>
       </c>
@@ -9859,8 +10211,8 @@
       </c>
     </row>
     <row r="385" spans="2:5" ht="18" customHeight="1">
-      <c r="B385" s="14"/>
-      <c r="C385" s="14"/>
+      <c r="B385" s="31"/>
+      <c r="C385" s="31"/>
       <c r="D385" s="6">
         <v>120204</v>
       </c>
@@ -9869,8 +10221,8 @@
       </c>
     </row>
     <row r="386" spans="2:5" ht="22.5" customHeight="1">
-      <c r="B386" s="14"/>
-      <c r="C386" s="14" t="s">
+      <c r="B386" s="31"/>
+      <c r="C386" s="31" t="s">
         <v>557</v>
       </c>
       <c r="D386" s="6">
@@ -9881,8 +10233,8 @@
       </c>
     </row>
     <row r="387" spans="2:5" ht="18" customHeight="1">
-      <c r="B387" s="14"/>
-      <c r="C387" s="14"/>
+      <c r="B387" s="31"/>
+      <c r="C387" s="31"/>
       <c r="D387" s="6">
         <v>120302</v>
       </c>
@@ -9891,8 +10243,8 @@
       </c>
     </row>
     <row r="388" spans="2:5" ht="18" customHeight="1">
-      <c r="B388" s="14"/>
-      <c r="C388" s="14" t="s">
+      <c r="B388" s="31"/>
+      <c r="C388" s="31" t="s">
         <v>560</v>
       </c>
       <c r="D388" s="6">
@@ -9903,8 +10255,8 @@
       </c>
     </row>
     <row r="389" spans="2:5" ht="18" customHeight="1">
-      <c r="B389" s="14"/>
-      <c r="C389" s="14"/>
+      <c r="B389" s="31"/>
+      <c r="C389" s="31"/>
       <c r="D389" s="6">
         <v>120402</v>
       </c>
@@ -9913,8 +10265,8 @@
       </c>
     </row>
     <row r="390" spans="2:5" ht="18" customHeight="1">
-      <c r="B390" s="14"/>
-      <c r="C390" s="14"/>
+      <c r="B390" s="31"/>
+      <c r="C390" s="31"/>
       <c r="D390" s="6">
         <v>120403</v>
       </c>
@@ -9923,8 +10275,8 @@
       </c>
     </row>
     <row r="391" spans="2:5" ht="18" customHeight="1">
-      <c r="B391" s="14"/>
-      <c r="C391" s="14"/>
+      <c r="B391" s="31"/>
+      <c r="C391" s="31"/>
       <c r="D391" s="6">
         <v>120404</v>
       </c>
@@ -9933,8 +10285,8 @@
       </c>
     </row>
     <row r="392" spans="2:5" ht="18" customHeight="1">
-      <c r="B392" s="14"/>
-      <c r="C392" s="14"/>
+      <c r="B392" s="31"/>
+      <c r="C392" s="31"/>
       <c r="D392" s="6">
         <v>120405</v>
       </c>
@@ -9943,8 +10295,8 @@
       </c>
     </row>
     <row r="393" spans="2:5" ht="18" customHeight="1">
-      <c r="B393" s="14"/>
-      <c r="C393" s="14" t="s">
+      <c r="B393" s="31"/>
+      <c r="C393" s="31" t="s">
         <v>566</v>
       </c>
       <c r="D393" s="6">
@@ -9955,8 +10307,8 @@
       </c>
     </row>
     <row r="394" spans="2:5" ht="18" customHeight="1">
-      <c r="B394" s="14"/>
-      <c r="C394" s="14"/>
+      <c r="B394" s="31"/>
+      <c r="C394" s="31"/>
       <c r="D394" s="6">
         <v>120502</v>
       </c>
@@ -9965,8 +10317,8 @@
       </c>
     </row>
     <row r="395" spans="2:5" ht="18" customHeight="1">
-      <c r="B395" s="14"/>
-      <c r="C395" s="14"/>
+      <c r="B395" s="31"/>
+      <c r="C395" s="31"/>
       <c r="D395" s="6">
         <v>120503</v>
       </c>
@@ -9975,39 +10327,73 @@
       </c>
     </row>
     <row r="397" spans="2:5" ht="18" customHeight="1">
-      <c r="B397" s="19" t="s">
+      <c r="B397" s="41" t="s">
         <v>570</v>
       </c>
-      <c r="C397" s="19"/>
-      <c r="D397" s="19"/>
-      <c r="E397" s="19"/>
+      <c r="C397" s="41"/>
+      <c r="D397" s="41"/>
+      <c r="E397" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="98">
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="B4:B11"/>
-    <mergeCell ref="C4:C11"/>
-    <mergeCell ref="B12:B27"/>
-    <mergeCell ref="C12:C17"/>
-    <mergeCell ref="C18:C27"/>
-    <mergeCell ref="B28:B58"/>
-    <mergeCell ref="C28:C37"/>
-    <mergeCell ref="C38:C44"/>
-    <mergeCell ref="C45:C48"/>
-    <mergeCell ref="C49:C53"/>
-    <mergeCell ref="C54:C58"/>
-    <mergeCell ref="C149:C160"/>
-    <mergeCell ref="C161:C162"/>
-    <mergeCell ref="B59:B75"/>
-    <mergeCell ref="C59:C68"/>
-    <mergeCell ref="C69:C71"/>
-    <mergeCell ref="C72:C75"/>
-    <mergeCell ref="B76:B104"/>
-    <mergeCell ref="C76:C83"/>
-    <mergeCell ref="C84:C94"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="C97:C104"/>
+    <mergeCell ref="B397:E397"/>
+    <mergeCell ref="B361:B380"/>
+    <mergeCell ref="C361:C362"/>
+    <mergeCell ref="C363:C364"/>
+    <mergeCell ref="C365:C366"/>
+    <mergeCell ref="C367:C368"/>
+    <mergeCell ref="C369:C374"/>
+    <mergeCell ref="C375:C376"/>
+    <mergeCell ref="C378:C380"/>
+    <mergeCell ref="B381:B395"/>
+    <mergeCell ref="C382:C385"/>
+    <mergeCell ref="C386:C387"/>
+    <mergeCell ref="C388:C392"/>
+    <mergeCell ref="C393:C395"/>
+    <mergeCell ref="B306:B360"/>
+    <mergeCell ref="C306:C312"/>
+    <mergeCell ref="C313:C330"/>
+    <mergeCell ref="C331:C332"/>
+    <mergeCell ref="C333:C338"/>
+    <mergeCell ref="C339:C351"/>
+    <mergeCell ref="C352:C353"/>
+    <mergeCell ref="C354:C359"/>
+    <mergeCell ref="C275:C278"/>
+    <mergeCell ref="B279:B305"/>
+    <mergeCell ref="C279:C280"/>
+    <mergeCell ref="C281:C283"/>
+    <mergeCell ref="C284:C285"/>
+    <mergeCell ref="C286:C288"/>
+    <mergeCell ref="C289:C292"/>
+    <mergeCell ref="C293:C295"/>
+    <mergeCell ref="C296:C302"/>
+    <mergeCell ref="C303:C305"/>
+    <mergeCell ref="B164:B278"/>
+    <mergeCell ref="C164:C167"/>
+    <mergeCell ref="C168:C171"/>
+    <mergeCell ref="C173:C174"/>
+    <mergeCell ref="C175:C177"/>
+    <mergeCell ref="C178:C180"/>
+    <mergeCell ref="C221:C223"/>
+    <mergeCell ref="C224:C228"/>
+    <mergeCell ref="C272:C273"/>
+    <mergeCell ref="C232:C234"/>
+    <mergeCell ref="C235:C237"/>
+    <mergeCell ref="C238:C241"/>
+    <mergeCell ref="C242:C245"/>
+    <mergeCell ref="C246:C249"/>
+    <mergeCell ref="C250:C252"/>
+    <mergeCell ref="C253:C256"/>
+    <mergeCell ref="C257:C260"/>
+    <mergeCell ref="C261:C264"/>
+    <mergeCell ref="C265:C268"/>
+    <mergeCell ref="C269:C271"/>
+    <mergeCell ref="C229:C231"/>
+    <mergeCell ref="C181:C186"/>
+    <mergeCell ref="C187:C191"/>
+    <mergeCell ref="C192:C195"/>
+    <mergeCell ref="C196:C197"/>
+    <mergeCell ref="C198:C202"/>
     <mergeCell ref="C203:C205"/>
     <mergeCell ref="C206:C209"/>
     <mergeCell ref="C210:C215"/>
@@ -10024,64 +10410,30 @@
     <mergeCell ref="C138:C141"/>
     <mergeCell ref="C142:C143"/>
     <mergeCell ref="C144:C148"/>
-    <mergeCell ref="C181:C186"/>
-    <mergeCell ref="C187:C191"/>
-    <mergeCell ref="C192:C195"/>
-    <mergeCell ref="C196:C197"/>
-    <mergeCell ref="C198:C202"/>
-    <mergeCell ref="C221:C223"/>
-    <mergeCell ref="C224:C228"/>
-    <mergeCell ref="C272:C273"/>
-    <mergeCell ref="C232:C234"/>
-    <mergeCell ref="C235:C237"/>
-    <mergeCell ref="C238:C241"/>
-    <mergeCell ref="C242:C245"/>
-    <mergeCell ref="C246:C249"/>
-    <mergeCell ref="C250:C252"/>
-    <mergeCell ref="C253:C256"/>
-    <mergeCell ref="C257:C260"/>
-    <mergeCell ref="C261:C264"/>
-    <mergeCell ref="C265:C268"/>
-    <mergeCell ref="C269:C271"/>
-    <mergeCell ref="C229:C231"/>
-    <mergeCell ref="C275:C278"/>
-    <mergeCell ref="B279:B305"/>
-    <mergeCell ref="C279:C280"/>
-    <mergeCell ref="C281:C283"/>
-    <mergeCell ref="C284:C285"/>
-    <mergeCell ref="C286:C288"/>
-    <mergeCell ref="C289:C292"/>
-    <mergeCell ref="C293:C295"/>
-    <mergeCell ref="C296:C302"/>
-    <mergeCell ref="C303:C305"/>
-    <mergeCell ref="B164:B278"/>
-    <mergeCell ref="C164:C167"/>
-    <mergeCell ref="C168:C171"/>
-    <mergeCell ref="C173:C174"/>
-    <mergeCell ref="C175:C177"/>
-    <mergeCell ref="C178:C180"/>
-    <mergeCell ref="B306:B360"/>
-    <mergeCell ref="C306:C312"/>
-    <mergeCell ref="C313:C330"/>
-    <mergeCell ref="C331:C332"/>
-    <mergeCell ref="C333:C338"/>
-    <mergeCell ref="C339:C351"/>
-    <mergeCell ref="C352:C353"/>
-    <mergeCell ref="C354:C359"/>
-    <mergeCell ref="B397:E397"/>
-    <mergeCell ref="B361:B380"/>
-    <mergeCell ref="C361:C362"/>
-    <mergeCell ref="C363:C364"/>
-    <mergeCell ref="C365:C366"/>
-    <mergeCell ref="C367:C368"/>
-    <mergeCell ref="C369:C374"/>
-    <mergeCell ref="C375:C376"/>
-    <mergeCell ref="C378:C380"/>
-    <mergeCell ref="B381:B395"/>
-    <mergeCell ref="C382:C385"/>
-    <mergeCell ref="C386:C387"/>
-    <mergeCell ref="C388:C392"/>
-    <mergeCell ref="C393:C395"/>
+    <mergeCell ref="C149:C160"/>
+    <mergeCell ref="C161:C162"/>
+    <mergeCell ref="B59:B75"/>
+    <mergeCell ref="C59:C68"/>
+    <mergeCell ref="C69:C71"/>
+    <mergeCell ref="C72:C75"/>
+    <mergeCell ref="B76:B104"/>
+    <mergeCell ref="C76:C83"/>
+    <mergeCell ref="C84:C94"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="C97:C104"/>
+    <mergeCell ref="B28:B58"/>
+    <mergeCell ref="C28:C37"/>
+    <mergeCell ref="C38:C44"/>
+    <mergeCell ref="C45:C48"/>
+    <mergeCell ref="C49:C53"/>
+    <mergeCell ref="C54:C58"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="B4:B11"/>
+    <mergeCell ref="C4:C11"/>
+    <mergeCell ref="B12:B27"/>
+    <mergeCell ref="C12:C17"/>
+    <mergeCell ref="C18:C27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10092,8 +10444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C941"/>
   <sheetViews>
-    <sheetView topLeftCell="A841" workbookViewId="0">
-      <selection activeCell="C862" sqref="C862"/>
+    <sheetView topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="A84" sqref="A84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1"/>
@@ -14195,10 +14547,10 @@
       </c>
     </row>
     <row r="569" spans="2:3" ht="18" customHeight="1">
-      <c r="B569" s="20" t="s">
+      <c r="B569" s="42" t="s">
         <v>1058</v>
       </c>
-      <c r="C569" s="21"/>
+      <c r="C569" s="43"/>
     </row>
     <row r="570" spans="2:3" ht="18" customHeight="1">
       <c r="B570" s="10"/>
@@ -16727,4 +17079,869 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:Y26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1"/>
+  <cols>
+    <col min="1" max="5" width="9" style="2"/>
+    <col min="6" max="10" width="5.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.75" style="2" customWidth="1"/>
+    <col min="12" max="19" width="5.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="9.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="25" width="5.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:25" ht="18" customHeight="1" thickBot="1"/>
+    <row r="2" spans="2:25" ht="18" customHeight="1" thickTop="1">
+      <c r="B2" s="44" t="s">
+        <v>1392</v>
+      </c>
+      <c r="C2" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="45" t="s">
+        <v>1393</v>
+      </c>
+      <c r="E2" s="45" t="s">
+        <v>1394</v>
+      </c>
+      <c r="F2" s="45" t="s">
+        <v>1401</v>
+      </c>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="45"/>
+      <c r="V2" s="45"/>
+      <c r="W2" s="45"/>
+      <c r="X2" s="45"/>
+      <c r="Y2" s="46"/>
+    </row>
+    <row r="3" spans="2:25" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="B3" s="47"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="16" t="s">
+        <v>1402</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>1403</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>1404</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>1413</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>1414</v>
+      </c>
+      <c r="K3" s="16" t="s">
+        <v>1415</v>
+      </c>
+      <c r="L3" s="16" t="s">
+        <v>1411</v>
+      </c>
+      <c r="M3" s="16" t="s">
+        <v>1412</v>
+      </c>
+      <c r="N3" s="16" t="s">
+        <v>1416</v>
+      </c>
+      <c r="O3" s="16" t="s">
+        <v>1405</v>
+      </c>
+      <c r="P3" s="16" t="s">
+        <v>1406</v>
+      </c>
+      <c r="Q3" s="16" t="s">
+        <v>1407</v>
+      </c>
+      <c r="R3" s="16" t="s">
+        <v>1408</v>
+      </c>
+      <c r="S3" s="16" t="s">
+        <v>1409</v>
+      </c>
+      <c r="T3" s="16" t="s">
+        <v>1417</v>
+      </c>
+      <c r="U3" s="16" t="s">
+        <v>1410</v>
+      </c>
+      <c r="V3" s="16" t="s">
+        <v>1418</v>
+      </c>
+      <c r="W3" s="16" t="s">
+        <v>1419</v>
+      </c>
+      <c r="X3" s="16" t="s">
+        <v>1420</v>
+      </c>
+      <c r="Y3" s="48" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="4" spans="2:25" ht="18" customHeight="1">
+      <c r="B4" s="49">
+        <v>2018</v>
+      </c>
+      <c r="C4" s="15">
+        <v>3</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="50"/>
+      <c r="P4" s="50"/>
+      <c r="Q4" s="50"/>
+      <c r="R4" s="50"/>
+      <c r="S4" s="50"/>
+      <c r="T4" s="60"/>
+      <c r="U4" s="60"/>
+      <c r="V4" s="60"/>
+      <c r="W4" s="60"/>
+      <c r="X4" s="60"/>
+      <c r="Y4" s="61"/>
+    </row>
+    <row r="5" spans="2:25" ht="18" customHeight="1">
+      <c r="B5" s="49">
+        <v>2019</v>
+      </c>
+      <c r="C5" s="15">
+        <v>4</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="31"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="50"/>
+      <c r="P5" s="50"/>
+      <c r="Q5" s="50"/>
+      <c r="R5" s="50"/>
+      <c r="S5" s="50"/>
+      <c r="T5" s="60"/>
+      <c r="U5" s="60"/>
+      <c r="V5" s="60"/>
+      <c r="W5" s="60"/>
+      <c r="X5" s="60"/>
+      <c r="Y5" s="61"/>
+    </row>
+    <row r="6" spans="2:25" ht="18" customHeight="1">
+      <c r="B6" s="49">
+        <v>2020</v>
+      </c>
+      <c r="C6" s="15">
+        <v>5</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="31"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="50"/>
+      <c r="P6" s="50"/>
+      <c r="Q6" s="50"/>
+      <c r="R6" s="50"/>
+      <c r="S6" s="50"/>
+      <c r="T6" s="60"/>
+      <c r="U6" s="60"/>
+      <c r="V6" s="60"/>
+      <c r="W6" s="60"/>
+      <c r="X6" s="60"/>
+      <c r="Y6" s="61"/>
+    </row>
+    <row r="7" spans="2:25" ht="18" customHeight="1">
+      <c r="B7" s="49">
+        <v>2021</v>
+      </c>
+      <c r="C7" s="14">
+        <v>6</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>1395</v>
+      </c>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="60"/>
+      <c r="U7" s="60"/>
+      <c r="V7" s="60"/>
+      <c r="W7" s="60"/>
+      <c r="X7" s="60"/>
+      <c r="Y7" s="61"/>
+    </row>
+    <row r="8" spans="2:25" ht="18" customHeight="1">
+      <c r="B8" s="49">
+        <v>2022</v>
+      </c>
+      <c r="C8" s="14">
+        <v>7</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="31"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="60"/>
+      <c r="U8" s="60"/>
+      <c r="V8" s="60"/>
+      <c r="W8" s="60"/>
+      <c r="X8" s="60"/>
+      <c r="Y8" s="61"/>
+    </row>
+    <row r="9" spans="2:25" ht="18" customHeight="1">
+      <c r="B9" s="49">
+        <v>2023</v>
+      </c>
+      <c r="C9" s="14">
+        <v>8</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>1396</v>
+      </c>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="60"/>
+      <c r="U9" s="60"/>
+      <c r="V9" s="60"/>
+      <c r="W9" s="60"/>
+      <c r="X9" s="60"/>
+      <c r="Y9" s="61"/>
+    </row>
+    <row r="10" spans="2:25" ht="18" customHeight="1">
+      <c r="B10" s="49">
+        <v>2024</v>
+      </c>
+      <c r="C10" s="15">
+        <v>9</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="31"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="60"/>
+      <c r="U10" s="60"/>
+      <c r="V10" s="60"/>
+      <c r="W10" s="60"/>
+      <c r="X10" s="60"/>
+      <c r="Y10" s="61"/>
+    </row>
+    <row r="11" spans="2:25" ht="18" customHeight="1">
+      <c r="B11" s="49">
+        <v>2025</v>
+      </c>
+      <c r="C11" s="15">
+        <v>10</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>1397</v>
+      </c>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="60"/>
+      <c r="U11" s="60"/>
+      <c r="V11" s="60"/>
+      <c r="W11" s="60"/>
+      <c r="X11" s="60"/>
+      <c r="Y11" s="61"/>
+    </row>
+    <row r="12" spans="2:25" ht="18" customHeight="1">
+      <c r="B12" s="49">
+        <v>2026</v>
+      </c>
+      <c r="C12" s="15">
+        <v>11</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="31"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="52"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="60"/>
+      <c r="U12" s="60"/>
+      <c r="V12" s="60"/>
+      <c r="W12" s="60"/>
+      <c r="X12" s="60"/>
+      <c r="Y12" s="61"/>
+    </row>
+    <row r="13" spans="2:25" ht="18" customHeight="1">
+      <c r="B13" s="49">
+        <v>2027</v>
+      </c>
+      <c r="C13" s="15">
+        <v>12</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="52"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="60"/>
+      <c r="U13" s="60"/>
+      <c r="V13" s="60"/>
+      <c r="W13" s="60"/>
+      <c r="X13" s="60"/>
+      <c r="Y13" s="61"/>
+    </row>
+    <row r="14" spans="2:25" ht="18" customHeight="1">
+      <c r="B14" s="49">
+        <v>2028</v>
+      </c>
+      <c r="C14" s="15">
+        <v>13</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="31"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="53"/>
+      <c r="M14" s="53"/>
+      <c r="N14" s="52"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="60"/>
+      <c r="U14" s="60"/>
+      <c r="V14" s="60"/>
+      <c r="W14" s="60"/>
+      <c r="X14" s="60"/>
+      <c r="Y14" s="61"/>
+    </row>
+    <row r="15" spans="2:25" ht="18" customHeight="1">
+      <c r="B15" s="49">
+        <v>2029</v>
+      </c>
+      <c r="C15" s="15">
+        <v>14</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="31"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="52"/>
+      <c r="N15" s="52"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="60"/>
+      <c r="U15" s="60"/>
+      <c r="V15" s="60"/>
+      <c r="W15" s="60"/>
+      <c r="X15" s="60"/>
+      <c r="Y15" s="61"/>
+    </row>
+    <row r="16" spans="2:25" ht="18" customHeight="1">
+      <c r="B16" s="49">
+        <v>2030</v>
+      </c>
+      <c r="C16" s="14">
+        <v>15</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="31" t="s">
+        <v>1398</v>
+      </c>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="54"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="60"/>
+      <c r="U16" s="60"/>
+      <c r="V16" s="60"/>
+      <c r="W16" s="60"/>
+      <c r="X16" s="60"/>
+      <c r="Y16" s="61"/>
+    </row>
+    <row r="17" spans="2:25" ht="18" customHeight="1">
+      <c r="B17" s="49">
+        <v>2031</v>
+      </c>
+      <c r="C17" s="14">
+        <v>16</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="31"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="56"/>
+      <c r="N17" s="56"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="60"/>
+      <c r="U17" s="60"/>
+      <c r="V17" s="60"/>
+      <c r="W17" s="60"/>
+      <c r="X17" s="60"/>
+      <c r="Y17" s="61"/>
+    </row>
+    <row r="18" spans="2:25" ht="18" customHeight="1">
+      <c r="B18" s="49">
+        <v>2032</v>
+      </c>
+      <c r="C18" s="14">
+        <v>17</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="31"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="56"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="14"/>
+      <c r="T18" s="60"/>
+      <c r="U18" s="60"/>
+      <c r="V18" s="60"/>
+      <c r="W18" s="60"/>
+      <c r="X18" s="60"/>
+      <c r="Y18" s="61"/>
+    </row>
+    <row r="19" spans="2:25" ht="18" customHeight="1">
+      <c r="B19" s="49">
+        <v>2033</v>
+      </c>
+      <c r="C19" s="15">
+        <v>18</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="31" t="s">
+        <v>1399</v>
+      </c>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="60"/>
+      <c r="U19" s="60"/>
+      <c r="V19" s="60"/>
+      <c r="W19" s="60"/>
+      <c r="X19" s="60"/>
+      <c r="Y19" s="61"/>
+    </row>
+    <row r="20" spans="2:25" ht="18" customHeight="1">
+      <c r="B20" s="49">
+        <v>2034</v>
+      </c>
+      <c r="C20" s="15">
+        <v>19</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="31"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="60"/>
+      <c r="U20" s="60"/>
+      <c r="V20" s="60"/>
+      <c r="W20" s="60"/>
+      <c r="X20" s="60"/>
+      <c r="Y20" s="61"/>
+    </row>
+    <row r="21" spans="2:25" ht="18" customHeight="1">
+      <c r="B21" s="49">
+        <v>2035</v>
+      </c>
+      <c r="C21" s="15">
+        <v>20</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="31"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="14"/>
+      <c r="T21" s="60"/>
+      <c r="U21" s="60"/>
+      <c r="V21" s="60"/>
+      <c r="W21" s="60"/>
+      <c r="X21" s="60"/>
+      <c r="Y21" s="61"/>
+    </row>
+    <row r="22" spans="2:25" ht="18" customHeight="1">
+      <c r="B22" s="49">
+        <v>2036</v>
+      </c>
+      <c r="C22" s="15">
+        <v>21</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="31"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="14"/>
+      <c r="S22" s="14"/>
+      <c r="T22" s="60"/>
+      <c r="U22" s="60"/>
+      <c r="V22" s="60"/>
+      <c r="W22" s="60"/>
+      <c r="X22" s="60"/>
+      <c r="Y22" s="61"/>
+    </row>
+    <row r="23" spans="2:25" ht="18" customHeight="1">
+      <c r="B23" s="49">
+        <v>2037</v>
+      </c>
+      <c r="C23" s="15">
+        <v>22</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="31" t="s">
+        <v>1400</v>
+      </c>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="14"/>
+      <c r="T23" s="60"/>
+      <c r="U23" s="60"/>
+      <c r="V23" s="60"/>
+      <c r="W23" s="60"/>
+      <c r="X23" s="60"/>
+      <c r="Y23" s="61"/>
+    </row>
+    <row r="24" spans="2:25" ht="18" customHeight="1">
+      <c r="B24" s="49">
+        <v>2038</v>
+      </c>
+      <c r="C24" s="15">
+        <v>23</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="31"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="14"/>
+      <c r="T24" s="60"/>
+      <c r="U24" s="60"/>
+      <c r="V24" s="60"/>
+      <c r="W24" s="60"/>
+      <c r="X24" s="60"/>
+      <c r="Y24" s="61"/>
+    </row>
+    <row r="25" spans="2:25" ht="18" customHeight="1" thickBot="1">
+      <c r="B25" s="57">
+        <v>2039</v>
+      </c>
+      <c r="C25" s="58">
+        <v>24</v>
+      </c>
+      <c r="D25" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="59"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="58"/>
+      <c r="J25" s="58"/>
+      <c r="K25" s="58"/>
+      <c r="L25" s="58"/>
+      <c r="M25" s="58"/>
+      <c r="N25" s="58"/>
+      <c r="O25" s="58"/>
+      <c r="P25" s="58"/>
+      <c r="Q25" s="58"/>
+      <c r="R25" s="58"/>
+      <c r="S25" s="58"/>
+      <c r="T25" s="62"/>
+      <c r="U25" s="62"/>
+      <c r="V25" s="62"/>
+      <c r="W25" s="62"/>
+      <c r="X25" s="62"/>
+      <c r="Y25" s="63"/>
+    </row>
+    <row r="26" spans="2:25" ht="18" customHeight="1" thickTop="1"/>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="F2:Y2"/>
+    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="E16:E18"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
 </file>